--- a/AAII_Financials/Quarterly/NOAH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOAH_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>NOAH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,131 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>120800</v>
+        <v>104400</v>
       </c>
       <c r="E8" s="3">
-        <v>125100</v>
+        <v>110300</v>
       </c>
       <c r="F8" s="3">
-        <v>127700</v>
+        <v>117800</v>
       </c>
       <c r="G8" s="3">
-        <v>118000</v>
+        <v>122000</v>
       </c>
       <c r="H8" s="3">
-        <v>120400</v>
+        <v>124600</v>
       </c>
       <c r="I8" s="3">
+        <v>115100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>117400</v>
+      </c>
+      <c r="K8" s="3">
         <v>114400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>119200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>122100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>102900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>104300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>105200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>78600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>87200</v>
+        <v>68600</v>
       </c>
       <c r="E17" s="3">
-        <v>88900</v>
+        <v>92700</v>
       </c>
       <c r="F17" s="3">
-        <v>84300</v>
+        <v>85100</v>
       </c>
       <c r="G17" s="3">
-        <v>95000</v>
+        <v>86700</v>
       </c>
       <c r="H17" s="3">
-        <v>81500</v>
+        <v>82200</v>
       </c>
       <c r="I17" s="3">
+        <v>92700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>79500</v>
+      </c>
+      <c r="K17" s="3">
         <v>82700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>79800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>97700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>78800</v>
-      </c>
-      <c r="M17" s="3">
-        <v>71300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>67300</v>
       </c>
       <c r="O17" s="3">
         <v>71300</v>
       </c>
       <c r="P17" s="3">
+        <v>67300</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>71300</v>
+      </c>
+      <c r="R17" s="3">
         <v>66900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>33600</v>
+        <v>35900</v>
       </c>
       <c r="E18" s="3">
-        <v>36100</v>
+        <v>17700</v>
       </c>
       <c r="F18" s="3">
-        <v>43400</v>
+        <v>32800</v>
       </c>
       <c r="G18" s="3">
-        <v>22900</v>
+        <v>35300</v>
       </c>
       <c r="H18" s="3">
-        <v>38900</v>
+        <v>42300</v>
       </c>
       <c r="I18" s="3">
+        <v>22400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>37900</v>
+      </c>
+      <c r="K18" s="3">
         <v>31700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>39400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>24400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>24100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>33000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>37900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>7300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>24300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,52 +1243,60 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5700</v>
+        <v>5700</v>
       </c>
       <c r="E20" s="3">
-        <v>5900</v>
+        <v>700</v>
       </c>
       <c r="F20" s="3">
-        <v>6700</v>
+        <v>-5600</v>
       </c>
       <c r="G20" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H20" s="3">
+        <v>6600</v>
+      </c>
+      <c r="I20" s="3">
         <v>2600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>9500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>7800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>3600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>3500</v>
-      </c>
-      <c r="N20" s="3">
-        <v>2900</v>
-      </c>
-      <c r="O20" s="3">
-        <v>2800</v>
       </c>
       <c r="P20" s="3">
         <v>2900</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R20" s="3">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,8 +1339,14 @@
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1278,128 +1357,146 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1600</v>
-      </c>
-      <c r="L22" s="3">
-        <v>700</v>
-      </c>
-      <c r="M22" s="3">
-        <v>700</v>
       </c>
       <c r="N22" s="3">
         <v>700</v>
       </c>
       <c r="O22" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="P22" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>600</v>
+      </c>
+      <c r="R22" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>27900</v>
+        <v>41500</v>
       </c>
       <c r="E23" s="3">
-        <v>42100</v>
+        <v>18400</v>
       </c>
       <c r="F23" s="3">
-        <v>50100</v>
+        <v>27200</v>
       </c>
       <c r="G23" s="3">
-        <v>25500</v>
+        <v>41000</v>
       </c>
       <c r="H23" s="3">
-        <v>38400</v>
+        <v>48800</v>
       </c>
       <c r="I23" s="3">
+        <v>24900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>37500</v>
+      </c>
+      <c r="K23" s="3">
         <v>33300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>47900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>30600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>27000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>35800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>40100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>9600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>26500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6400</v>
+        <v>9600</v>
       </c>
       <c r="E24" s="3">
-        <v>9700</v>
+        <v>3900</v>
       </c>
       <c r="F24" s="3">
-        <v>11400</v>
+        <v>6300</v>
       </c>
       <c r="G24" s="3">
-        <v>4200</v>
+        <v>9500</v>
       </c>
       <c r="H24" s="3">
+        <v>11100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K24" s="3">
+        <v>8300</v>
+      </c>
+      <c r="L24" s="3">
+        <v>10600</v>
+      </c>
+      <c r="M24" s="3">
+        <v>6300</v>
+      </c>
+      <c r="N24" s="3">
+        <v>6300</v>
+      </c>
+      <c r="O24" s="3">
         <v>8900</v>
       </c>
-      <c r="I24" s="3">
-        <v>8300</v>
-      </c>
-      <c r="J24" s="3">
-        <v>10600</v>
-      </c>
-      <c r="K24" s="3">
-        <v>6300</v>
-      </c>
-      <c r="L24" s="3">
-        <v>6300</v>
-      </c>
-      <c r="M24" s="3">
-        <v>8900</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>9100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>2100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>21500</v>
+        <v>32000</v>
       </c>
       <c r="E26" s="3">
-        <v>32400</v>
+        <v>14400</v>
       </c>
       <c r="F26" s="3">
-        <v>38700</v>
+        <v>21000</v>
       </c>
       <c r="G26" s="3">
+        <v>31600</v>
+      </c>
+      <c r="H26" s="3">
+        <v>37700</v>
+      </c>
+      <c r="I26" s="3">
+        <v>20800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>28800</v>
+      </c>
+      <c r="K26" s="3">
+        <v>25000</v>
+      </c>
+      <c r="L26" s="3">
+        <v>37300</v>
+      </c>
+      <c r="M26" s="3">
+        <v>24300</v>
+      </c>
+      <c r="N26" s="3">
+        <v>20700</v>
+      </c>
+      <c r="O26" s="3">
+        <v>26900</v>
+      </c>
+      <c r="P26" s="3">
+        <v>31000</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>7500</v>
+      </c>
+      <c r="R26" s="3">
         <v>21400</v>
       </c>
-      <c r="H26" s="3">
-        <v>29600</v>
-      </c>
-      <c r="I26" s="3">
-        <v>25000</v>
-      </c>
-      <c r="J26" s="3">
-        <v>37300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>24300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>20700</v>
-      </c>
-      <c r="M26" s="3">
-        <v>26900</v>
-      </c>
-      <c r="N26" s="3">
-        <v>31000</v>
-      </c>
-      <c r="O26" s="3">
-        <v>7500</v>
-      </c>
-      <c r="P26" s="3">
-        <v>21400</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>27500</v>
+        <v>34000</v>
       </c>
       <c r="E27" s="3">
-        <v>35900</v>
+        <v>14400</v>
       </c>
       <c r="F27" s="3">
-        <v>40800</v>
+        <v>26800</v>
       </c>
       <c r="G27" s="3">
-        <v>22300</v>
+        <v>35000</v>
       </c>
       <c r="H27" s="3">
-        <v>29800</v>
+        <v>39800</v>
       </c>
       <c r="I27" s="3">
+        <v>21800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>29100</v>
+      </c>
+      <c r="K27" s="3">
         <v>25800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>38500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>26800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>27900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>30500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>32000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>11200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5700</v>
+        <v>-5700</v>
       </c>
       <c r="E32" s="3">
-        <v>-5900</v>
+        <v>-700</v>
       </c>
       <c r="F32" s="3">
-        <v>-6700</v>
+        <v>5600</v>
       </c>
       <c r="G32" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="I32" s="3">
         <v>-2600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-9500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-7800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-3600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-3500</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-2800</v>
       </c>
       <c r="P32" s="3">
         <v>-2900</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-2900</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>27500</v>
+        <v>34000</v>
       </c>
       <c r="E33" s="3">
-        <v>35900</v>
+        <v>14400</v>
       </c>
       <c r="F33" s="3">
-        <v>40800</v>
+        <v>26800</v>
       </c>
       <c r="G33" s="3">
-        <v>22300</v>
+        <v>35000</v>
       </c>
       <c r="H33" s="3">
-        <v>29800</v>
+        <v>39800</v>
       </c>
       <c r="I33" s="3">
+        <v>21800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>29100</v>
+      </c>
+      <c r="K33" s="3">
         <v>25800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>38500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>26800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>27900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>30500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>32000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>11200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>27500</v>
+        <v>34000</v>
       </c>
       <c r="E35" s="3">
-        <v>35900</v>
+        <v>14400</v>
       </c>
       <c r="F35" s="3">
-        <v>40800</v>
+        <v>26800</v>
       </c>
       <c r="G35" s="3">
-        <v>22300</v>
+        <v>35000</v>
       </c>
       <c r="H35" s="3">
-        <v>29800</v>
+        <v>39800</v>
       </c>
       <c r="I35" s="3">
+        <v>21800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>29100</v>
+      </c>
+      <c r="K35" s="3">
         <v>25800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>38500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>26800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>27900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>30500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>32000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>11200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,140 +2138,160 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>526400</v>
+        <v>566200</v>
       </c>
       <c r="E41" s="3">
-        <v>412300</v>
+        <v>614100</v>
       </c>
       <c r="F41" s="3">
-        <v>411700</v>
+        <v>513500</v>
       </c>
       <c r="G41" s="3">
-        <v>388000</v>
+        <v>402200</v>
       </c>
       <c r="H41" s="3">
-        <v>338600</v>
+        <v>401600</v>
       </c>
       <c r="I41" s="3">
+        <v>378500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>330300</v>
+      </c>
+      <c r="K41" s="3">
         <v>300600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>308700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>293100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>298800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>295500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>379100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>429600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>263500</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>79900</v>
+        <v>13700</v>
       </c>
       <c r="E42" s="3">
-        <v>107300</v>
+        <v>93900</v>
       </c>
       <c r="F42" s="3">
-        <v>72000</v>
+        <v>78000</v>
       </c>
       <c r="G42" s="3">
-        <v>64600</v>
+        <v>104600</v>
       </c>
       <c r="H42" s="3">
-        <v>30600</v>
+        <v>70200</v>
       </c>
       <c r="I42" s="3">
+        <v>63000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>29800</v>
+      </c>
+      <c r="K42" s="3">
         <v>32100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>35400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>24600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>63800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>84000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>59600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>43100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>223300</v>
+        <v>234500</v>
       </c>
       <c r="E43" s="3">
-        <v>243000</v>
+        <v>199100</v>
       </c>
       <c r="F43" s="3">
-        <v>217600</v>
+        <v>217800</v>
       </c>
       <c r="G43" s="3">
-        <v>214300</v>
+        <v>237100</v>
       </c>
       <c r="H43" s="3">
-        <v>228700</v>
+        <v>212300</v>
       </c>
       <c r="I43" s="3">
+        <v>209100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>223100</v>
+      </c>
+      <c r="K43" s="3">
         <v>211900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>255600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>263300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>253800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>259000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>217400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>196000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>127400</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,184 +2334,214 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>43200</v>
+        <v>28500</v>
       </c>
       <c r="E45" s="3">
-        <v>45500</v>
+        <v>35000</v>
       </c>
       <c r="F45" s="3">
-        <v>68700</v>
+        <v>42100</v>
       </c>
       <c r="G45" s="3">
-        <v>65400</v>
+        <v>44400</v>
       </c>
       <c r="H45" s="3">
-        <v>65400</v>
+        <v>67000</v>
       </c>
       <c r="I45" s="3">
+        <v>63800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>63800</v>
+      </c>
+      <c r="K45" s="3">
         <v>69400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>35500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>39300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>35900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>11600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>44600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>12900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>100500</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>872800</v>
+        <v>842900</v>
       </c>
       <c r="E46" s="3">
-        <v>808100</v>
+        <v>942100</v>
       </c>
       <c r="F46" s="3">
-        <v>770000</v>
+        <v>851400</v>
       </c>
       <c r="G46" s="3">
-        <v>732300</v>
+        <v>788300</v>
       </c>
       <c r="H46" s="3">
-        <v>663300</v>
+        <v>751100</v>
       </c>
       <c r="I46" s="3">
+        <v>714400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>647000</v>
+      </c>
+      <c r="K46" s="3">
         <v>614000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>635200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>620300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>652300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>650100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>700600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>681600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>565500</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>318400</v>
+        <v>302700</v>
       </c>
       <c r="E47" s="3">
-        <v>366200</v>
+        <v>301400</v>
       </c>
       <c r="F47" s="3">
-        <v>352700</v>
+        <v>310600</v>
       </c>
       <c r="G47" s="3">
-        <v>344400</v>
+        <v>357300</v>
       </c>
       <c r="H47" s="3">
-        <v>317100</v>
+        <v>344000</v>
       </c>
       <c r="I47" s="3">
+        <v>335900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>309300</v>
+      </c>
+      <c r="K47" s="3">
         <v>284500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>278400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>300800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>200100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>188400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>146500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>127600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>117100</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>96900</v>
+        <v>85200</v>
       </c>
       <c r="E48" s="3">
-        <v>98900</v>
+        <v>90800</v>
       </c>
       <c r="F48" s="3">
-        <v>89300</v>
+        <v>94600</v>
       </c>
       <c r="G48" s="3">
-        <v>49700</v>
+        <v>96500</v>
       </c>
       <c r="H48" s="3">
+        <v>87100</v>
+      </c>
+      <c r="I48" s="3">
+        <v>48500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>41400</v>
+      </c>
+      <c r="K48" s="3">
         <v>42400</v>
       </c>
-      <c r="I48" s="3">
-        <v>42400</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>43000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>46600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>37300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>37300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>35900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>35100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>29600</v>
+        <v>41100</v>
       </c>
       <c r="E52" s="3">
-        <v>27600</v>
+        <v>37700</v>
       </c>
       <c r="F52" s="3">
-        <v>26000</v>
+        <v>28900</v>
       </c>
       <c r="G52" s="3">
-        <v>23400</v>
+        <v>26900</v>
       </c>
       <c r="H52" s="3">
-        <v>17300</v>
+        <v>25300</v>
       </c>
       <c r="I52" s="3">
+        <v>22900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>16800</v>
+      </c>
+      <c r="K52" s="3">
         <v>25000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>26800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>30500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>23500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>19800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>13300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>13600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1317800</v>
+        <v>1272000</v>
       </c>
       <c r="E54" s="3">
-        <v>1300900</v>
+        <v>1372000</v>
       </c>
       <c r="F54" s="3">
-        <v>1238000</v>
+        <v>1285500</v>
       </c>
       <c r="G54" s="3">
-        <v>1149900</v>
+        <v>1269000</v>
       </c>
       <c r="H54" s="3">
-        <v>1040100</v>
+        <v>1207600</v>
       </c>
       <c r="I54" s="3">
+        <v>1121700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1014600</v>
+      </c>
+      <c r="K54" s="3">
         <v>966000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>983300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>998200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>913200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>895500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>896300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>857900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>727500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2633,170 +2894,194 @@
       <c r="F57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>5000</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>45700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>48500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>84300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>82000</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>75000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>75000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>80000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>80000</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>151400</v>
+        <v>175900</v>
       </c>
       <c r="E59" s="3">
-        <v>185600</v>
+        <v>210600</v>
       </c>
       <c r="F59" s="3">
-        <v>219400</v>
+        <v>147700</v>
       </c>
       <c r="G59" s="3">
-        <v>228300</v>
+        <v>181000</v>
       </c>
       <c r="H59" s="3">
-        <v>176000</v>
+        <v>214000</v>
       </c>
       <c r="I59" s="3">
+        <v>222700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>171700</v>
+      </c>
+      <c r="K59" s="3">
         <v>147500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>200200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>204600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>171400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>138600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>198000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>144900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>162200</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>151400</v>
+        <v>175900</v>
       </c>
       <c r="E60" s="3">
-        <v>185600</v>
+        <v>210600</v>
       </c>
       <c r="F60" s="3">
-        <v>219400</v>
+        <v>147700</v>
       </c>
       <c r="G60" s="3">
-        <v>228300</v>
+        <v>181000</v>
       </c>
       <c r="H60" s="3">
-        <v>176000</v>
+        <v>214000</v>
       </c>
       <c r="I60" s="3">
+        <v>222700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>171700</v>
+      </c>
+      <c r="K60" s="3">
         <v>152500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>200300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>280200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>292100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>267100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>362300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>226900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>162200</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2810,23 +3095,23 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>20800</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>32700</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>20300</v>
+      </c>
+      <c r="J61" s="3">
+        <v>31900</v>
+      </c>
+      <c r="K61" s="3">
         <v>47500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>67500</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2834,57 +3119,69 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>80000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>64300</v>
+        <v>56500</v>
       </c>
       <c r="E62" s="3">
-        <v>67400</v>
+        <v>59100</v>
       </c>
       <c r="F62" s="3">
-        <v>58400</v>
+        <v>62700</v>
       </c>
       <c r="G62" s="3">
-        <v>14800</v>
+        <v>65700</v>
       </c>
       <c r="H62" s="3">
-        <v>18200</v>
+        <v>57000</v>
       </c>
       <c r="I62" s="3">
+        <v>14400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>17800</v>
+      </c>
+      <c r="K62" s="3">
         <v>23300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>23600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>25200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>11500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>15500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>11700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>14900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>16500</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>215700</v>
+        <v>232400</v>
       </c>
       <c r="E66" s="3">
-        <v>252900</v>
+        <v>390400</v>
       </c>
       <c r="F66" s="3">
-        <v>277800</v>
+        <v>210400</v>
       </c>
       <c r="G66" s="3">
-        <v>312300</v>
+        <v>246700</v>
       </c>
       <c r="H66" s="3">
-        <v>227000</v>
+        <v>271000</v>
       </c>
       <c r="I66" s="3">
+        <v>304600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>221400</v>
+      </c>
+      <c r="K66" s="3">
         <v>223400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>291400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>317500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>303600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>332300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>422600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>378000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>258700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
+      <c r="E72" s="3">
+        <v>662700</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G72" s="3">
-        <v>566200</v>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
+      <c r="I72" s="3">
+        <v>552300</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>443100</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>322900</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1102100</v>
+        <v>1039600</v>
       </c>
       <c r="E76" s="3">
-        <v>1048000</v>
+        <v>981600</v>
       </c>
       <c r="F76" s="3">
-        <v>960200</v>
+        <v>1075100</v>
       </c>
       <c r="G76" s="3">
-        <v>837600</v>
+        <v>1022300</v>
       </c>
       <c r="H76" s="3">
-        <v>813100</v>
+        <v>936600</v>
       </c>
       <c r="I76" s="3">
+        <v>817000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>793200</v>
+      </c>
+      <c r="K76" s="3">
         <v>742600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>691900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>680800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>609700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>563200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>473700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>479900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>468800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>27500</v>
+        <v>34000</v>
       </c>
       <c r="E81" s="3">
-        <v>35900</v>
+        <v>14400</v>
       </c>
       <c r="F81" s="3">
-        <v>40800</v>
+        <v>26800</v>
       </c>
       <c r="G81" s="3">
-        <v>22300</v>
+        <v>35000</v>
       </c>
       <c r="H81" s="3">
-        <v>29800</v>
+        <v>39800</v>
       </c>
       <c r="I81" s="3">
+        <v>21800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>29100</v>
+      </c>
+      <c r="K81" s="3">
         <v>25800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>38500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>26800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>27900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>30500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>32000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>11200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4319,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3936,8 +4369,14 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4859,14 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4909,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4957,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOAH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOAH_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,138 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>104400</v>
+        <v>108500</v>
       </c>
       <c r="E8" s="3">
-        <v>110300</v>
+        <v>108400</v>
       </c>
       <c r="F8" s="3">
-        <v>117800</v>
+        <v>114500</v>
       </c>
       <c r="G8" s="3">
-        <v>122000</v>
+        <v>122300</v>
       </c>
       <c r="H8" s="3">
-        <v>124600</v>
+        <v>126600</v>
       </c>
       <c r="I8" s="3">
-        <v>115100</v>
+        <v>129200</v>
       </c>
       <c r="J8" s="3">
+        <v>119400</v>
+      </c>
+      <c r="K8" s="3">
         <v>117400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>114400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>119200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>122100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>102900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>104300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>105200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>78600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>68600</v>
+        <v>62100</v>
       </c>
       <c r="E17" s="3">
-        <v>92700</v>
+        <v>71100</v>
       </c>
       <c r="F17" s="3">
-        <v>85100</v>
+        <v>96200</v>
       </c>
       <c r="G17" s="3">
-        <v>86700</v>
+        <v>88300</v>
       </c>
       <c r="H17" s="3">
-        <v>82200</v>
+        <v>90000</v>
       </c>
       <c r="I17" s="3">
-        <v>92700</v>
+        <v>85300</v>
       </c>
       <c r="J17" s="3">
+        <v>96200</v>
+      </c>
+      <c r="K17" s="3">
         <v>79500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>82700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>79800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>97700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>78800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>71300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>67300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>71300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>66900</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>35900</v>
+        <v>46400</v>
       </c>
       <c r="E18" s="3">
-        <v>17700</v>
+        <v>37200</v>
       </c>
       <c r="F18" s="3">
-        <v>32800</v>
+        <v>18300</v>
       </c>
       <c r="G18" s="3">
-        <v>35300</v>
+        <v>34000</v>
       </c>
       <c r="H18" s="3">
-        <v>42300</v>
+        <v>36600</v>
       </c>
       <c r="I18" s="3">
-        <v>22400</v>
+        <v>43900</v>
       </c>
       <c r="J18" s="3">
+        <v>23200</v>
+      </c>
+      <c r="K18" s="3">
         <v>37900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>31700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>39400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>24400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>24100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>33000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>37900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>24300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,58 +1278,62 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5700</v>
+        <v>2800</v>
       </c>
       <c r="E20" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
-        <v>-5600</v>
-      </c>
       <c r="G20" s="3">
-        <v>5800</v>
+        <v>-5800</v>
       </c>
       <c r="H20" s="3">
-        <v>6600</v>
+        <v>6000</v>
       </c>
       <c r="I20" s="3">
-        <v>2600</v>
+        <v>6800</v>
       </c>
       <c r="J20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>9500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1363,25 +1403,25 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1600</v>
-      </c>
-      <c r="N22" s="3">
-        <v>700</v>
       </c>
       <c r="O22" s="3">
         <v>700</v>
@@ -1390,113 +1430,122 @@
         <v>700</v>
       </c>
       <c r="Q22" s="3">
+        <v>700</v>
+      </c>
+      <c r="R22" s="3">
         <v>600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>41500</v>
+        <v>49200</v>
       </c>
       <c r="E23" s="3">
-        <v>18400</v>
+        <v>43100</v>
       </c>
       <c r="F23" s="3">
-        <v>27200</v>
+        <v>19100</v>
       </c>
       <c r="G23" s="3">
-        <v>41000</v>
+        <v>28300</v>
       </c>
       <c r="H23" s="3">
-        <v>48800</v>
+        <v>42600</v>
       </c>
       <c r="I23" s="3">
-        <v>24900</v>
+        <v>50700</v>
       </c>
       <c r="J23" s="3">
+        <v>25900</v>
+      </c>
+      <c r="K23" s="3">
         <v>37500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>33300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>47900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>30600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>27000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>35800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>40100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>9600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>26500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>9600</v>
+        <v>11300</v>
       </c>
       <c r="E24" s="3">
-        <v>3900</v>
+        <v>9900</v>
       </c>
       <c r="F24" s="3">
-        <v>6300</v>
+        <v>4100</v>
       </c>
       <c r="G24" s="3">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="H24" s="3">
-        <v>11100</v>
+        <v>9800</v>
       </c>
       <c r="I24" s="3">
-        <v>4100</v>
+        <v>11500</v>
       </c>
       <c r="J24" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K24" s="3">
         <v>8700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10600</v>
-      </c>
-      <c r="M24" s="3">
-        <v>6300</v>
       </c>
       <c r="N24" s="3">
         <v>6300</v>
       </c>
       <c r="O24" s="3">
+        <v>6300</v>
+      </c>
+      <c r="P24" s="3">
         <v>8900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>9100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>32000</v>
+        <v>37900</v>
       </c>
       <c r="E26" s="3">
-        <v>14400</v>
+        <v>33200</v>
       </c>
       <c r="F26" s="3">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="G26" s="3">
-        <v>31600</v>
+        <v>21800</v>
       </c>
       <c r="H26" s="3">
-        <v>37700</v>
+        <v>32800</v>
       </c>
       <c r="I26" s="3">
-        <v>20800</v>
+        <v>39100</v>
       </c>
       <c r="J26" s="3">
+        <v>21600</v>
+      </c>
+      <c r="K26" s="3">
         <v>28800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>25000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>37300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>24300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>20700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>26900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>31000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>34000</v>
+        <v>43500</v>
       </c>
       <c r="E27" s="3">
-        <v>14400</v>
+        <v>35300</v>
       </c>
       <c r="F27" s="3">
+        <v>14900</v>
+      </c>
+      <c r="G27" s="3">
+        <v>27800</v>
+      </c>
+      <c r="H27" s="3">
+        <v>36300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>41300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K27" s="3">
+        <v>29100</v>
+      </c>
+      <c r="L27" s="3">
+        <v>25800</v>
+      </c>
+      <c r="M27" s="3">
+        <v>38500</v>
+      </c>
+      <c r="N27" s="3">
         <v>26800</v>
       </c>
-      <c r="G27" s="3">
-        <v>35000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>39800</v>
-      </c>
-      <c r="I27" s="3">
-        <v>21800</v>
-      </c>
-      <c r="J27" s="3">
-        <v>29100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>25800</v>
-      </c>
-      <c r="L27" s="3">
-        <v>38500</v>
-      </c>
-      <c r="M27" s="3">
-        <v>26800</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>27900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>30500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>32000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>11200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5700</v>
+        <v>-2800</v>
       </c>
       <c r="E32" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
-        <v>5600</v>
-      </c>
       <c r="G32" s="3">
-        <v>-5800</v>
+        <v>5800</v>
       </c>
       <c r="H32" s="3">
-        <v>-6600</v>
+        <v>-6000</v>
       </c>
       <c r="I32" s="3">
-        <v>-2600</v>
+        <v>-6800</v>
       </c>
       <c r="J32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-9500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>34000</v>
+        <v>43500</v>
       </c>
       <c r="E33" s="3">
-        <v>14400</v>
+        <v>35300</v>
       </c>
       <c r="F33" s="3">
+        <v>14900</v>
+      </c>
+      <c r="G33" s="3">
+        <v>27800</v>
+      </c>
+      <c r="H33" s="3">
+        <v>36300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>41300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K33" s="3">
+        <v>29100</v>
+      </c>
+      <c r="L33" s="3">
+        <v>25800</v>
+      </c>
+      <c r="M33" s="3">
+        <v>38500</v>
+      </c>
+      <c r="N33" s="3">
         <v>26800</v>
       </c>
-      <c r="G33" s="3">
-        <v>35000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>39800</v>
-      </c>
-      <c r="I33" s="3">
-        <v>21800</v>
-      </c>
-      <c r="J33" s="3">
-        <v>29100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>25800</v>
-      </c>
-      <c r="L33" s="3">
-        <v>38500</v>
-      </c>
-      <c r="M33" s="3">
-        <v>26800</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>27900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>30500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>32000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>11200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>34000</v>
+        <v>43500</v>
       </c>
       <c r="E35" s="3">
-        <v>14400</v>
+        <v>35300</v>
       </c>
       <c r="F35" s="3">
+        <v>14900</v>
+      </c>
+      <c r="G35" s="3">
+        <v>27800</v>
+      </c>
+      <c r="H35" s="3">
+        <v>36300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>41300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K35" s="3">
+        <v>29100</v>
+      </c>
+      <c r="L35" s="3">
+        <v>25800</v>
+      </c>
+      <c r="M35" s="3">
+        <v>38500</v>
+      </c>
+      <c r="N35" s="3">
         <v>26800</v>
       </c>
-      <c r="G35" s="3">
-        <v>35000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>39800</v>
-      </c>
-      <c r="I35" s="3">
-        <v>21800</v>
-      </c>
-      <c r="J35" s="3">
-        <v>29100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>25800</v>
-      </c>
-      <c r="L35" s="3">
-        <v>38500</v>
-      </c>
-      <c r="M35" s="3">
-        <v>26800</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>27900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>30500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>32000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>11200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,158 +2226,168 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>566200</v>
+        <v>605700</v>
       </c>
       <c r="E41" s="3">
-        <v>614100</v>
+        <v>587600</v>
       </c>
       <c r="F41" s="3">
-        <v>513500</v>
+        <v>637200</v>
       </c>
       <c r="G41" s="3">
-        <v>402200</v>
+        <v>532900</v>
       </c>
       <c r="H41" s="3">
-        <v>401600</v>
+        <v>417400</v>
       </c>
       <c r="I41" s="3">
-        <v>378500</v>
+        <v>416800</v>
       </c>
       <c r="J41" s="3">
+        <v>392700</v>
+      </c>
+      <c r="K41" s="3">
         <v>330300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>308700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>293100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>298800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>295500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>379100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>429600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>263500</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>13700</v>
+        <v>8900</v>
       </c>
       <c r="E42" s="3">
-        <v>93900</v>
+        <v>14200</v>
       </c>
       <c r="F42" s="3">
-        <v>78000</v>
+        <v>97500</v>
       </c>
       <c r="G42" s="3">
-        <v>104600</v>
+        <v>80900</v>
       </c>
       <c r="H42" s="3">
-        <v>70200</v>
+        <v>108600</v>
       </c>
       <c r="I42" s="3">
-        <v>63000</v>
+        <v>72900</v>
       </c>
       <c r="J42" s="3">
+        <v>65400</v>
+      </c>
+      <c r="K42" s="3">
         <v>29800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>32100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>35400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>24600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>63800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>84000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>59600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>43100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>234500</v>
+        <v>249900</v>
       </c>
       <c r="E43" s="3">
-        <v>199100</v>
+        <v>243400</v>
       </c>
       <c r="F43" s="3">
-        <v>217800</v>
+        <v>206600</v>
       </c>
       <c r="G43" s="3">
-        <v>237100</v>
+        <v>226000</v>
       </c>
       <c r="H43" s="3">
-        <v>212300</v>
+        <v>246000</v>
       </c>
       <c r="I43" s="3">
-        <v>209100</v>
+        <v>220300</v>
       </c>
       <c r="J43" s="3">
+        <v>216900</v>
+      </c>
+      <c r="K43" s="3">
         <v>223100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>211900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>255600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>263300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>253800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>259000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>217400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>196000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>127400</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,208 +2436,223 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28500</v>
+        <v>29600</v>
       </c>
       <c r="E45" s="3">
-        <v>35000</v>
+        <v>29500</v>
       </c>
       <c r="F45" s="3">
-        <v>42100</v>
+        <v>36300</v>
       </c>
       <c r="G45" s="3">
-        <v>44400</v>
+        <v>43700</v>
       </c>
       <c r="H45" s="3">
-        <v>67000</v>
+        <v>46100</v>
       </c>
       <c r="I45" s="3">
+        <v>69500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>66200</v>
+      </c>
+      <c r="K45" s="3">
         <v>63800</v>
       </c>
-      <c r="J45" s="3">
-        <v>63800</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>69400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>35500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>39300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>35900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>11600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>44600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>12900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>100500</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>842900</v>
+        <v>894100</v>
       </c>
       <c r="E46" s="3">
-        <v>942100</v>
+        <v>874700</v>
       </c>
       <c r="F46" s="3">
-        <v>851400</v>
+        <v>977600</v>
       </c>
       <c r="G46" s="3">
-        <v>788300</v>
+        <v>883500</v>
       </c>
       <c r="H46" s="3">
-        <v>751100</v>
+        <v>818000</v>
       </c>
       <c r="I46" s="3">
-        <v>714400</v>
+        <v>779400</v>
       </c>
       <c r="J46" s="3">
+        <v>741300</v>
+      </c>
+      <c r="K46" s="3">
         <v>647000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>614000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>635200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>620300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>652300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>650100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>700600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>681600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>565500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>302700</v>
+        <v>309000</v>
       </c>
       <c r="E47" s="3">
-        <v>301400</v>
+        <v>314100</v>
       </c>
       <c r="F47" s="3">
-        <v>310600</v>
+        <v>312700</v>
       </c>
       <c r="G47" s="3">
-        <v>357300</v>
+        <v>322300</v>
       </c>
       <c r="H47" s="3">
-        <v>344000</v>
+        <v>370700</v>
       </c>
       <c r="I47" s="3">
-        <v>335900</v>
+        <v>357000</v>
       </c>
       <c r="J47" s="3">
+        <v>348600</v>
+      </c>
+      <c r="K47" s="3">
         <v>309300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>284500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>278400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>300800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>200100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>188400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>146500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>127600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>117100</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>85200</v>
+        <v>88100</v>
       </c>
       <c r="E48" s="3">
-        <v>90800</v>
+        <v>88400</v>
       </c>
       <c r="F48" s="3">
-        <v>94600</v>
+        <v>94200</v>
       </c>
       <c r="G48" s="3">
-        <v>96500</v>
+        <v>98100</v>
       </c>
       <c r="H48" s="3">
-        <v>87100</v>
+        <v>100100</v>
       </c>
       <c r="I48" s="3">
-        <v>48500</v>
+        <v>90400</v>
       </c>
       <c r="J48" s="3">
+        <v>50300</v>
+      </c>
+      <c r="K48" s="3">
         <v>41400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>42400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>43000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>46600</v>
-      </c>
-      <c r="N48" s="3">
-        <v>37300</v>
       </c>
       <c r="O48" s="3">
         <v>37300</v>
       </c>
       <c r="P48" s="3">
+        <v>37300</v>
+      </c>
+      <c r="Q48" s="3">
         <v>35900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>35100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>41100</v>
+        <v>45500</v>
       </c>
       <c r="E52" s="3">
-        <v>37700</v>
+        <v>42600</v>
       </c>
       <c r="F52" s="3">
-        <v>28900</v>
+        <v>39100</v>
       </c>
       <c r="G52" s="3">
-        <v>26900</v>
+        <v>30000</v>
       </c>
       <c r="H52" s="3">
-        <v>25300</v>
+        <v>27900</v>
       </c>
       <c r="I52" s="3">
-        <v>22900</v>
+        <v>26300</v>
       </c>
       <c r="J52" s="3">
+        <v>23700</v>
+      </c>
+      <c r="K52" s="3">
         <v>16800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>25000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>26800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>30500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>23500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>19800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>13300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>13600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1272000</v>
+        <v>1336700</v>
       </c>
       <c r="E54" s="3">
-        <v>1372000</v>
+        <v>1319900</v>
       </c>
       <c r="F54" s="3">
-        <v>1285500</v>
+        <v>1423600</v>
       </c>
       <c r="G54" s="3">
-        <v>1269000</v>
+        <v>1333900</v>
       </c>
       <c r="H54" s="3">
-        <v>1207600</v>
+        <v>1316800</v>
       </c>
       <c r="I54" s="3">
-        <v>1121700</v>
+        <v>1253100</v>
       </c>
       <c r="J54" s="3">
+        <v>1163900</v>
+      </c>
+      <c r="K54" s="3">
         <v>1014600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>966000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>983300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>998200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>913200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>895500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>896300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>857900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>727500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,25 +3010,26 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -2907,31 +3038,34 @@
         <v>0</v>
       </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>5000</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>45700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>48500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>84300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>82000</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2956,132 +3090,141 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M58" s="3">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>75000</v>
       </c>
       <c r="O58" s="3">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="P58" s="3">
         <v>80000</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
+      <c r="Q58" s="3">
+        <v>80000</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>175900</v>
+        <v>153100</v>
       </c>
       <c r="E59" s="3">
-        <v>210600</v>
+        <v>182600</v>
       </c>
       <c r="F59" s="3">
-        <v>147700</v>
+        <v>218600</v>
       </c>
       <c r="G59" s="3">
-        <v>181000</v>
+        <v>153200</v>
       </c>
       <c r="H59" s="3">
-        <v>214000</v>
+        <v>187800</v>
       </c>
       <c r="I59" s="3">
-        <v>222700</v>
+        <v>222100</v>
       </c>
       <c r="J59" s="3">
+        <v>231100</v>
+      </c>
+      <c r="K59" s="3">
         <v>171700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>147500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>200200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>204600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>171400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>138600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>198000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>144900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>162200</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>175900</v>
+        <v>153100</v>
       </c>
       <c r="E60" s="3">
-        <v>210600</v>
+        <v>182600</v>
       </c>
       <c r="F60" s="3">
-        <v>147700</v>
+        <v>218600</v>
       </c>
       <c r="G60" s="3">
-        <v>181000</v>
+        <v>153200</v>
       </c>
       <c r="H60" s="3">
-        <v>214000</v>
+        <v>187800</v>
       </c>
       <c r="I60" s="3">
-        <v>222700</v>
+        <v>222100</v>
       </c>
       <c r="J60" s="3">
+        <v>231100</v>
+      </c>
+      <c r="K60" s="3">
         <v>171700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>152500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>200300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>280200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>292100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>267100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>362300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>226900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>162200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3101,20 +3244,20 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>20300</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>21100</v>
+      </c>
+      <c r="K61" s="3">
         <v>31900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>47500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>67500</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3125,63 +3268,69 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>80000</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>56500</v>
+        <v>59000</v>
       </c>
       <c r="E62" s="3">
+        <v>58600</v>
+      </c>
+      <c r="F62" s="3">
+        <v>61400</v>
+      </c>
+      <c r="G62" s="3">
+        <v>65100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>68200</v>
+      </c>
+      <c r="I62" s="3">
         <v>59100</v>
       </c>
-      <c r="F62" s="3">
-        <v>62700</v>
-      </c>
-      <c r="G62" s="3">
-        <v>65700</v>
-      </c>
-      <c r="H62" s="3">
-        <v>57000</v>
-      </c>
-      <c r="I62" s="3">
-        <v>14400</v>
-      </c>
       <c r="J62" s="3">
+        <v>14900</v>
+      </c>
+      <c r="K62" s="3">
         <v>17800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>23300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>23600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>25200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>14900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>16500</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>232400</v>
+        <v>212100</v>
       </c>
       <c r="E66" s="3">
-        <v>390400</v>
+        <v>241200</v>
       </c>
       <c r="F66" s="3">
-        <v>210400</v>
+        <v>405100</v>
       </c>
       <c r="G66" s="3">
-        <v>246700</v>
+        <v>218300</v>
       </c>
       <c r="H66" s="3">
-        <v>271000</v>
+        <v>256000</v>
       </c>
       <c r="I66" s="3">
-        <v>304600</v>
+        <v>281200</v>
       </c>
       <c r="J66" s="3">
+        <v>316100</v>
+      </c>
+      <c r="K66" s="3">
         <v>221400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>223400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>291400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>317500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>303600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>332300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>422600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>378000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>258700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,19 +3771,22 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="3">
-        <v>662700</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
+        <v>687700</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>5</v>
@@ -3620,11 +3794,11 @@
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I72" s="3">
-        <v>552300</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
+        <v>573100</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>5</v>
@@ -3632,26 +3806,29 @@
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>443100</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>322900</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1039600</v>
+        <v>1124600</v>
       </c>
       <c r="E76" s="3">
-        <v>981600</v>
+        <v>1078700</v>
       </c>
       <c r="F76" s="3">
-        <v>1075100</v>
+        <v>1018600</v>
       </c>
       <c r="G76" s="3">
-        <v>1022300</v>
+        <v>1115600</v>
       </c>
       <c r="H76" s="3">
-        <v>936600</v>
+        <v>1060800</v>
       </c>
       <c r="I76" s="3">
-        <v>817000</v>
+        <v>971900</v>
       </c>
       <c r="J76" s="3">
+        <v>847800</v>
+      </c>
+      <c r="K76" s="3">
         <v>793200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>742600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>691900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>680800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>609700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>563200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>473700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>479900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>468800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>34000</v>
+        <v>43500</v>
       </c>
       <c r="E81" s="3">
-        <v>14400</v>
+        <v>35300</v>
       </c>
       <c r="F81" s="3">
+        <v>14900</v>
+      </c>
+      <c r="G81" s="3">
+        <v>27800</v>
+      </c>
+      <c r="H81" s="3">
+        <v>36300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>41300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K81" s="3">
+        <v>29100</v>
+      </c>
+      <c r="L81" s="3">
+        <v>25800</v>
+      </c>
+      <c r="M81" s="3">
+        <v>38500</v>
+      </c>
+      <c r="N81" s="3">
         <v>26800</v>
       </c>
-      <c r="G81" s="3">
-        <v>35000</v>
-      </c>
-      <c r="H81" s="3">
-        <v>39800</v>
-      </c>
-      <c r="I81" s="3">
-        <v>21800</v>
-      </c>
-      <c r="J81" s="3">
-        <v>29100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>25800</v>
-      </c>
-      <c r="L81" s="3">
-        <v>38500</v>
-      </c>
-      <c r="M81" s="3">
-        <v>26800</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>27900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>30500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>32000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>11200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOAH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOAH_QTR_FIN.xlsx
@@ -748,25 +748,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>108500</v>
+        <v>113700</v>
       </c>
       <c r="E8" s="3">
-        <v>108400</v>
+        <v>113500</v>
       </c>
       <c r="F8" s="3">
-        <v>114500</v>
+        <v>119900</v>
       </c>
       <c r="G8" s="3">
-        <v>122300</v>
+        <v>128100</v>
       </c>
       <c r="H8" s="3">
-        <v>126600</v>
+        <v>132600</v>
       </c>
       <c r="I8" s="3">
-        <v>129200</v>
+        <v>135400</v>
       </c>
       <c r="J8" s="3">
-        <v>119400</v>
+        <v>125100</v>
       </c>
       <c r="K8" s="3">
         <v>117400</v>
@@ -1158,25 +1158,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>62100</v>
+        <v>65100</v>
       </c>
       <c r="E17" s="3">
-        <v>71100</v>
+        <v>74500</v>
       </c>
       <c r="F17" s="3">
-        <v>96200</v>
+        <v>100700</v>
       </c>
       <c r="G17" s="3">
-        <v>88300</v>
+        <v>92400</v>
       </c>
       <c r="H17" s="3">
-        <v>90000</v>
+        <v>94300</v>
       </c>
       <c r="I17" s="3">
-        <v>85300</v>
+        <v>89300</v>
       </c>
       <c r="J17" s="3">
-        <v>96200</v>
+        <v>100800</v>
       </c>
       <c r="K17" s="3">
         <v>79500</v>
@@ -1211,25 +1211,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>46400</v>
+        <v>48600</v>
       </c>
       <c r="E18" s="3">
-        <v>37200</v>
+        <v>39000</v>
       </c>
       <c r="F18" s="3">
-        <v>18300</v>
+        <v>19200</v>
       </c>
       <c r="G18" s="3">
-        <v>34000</v>
+        <v>35600</v>
       </c>
       <c r="H18" s="3">
-        <v>36600</v>
+        <v>38300</v>
       </c>
       <c r="I18" s="3">
-        <v>43900</v>
+        <v>46000</v>
       </c>
       <c r="J18" s="3">
-        <v>23200</v>
+        <v>24300</v>
       </c>
       <c r="K18" s="3">
         <v>37900</v>
@@ -1285,25 +1285,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>800</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>6300</v>
+      </c>
+      <c r="I20" s="3">
+        <v>7100</v>
+      </c>
+      <c r="J20" s="3">
         <v>2800</v>
-      </c>
-      <c r="E20" s="3">
-        <v>5900</v>
-      </c>
-      <c r="F20" s="3">
-        <v>700</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="H20" s="3">
-        <v>6000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>6800</v>
-      </c>
-      <c r="J20" s="3">
-        <v>2700</v>
       </c>
       <c r="K20" s="3">
         <v>-500</v>
@@ -1444,25 +1444,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>49200</v>
+        <v>51600</v>
       </c>
       <c r="E23" s="3">
-        <v>43100</v>
+        <v>45200</v>
       </c>
       <c r="F23" s="3">
-        <v>19100</v>
+        <v>20000</v>
       </c>
       <c r="G23" s="3">
-        <v>28300</v>
+        <v>29600</v>
       </c>
       <c r="H23" s="3">
-        <v>42600</v>
+        <v>44600</v>
       </c>
       <c r="I23" s="3">
-        <v>50700</v>
+        <v>53100</v>
       </c>
       <c r="J23" s="3">
-        <v>25900</v>
+        <v>27100</v>
       </c>
       <c r="K23" s="3">
         <v>37500</v>
@@ -1497,25 +1497,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>11300</v>
+        <v>11800</v>
       </c>
       <c r="E24" s="3">
-        <v>9900</v>
+        <v>10400</v>
       </c>
       <c r="F24" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="G24" s="3">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="H24" s="3">
-        <v>9800</v>
+        <v>10300</v>
       </c>
       <c r="I24" s="3">
-        <v>11500</v>
+        <v>12100</v>
       </c>
       <c r="J24" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="K24" s="3">
         <v>8700</v>
@@ -1603,25 +1603,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>37900</v>
+        <v>39700</v>
       </c>
       <c r="E26" s="3">
-        <v>33200</v>
+        <v>34800</v>
       </c>
       <c r="F26" s="3">
-        <v>15000</v>
+        <v>15700</v>
       </c>
       <c r="G26" s="3">
-        <v>21800</v>
+        <v>22800</v>
       </c>
       <c r="H26" s="3">
-        <v>32800</v>
+        <v>34300</v>
       </c>
       <c r="I26" s="3">
-        <v>39100</v>
+        <v>41000</v>
       </c>
       <c r="J26" s="3">
-        <v>21600</v>
+        <v>22600</v>
       </c>
       <c r="K26" s="3">
         <v>28800</v>
@@ -1656,25 +1656,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>43500</v>
+        <v>45600</v>
       </c>
       <c r="E27" s="3">
-        <v>35300</v>
+        <v>37000</v>
       </c>
       <c r="F27" s="3">
-        <v>14900</v>
+        <v>15600</v>
       </c>
       <c r="G27" s="3">
-        <v>27800</v>
+        <v>29100</v>
       </c>
       <c r="H27" s="3">
-        <v>36300</v>
+        <v>38100</v>
       </c>
       <c r="I27" s="3">
-        <v>41300</v>
+        <v>43300</v>
       </c>
       <c r="J27" s="3">
-        <v>22600</v>
+        <v>23700</v>
       </c>
       <c r="K27" s="3">
         <v>29100</v>
@@ -1921,25 +1921,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G32" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-2800</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G32" s="3">
-        <v>5800</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-2700</v>
       </c>
       <c r="K32" s="3">
         <v>500</v>
@@ -1974,25 +1974,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>43500</v>
+        <v>45600</v>
       </c>
       <c r="E33" s="3">
-        <v>35300</v>
+        <v>37000</v>
       </c>
       <c r="F33" s="3">
-        <v>14900</v>
+        <v>15600</v>
       </c>
       <c r="G33" s="3">
-        <v>27800</v>
+        <v>29100</v>
       </c>
       <c r="H33" s="3">
-        <v>36300</v>
+        <v>38100</v>
       </c>
       <c r="I33" s="3">
-        <v>41300</v>
+        <v>43300</v>
       </c>
       <c r="J33" s="3">
-        <v>22600</v>
+        <v>23700</v>
       </c>
       <c r="K33" s="3">
         <v>29100</v>
@@ -2080,25 +2080,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>43500</v>
+        <v>45600</v>
       </c>
       <c r="E35" s="3">
-        <v>35300</v>
+        <v>37000</v>
       </c>
       <c r="F35" s="3">
-        <v>14900</v>
+        <v>15600</v>
       </c>
       <c r="G35" s="3">
-        <v>27800</v>
+        <v>29100</v>
       </c>
       <c r="H35" s="3">
-        <v>36300</v>
+        <v>38100</v>
       </c>
       <c r="I35" s="3">
-        <v>41300</v>
+        <v>43300</v>
       </c>
       <c r="J35" s="3">
-        <v>22600</v>
+        <v>23700</v>
       </c>
       <c r="K35" s="3">
         <v>29100</v>
@@ -2233,25 +2233,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>605700</v>
+        <v>634400</v>
       </c>
       <c r="E41" s="3">
-        <v>587600</v>
+        <v>615400</v>
       </c>
       <c r="F41" s="3">
-        <v>637200</v>
+        <v>667400</v>
       </c>
       <c r="G41" s="3">
-        <v>532900</v>
+        <v>558200</v>
       </c>
       <c r="H41" s="3">
-        <v>417400</v>
+        <v>437200</v>
       </c>
       <c r="I41" s="3">
-        <v>416800</v>
+        <v>436500</v>
       </c>
       <c r="J41" s="3">
-        <v>392700</v>
+        <v>411300</v>
       </c>
       <c r="K41" s="3">
         <v>330300</v>
@@ -2286,25 +2286,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8900</v>
+        <v>9300</v>
       </c>
       <c r="E42" s="3">
-        <v>14200</v>
+        <v>14900</v>
       </c>
       <c r="F42" s="3">
-        <v>97500</v>
+        <v>102100</v>
       </c>
       <c r="G42" s="3">
-        <v>80900</v>
+        <v>84800</v>
       </c>
       <c r="H42" s="3">
-        <v>108600</v>
+        <v>113700</v>
       </c>
       <c r="I42" s="3">
-        <v>72900</v>
+        <v>76300</v>
       </c>
       <c r="J42" s="3">
-        <v>65400</v>
+        <v>68500</v>
       </c>
       <c r="K42" s="3">
         <v>29800</v>
@@ -2339,25 +2339,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>249900</v>
+        <v>261700</v>
       </c>
       <c r="E43" s="3">
-        <v>243400</v>
+        <v>254900</v>
       </c>
       <c r="F43" s="3">
-        <v>206600</v>
+        <v>216400</v>
       </c>
       <c r="G43" s="3">
-        <v>226000</v>
+        <v>236700</v>
       </c>
       <c r="H43" s="3">
-        <v>246000</v>
+        <v>257700</v>
       </c>
       <c r="I43" s="3">
-        <v>220300</v>
+        <v>230700</v>
       </c>
       <c r="J43" s="3">
-        <v>216900</v>
+        <v>227200</v>
       </c>
       <c r="K43" s="3">
         <v>223100</v>
@@ -2445,25 +2445,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>29600</v>
+        <v>31000</v>
       </c>
       <c r="E45" s="3">
-        <v>29500</v>
+        <v>30900</v>
       </c>
       <c r="F45" s="3">
-        <v>36300</v>
+        <v>38100</v>
       </c>
       <c r="G45" s="3">
-        <v>43700</v>
+        <v>45800</v>
       </c>
       <c r="H45" s="3">
-        <v>46100</v>
+        <v>48200</v>
       </c>
       <c r="I45" s="3">
-        <v>69500</v>
+        <v>72800</v>
       </c>
       <c r="J45" s="3">
-        <v>66200</v>
+        <v>69300</v>
       </c>
       <c r="K45" s="3">
         <v>63800</v>
@@ -2498,25 +2498,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>894100</v>
+        <v>936500</v>
       </c>
       <c r="E46" s="3">
-        <v>874700</v>
+        <v>916200</v>
       </c>
       <c r="F46" s="3">
-        <v>977600</v>
+        <v>1024000</v>
       </c>
       <c r="G46" s="3">
-        <v>883500</v>
+        <v>925400</v>
       </c>
       <c r="H46" s="3">
-        <v>818000</v>
+        <v>856800</v>
       </c>
       <c r="I46" s="3">
-        <v>779400</v>
+        <v>816400</v>
       </c>
       <c r="J46" s="3">
-        <v>741300</v>
+        <v>776400</v>
       </c>
       <c r="K46" s="3">
         <v>647000</v>
@@ -2551,25 +2551,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>309000</v>
+        <v>323700</v>
       </c>
       <c r="E47" s="3">
-        <v>314100</v>
+        <v>329100</v>
       </c>
       <c r="F47" s="3">
-        <v>312700</v>
+        <v>327600</v>
       </c>
       <c r="G47" s="3">
-        <v>322300</v>
+        <v>337600</v>
       </c>
       <c r="H47" s="3">
-        <v>370700</v>
+        <v>388300</v>
       </c>
       <c r="I47" s="3">
-        <v>357000</v>
+        <v>373900</v>
       </c>
       <c r="J47" s="3">
-        <v>348600</v>
+        <v>365100</v>
       </c>
       <c r="K47" s="3">
         <v>309300</v>
@@ -2604,25 +2604,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>88100</v>
+        <v>92300</v>
       </c>
       <c r="E48" s="3">
-        <v>88400</v>
+        <v>92600</v>
       </c>
       <c r="F48" s="3">
-        <v>94200</v>
+        <v>98700</v>
       </c>
       <c r="G48" s="3">
-        <v>98100</v>
+        <v>102800</v>
       </c>
       <c r="H48" s="3">
-        <v>100100</v>
+        <v>104900</v>
       </c>
       <c r="I48" s="3">
-        <v>90400</v>
+        <v>94700</v>
       </c>
       <c r="J48" s="3">
-        <v>50300</v>
+        <v>52700</v>
       </c>
       <c r="K48" s="3">
         <v>41400</v>
@@ -2816,25 +2816,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>45500</v>
+        <v>47700</v>
       </c>
       <c r="E52" s="3">
-        <v>42600</v>
+        <v>44700</v>
       </c>
       <c r="F52" s="3">
-        <v>39100</v>
+        <v>41000</v>
       </c>
       <c r="G52" s="3">
-        <v>30000</v>
+        <v>31400</v>
       </c>
       <c r="H52" s="3">
-        <v>27900</v>
+        <v>29200</v>
       </c>
       <c r="I52" s="3">
-        <v>26300</v>
+        <v>27500</v>
       </c>
       <c r="J52" s="3">
-        <v>23700</v>
+        <v>24800</v>
       </c>
       <c r="K52" s="3">
         <v>16800</v>
@@ -2922,25 +2922,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1336700</v>
+        <v>1400100</v>
       </c>
       <c r="E54" s="3">
-        <v>1319900</v>
+        <v>1382500</v>
       </c>
       <c r="F54" s="3">
-        <v>1423600</v>
+        <v>1491200</v>
       </c>
       <c r="G54" s="3">
-        <v>1333900</v>
+        <v>1397200</v>
       </c>
       <c r="H54" s="3">
-        <v>1316800</v>
+        <v>1379200</v>
       </c>
       <c r="I54" s="3">
-        <v>1253100</v>
+        <v>1312500</v>
       </c>
       <c r="J54" s="3">
-        <v>1163900</v>
+        <v>1219100</v>
       </c>
       <c r="K54" s="3">
         <v>1014600</v>
@@ -3123,25 +3123,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>153100</v>
+        <v>160400</v>
       </c>
       <c r="E59" s="3">
-        <v>182600</v>
+        <v>191200</v>
       </c>
       <c r="F59" s="3">
-        <v>218600</v>
+        <v>228900</v>
       </c>
       <c r="G59" s="3">
-        <v>153200</v>
+        <v>160500</v>
       </c>
       <c r="H59" s="3">
-        <v>187800</v>
+        <v>196700</v>
       </c>
       <c r="I59" s="3">
-        <v>222100</v>
+        <v>232600</v>
       </c>
       <c r="J59" s="3">
-        <v>231100</v>
+        <v>242000</v>
       </c>
       <c r="K59" s="3">
         <v>171700</v>
@@ -3176,25 +3176,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>153100</v>
+        <v>160400</v>
       </c>
       <c r="E60" s="3">
-        <v>182600</v>
+        <v>191200</v>
       </c>
       <c r="F60" s="3">
-        <v>218600</v>
+        <v>228900</v>
       </c>
       <c r="G60" s="3">
-        <v>153200</v>
+        <v>160500</v>
       </c>
       <c r="H60" s="3">
-        <v>187800</v>
+        <v>196700</v>
       </c>
       <c r="I60" s="3">
-        <v>222100</v>
+        <v>232600</v>
       </c>
       <c r="J60" s="3">
-        <v>231100</v>
+        <v>242000</v>
       </c>
       <c r="K60" s="3">
         <v>171700</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>21100</v>
+        <v>22100</v>
       </c>
       <c r="K61" s="3">
         <v>31900</v>
@@ -3282,25 +3282,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>59000</v>
+        <v>61800</v>
       </c>
       <c r="E62" s="3">
-        <v>58600</v>
+        <v>61400</v>
       </c>
       <c r="F62" s="3">
-        <v>61400</v>
+        <v>64300</v>
       </c>
       <c r="G62" s="3">
-        <v>65100</v>
+        <v>68200</v>
       </c>
       <c r="H62" s="3">
-        <v>68200</v>
+        <v>71400</v>
       </c>
       <c r="I62" s="3">
-        <v>59100</v>
+        <v>62000</v>
       </c>
       <c r="J62" s="3">
-        <v>14900</v>
+        <v>15600</v>
       </c>
       <c r="K62" s="3">
         <v>17800</v>
@@ -3494,25 +3494,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>212100</v>
+        <v>222200</v>
       </c>
       <c r="E66" s="3">
-        <v>241200</v>
+        <v>252600</v>
       </c>
       <c r="F66" s="3">
-        <v>405100</v>
+        <v>424300</v>
       </c>
       <c r="G66" s="3">
-        <v>218300</v>
+        <v>228700</v>
       </c>
       <c r="H66" s="3">
-        <v>256000</v>
+        <v>268200</v>
       </c>
       <c r="I66" s="3">
-        <v>281200</v>
+        <v>294600</v>
       </c>
       <c r="J66" s="3">
-        <v>316100</v>
+        <v>331100</v>
       </c>
       <c r="K66" s="3">
         <v>221400</v>
@@ -3786,7 +3786,7 @@
         <v>5</v>
       </c>
       <c r="F72" s="3">
-        <v>687700</v>
+        <v>720300</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>5</v>
@@ -3798,7 +3798,7 @@
         <v>5</v>
       </c>
       <c r="J72" s="3">
-        <v>573100</v>
+        <v>600300</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>5</v>
@@ -3992,25 +3992,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1124600</v>
+        <v>1177900</v>
       </c>
       <c r="E76" s="3">
-        <v>1078700</v>
+        <v>1129900</v>
       </c>
       <c r="F76" s="3">
-        <v>1018600</v>
+        <v>1066900</v>
       </c>
       <c r="G76" s="3">
-        <v>1115600</v>
+        <v>1168500</v>
       </c>
       <c r="H76" s="3">
-        <v>1060800</v>
+        <v>1111100</v>
       </c>
       <c r="I76" s="3">
-        <v>971900</v>
+        <v>1018000</v>
       </c>
       <c r="J76" s="3">
-        <v>847800</v>
+        <v>888000</v>
       </c>
       <c r="K76" s="3">
         <v>793200</v>
@@ -4156,25 +4156,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>43500</v>
+        <v>45600</v>
       </c>
       <c r="E81" s="3">
-        <v>35300</v>
+        <v>37000</v>
       </c>
       <c r="F81" s="3">
-        <v>14900</v>
+        <v>15600</v>
       </c>
       <c r="G81" s="3">
-        <v>27800</v>
+        <v>29100</v>
       </c>
       <c r="H81" s="3">
-        <v>36300</v>
+        <v>38100</v>
       </c>
       <c r="I81" s="3">
-        <v>41300</v>
+        <v>43300</v>
       </c>
       <c r="J81" s="3">
-        <v>22600</v>
+        <v>23700</v>
       </c>
       <c r="K81" s="3">
         <v>29100</v>

--- a/AAII_Financials/Quarterly/NOAH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOAH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>NOAH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,151 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>113700</v>
+        <v>145600</v>
       </c>
       <c r="E8" s="3">
-        <v>113500</v>
+        <v>131300</v>
       </c>
       <c r="F8" s="3">
-        <v>119900</v>
+        <v>114200</v>
       </c>
       <c r="G8" s="3">
-        <v>128100</v>
+        <v>114000</v>
       </c>
       <c r="H8" s="3">
-        <v>132600</v>
+        <v>120400</v>
       </c>
       <c r="I8" s="3">
+        <v>128600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>133200</v>
+      </c>
+      <c r="K8" s="3">
         <v>135400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>125100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>117400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>114400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>119200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>122100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>102900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>104300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>105200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>78600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +861,14 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +920,14 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +947,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +1002,14 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,31 +1061,37 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>279400</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1081,8 +1120,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1179,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1203,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>65100</v>
+        <v>373800</v>
       </c>
       <c r="E17" s="3">
-        <v>74500</v>
+        <v>78200</v>
       </c>
       <c r="F17" s="3">
-        <v>100700</v>
+        <v>65400</v>
       </c>
       <c r="G17" s="3">
-        <v>92400</v>
+        <v>74800</v>
       </c>
       <c r="H17" s="3">
-        <v>94300</v>
+        <v>101200</v>
       </c>
       <c r="I17" s="3">
+        <v>92800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>94700</v>
+      </c>
+      <c r="K17" s="3">
         <v>89300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>100800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>79500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>82700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>79800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>97700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>78800</v>
-      </c>
-      <c r="P17" s="3">
-        <v>71300</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>67300</v>
       </c>
       <c r="R17" s="3">
         <v>71300</v>
       </c>
       <c r="S17" s="3">
+        <v>67300</v>
+      </c>
+      <c r="T17" s="3">
+        <v>71300</v>
+      </c>
+      <c r="U17" s="3">
         <v>66900</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>48600</v>
+        <v>-228200</v>
       </c>
       <c r="E18" s="3">
-        <v>39000</v>
+        <v>53100</v>
       </c>
       <c r="F18" s="3">
-        <v>19200</v>
+        <v>48800</v>
       </c>
       <c r="G18" s="3">
-        <v>35600</v>
+        <v>39100</v>
       </c>
       <c r="H18" s="3">
-        <v>38300</v>
+        <v>19300</v>
       </c>
       <c r="I18" s="3">
+        <v>35800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>38500</v>
+      </c>
+      <c r="K18" s="3">
         <v>46000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>24300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>37900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>31700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>39400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>24400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>24100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>33000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>37900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>7300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>24300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,61 +1344,69 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F20" s="3">
         <v>3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>6200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="J20" s="3">
         <v>6300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>7100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>2800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>9500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>7800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>3600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>3500</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>2900</v>
-      </c>
-      <c r="R20" s="3">
-        <v>2800</v>
       </c>
       <c r="S20" s="3">
         <v>2900</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="U20" s="3">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,16 +1458,22 @@
       <c r="S21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1406,146 +1485,164 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>1000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>1600</v>
-      </c>
-      <c r="O22" s="3">
-        <v>700</v>
-      </c>
-      <c r="P22" s="3">
-        <v>700</v>
       </c>
       <c r="Q22" s="3">
         <v>700</v>
       </c>
       <c r="R22" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="S22" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>600</v>
+      </c>
+      <c r="U22" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>51600</v>
+        <v>-242200</v>
       </c>
       <c r="E23" s="3">
-        <v>45200</v>
+        <v>55600</v>
       </c>
       <c r="F23" s="3">
+        <v>51800</v>
+      </c>
+      <c r="G23" s="3">
+        <v>45400</v>
+      </c>
+      <c r="H23" s="3">
         <v>20000</v>
       </c>
-      <c r="G23" s="3">
-        <v>29600</v>
-      </c>
-      <c r="H23" s="3">
-        <v>44600</v>
-      </c>
       <c r="I23" s="3">
+        <v>29700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>44800</v>
+      </c>
+      <c r="K23" s="3">
         <v>53100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>27100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>37500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>33300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>47900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>30600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>27000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>35800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>40100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>9600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>26500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>11800</v>
+        <v>4200</v>
       </c>
       <c r="E24" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F24" s="3">
+        <v>11900</v>
+      </c>
+      <c r="G24" s="3">
         <v>10400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>4300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>6800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>10300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>12100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>4400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>8700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>8300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>10600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>6300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>6300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>8900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>9100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>2100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1694,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>39700</v>
+        <v>-246400</v>
       </c>
       <c r="E26" s="3">
-        <v>34800</v>
+        <v>42700</v>
       </c>
       <c r="F26" s="3">
+        <v>39900</v>
+      </c>
+      <c r="G26" s="3">
+        <v>34900</v>
+      </c>
+      <c r="H26" s="3">
         <v>15700</v>
       </c>
-      <c r="G26" s="3">
-        <v>22800</v>
-      </c>
-      <c r="H26" s="3">
-        <v>34300</v>
-      </c>
       <c r="I26" s="3">
+        <v>22900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>34500</v>
+      </c>
+      <c r="K26" s="3">
         <v>41000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>22600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>28800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>25000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>37300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>24300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>20700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>26900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>31000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>7500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>45600</v>
+        <v>-240400</v>
       </c>
       <c r="E27" s="3">
-        <v>37000</v>
+        <v>43600</v>
       </c>
       <c r="F27" s="3">
-        <v>15600</v>
+        <v>45800</v>
       </c>
       <c r="G27" s="3">
+        <v>37100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>15700</v>
+      </c>
+      <c r="I27" s="3">
+        <v>29300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>38200</v>
+      </c>
+      <c r="K27" s="3">
+        <v>43300</v>
+      </c>
+      <c r="L27" s="3">
+        <v>23700</v>
+      </c>
+      <c r="M27" s="3">
         <v>29100</v>
       </c>
-      <c r="H27" s="3">
-        <v>38100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>43300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>23700</v>
-      </c>
-      <c r="K27" s="3">
-        <v>29100</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>25800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>38500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>26800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>27900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>30500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>32000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>11200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1871,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1930,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1989,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +2048,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-6200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
-        <v>6000</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-6300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-7100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-2800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-9500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-7800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-3600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-3500</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-2800</v>
       </c>
       <c r="S32" s="3">
         <v>-2900</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="U32" s="3">
+        <v>-2900</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>45600</v>
+        <v>-240400</v>
       </c>
       <c r="E33" s="3">
-        <v>37000</v>
+        <v>43600</v>
       </c>
       <c r="F33" s="3">
-        <v>15600</v>
+        <v>45800</v>
       </c>
       <c r="G33" s="3">
+        <v>37100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>15700</v>
+      </c>
+      <c r="I33" s="3">
+        <v>29300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>38200</v>
+      </c>
+      <c r="K33" s="3">
+        <v>43300</v>
+      </c>
+      <c r="L33" s="3">
+        <v>23700</v>
+      </c>
+      <c r="M33" s="3">
         <v>29100</v>
       </c>
-      <c r="H33" s="3">
-        <v>38100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>43300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>23700</v>
-      </c>
-      <c r="K33" s="3">
-        <v>29100</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>25800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>38500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>26800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>27900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>30500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>32000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>11200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2225,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>45600</v>
+        <v>-240400</v>
       </c>
       <c r="E35" s="3">
-        <v>37000</v>
+        <v>43600</v>
       </c>
       <c r="F35" s="3">
-        <v>15600</v>
+        <v>45800</v>
       </c>
       <c r="G35" s="3">
+        <v>37100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>15700</v>
+      </c>
+      <c r="I35" s="3">
+        <v>29300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>38200</v>
+      </c>
+      <c r="K35" s="3">
+        <v>43300</v>
+      </c>
+      <c r="L35" s="3">
+        <v>23700</v>
+      </c>
+      <c r="M35" s="3">
         <v>29100</v>
       </c>
-      <c r="H35" s="3">
-        <v>38100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>43300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>23700</v>
-      </c>
-      <c r="K35" s="3">
-        <v>29100</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>25800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>38500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>26800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>27900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>30500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>32000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>11200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2375,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,167 +2398,187 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>634400</v>
+        <v>764700</v>
       </c>
       <c r="E41" s="3">
-        <v>615400</v>
+        <v>702400</v>
       </c>
       <c r="F41" s="3">
-        <v>667400</v>
+        <v>637200</v>
       </c>
       <c r="G41" s="3">
-        <v>558200</v>
+        <v>618100</v>
       </c>
       <c r="H41" s="3">
-        <v>437200</v>
+        <v>670300</v>
       </c>
       <c r="I41" s="3">
+        <v>560600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>439000</v>
+      </c>
+      <c r="K41" s="3">
         <v>436500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>411300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>330300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>300600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>308700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>293100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>298800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>295500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>379100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>429600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>263500</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F42" s="3">
         <v>9300</v>
       </c>
-      <c r="E42" s="3">
-        <v>14900</v>
-      </c>
-      <c r="F42" s="3">
-        <v>102100</v>
-      </c>
       <c r="G42" s="3">
-        <v>84800</v>
+        <v>15000</v>
       </c>
       <c r="H42" s="3">
-        <v>113700</v>
+        <v>102600</v>
       </c>
       <c r="I42" s="3">
+        <v>85100</v>
+      </c>
+      <c r="J42" s="3">
+        <v>114200</v>
+      </c>
+      <c r="K42" s="3">
         <v>76300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>68500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>29800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>32100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>35400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>24600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>63800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>84000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>59600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>43100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>261700</v>
+        <v>209900</v>
       </c>
       <c r="E43" s="3">
-        <v>254900</v>
+        <v>234300</v>
       </c>
       <c r="F43" s="3">
-        <v>216400</v>
+        <v>262800</v>
       </c>
       <c r="G43" s="3">
-        <v>236700</v>
+        <v>256000</v>
       </c>
       <c r="H43" s="3">
-        <v>257700</v>
+        <v>217300</v>
       </c>
       <c r="I43" s="3">
+        <v>237700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>258800</v>
+      </c>
+      <c r="K43" s="3">
         <v>230700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>227200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>223100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>211900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>255600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>263300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>253800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>259000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>217400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>196000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>127400</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,220 +2630,250 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="E45" s="3">
-        <v>30900</v>
+        <v>29800</v>
       </c>
       <c r="F45" s="3">
-        <v>38100</v>
+        <v>31200</v>
       </c>
       <c r="G45" s="3">
-        <v>45800</v>
+        <v>31100</v>
       </c>
       <c r="H45" s="3">
-        <v>48200</v>
+        <v>38200</v>
       </c>
       <c r="I45" s="3">
+        <v>46000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>48500</v>
+      </c>
+      <c r="K45" s="3">
         <v>72800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>69300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>63800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>69400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>35500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>39300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>35900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>11600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>44600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>12900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>100500</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>936500</v>
+        <v>1024100</v>
       </c>
       <c r="E46" s="3">
-        <v>916200</v>
+        <v>975000</v>
       </c>
       <c r="F46" s="3">
-        <v>1024000</v>
+        <v>940600</v>
       </c>
       <c r="G46" s="3">
-        <v>925400</v>
+        <v>920200</v>
       </c>
       <c r="H46" s="3">
-        <v>856800</v>
+        <v>1028400</v>
       </c>
       <c r="I46" s="3">
+        <v>929400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>860500</v>
+      </c>
+      <c r="K46" s="3">
         <v>816400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>776400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>647000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>614000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>635200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>620300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>652300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>650100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>700600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>681600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>565500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>323700</v>
+        <v>275200</v>
       </c>
       <c r="E47" s="3">
-        <v>329100</v>
+        <v>317300</v>
       </c>
       <c r="F47" s="3">
-        <v>327600</v>
+        <v>325100</v>
       </c>
       <c r="G47" s="3">
-        <v>337600</v>
+        <v>330500</v>
       </c>
       <c r="H47" s="3">
-        <v>388300</v>
+        <v>329000</v>
       </c>
       <c r="I47" s="3">
+        <v>339100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>390000</v>
+      </c>
+      <c r="K47" s="3">
         <v>373900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>365100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>309300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>284500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>278400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>300800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>200100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>188400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>146500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>127600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>117100</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>92300</v>
+        <v>79900</v>
       </c>
       <c r="E48" s="3">
-        <v>92600</v>
+        <v>82800</v>
       </c>
       <c r="F48" s="3">
-        <v>98700</v>
+        <v>92700</v>
       </c>
       <c r="G48" s="3">
-        <v>102800</v>
+        <v>93000</v>
       </c>
       <c r="H48" s="3">
-        <v>104900</v>
+        <v>99100</v>
       </c>
       <c r="I48" s="3">
+        <v>103200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>105400</v>
+      </c>
+      <c r="K48" s="3">
         <v>94700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>52700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>41400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>42400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>43000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>46600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>37300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>37300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>35900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>35100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2925,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2984,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +3043,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>47700</v>
+        <v>56900</v>
       </c>
       <c r="E52" s="3">
-        <v>44700</v>
+        <v>52500</v>
       </c>
       <c r="F52" s="3">
-        <v>41000</v>
+        <v>47900</v>
       </c>
       <c r="G52" s="3">
-        <v>31400</v>
+        <v>44900</v>
       </c>
       <c r="H52" s="3">
-        <v>29200</v>
+        <v>41200</v>
       </c>
       <c r="I52" s="3">
+        <v>31600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>29400</v>
+      </c>
+      <c r="K52" s="3">
         <v>27500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>24800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>16800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>25000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>26800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>30500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>23500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>19800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>13300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>13600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3161,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1400100</v>
+        <v>1436100</v>
       </c>
       <c r="E54" s="3">
-        <v>1382500</v>
+        <v>1427600</v>
       </c>
       <c r="F54" s="3">
-        <v>1491200</v>
+        <v>1406200</v>
       </c>
       <c r="G54" s="3">
-        <v>1397200</v>
+        <v>1388500</v>
       </c>
       <c r="H54" s="3">
-        <v>1379200</v>
+        <v>1497600</v>
       </c>
       <c r="I54" s="3">
+        <v>1403200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1385200</v>
+      </c>
+      <c r="K54" s="3">
         <v>1312500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1219100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1014600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>966000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>983300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>998200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>913200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>895500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>896300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>857900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>727500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3247,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3270,10 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3041,31 +3302,37 @@
         <v>0</v>
       </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>5000</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>45700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>48500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>84300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>82000</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3093,138 +3360,156 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>75000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>75000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>80000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>80000</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>160400</v>
+        <v>275500</v>
       </c>
       <c r="E59" s="3">
-        <v>191200</v>
+        <v>166600</v>
       </c>
       <c r="F59" s="3">
-        <v>228900</v>
+        <v>161100</v>
       </c>
       <c r="G59" s="3">
-        <v>160500</v>
+        <v>192100</v>
       </c>
       <c r="H59" s="3">
-        <v>196700</v>
+        <v>229900</v>
       </c>
       <c r="I59" s="3">
+        <v>161200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>197600</v>
+      </c>
+      <c r="K59" s="3">
         <v>232600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>242000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>171700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>147500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>200200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>204600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>171400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>138600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>198000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>144900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>162200</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>160400</v>
+        <v>275500</v>
       </c>
       <c r="E60" s="3">
-        <v>191200</v>
+        <v>166600</v>
       </c>
       <c r="F60" s="3">
-        <v>228900</v>
+        <v>161100</v>
       </c>
       <c r="G60" s="3">
-        <v>160500</v>
+        <v>192100</v>
       </c>
       <c r="H60" s="3">
-        <v>196700</v>
+        <v>229900</v>
       </c>
       <c r="I60" s="3">
+        <v>161200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>197600</v>
+      </c>
+      <c r="K60" s="3">
         <v>232600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>242000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>171700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>152500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>200300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>280200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>292100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>267100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>362300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>226900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>162200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3247,23 +3532,23 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>22100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>31900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>47500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>67500</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3271,66 +3556,78 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>80000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>61800</v>
+        <v>48700</v>
       </c>
       <c r="E62" s="3">
-        <v>61400</v>
+        <v>52500</v>
       </c>
       <c r="F62" s="3">
-        <v>64300</v>
+        <v>62100</v>
       </c>
       <c r="G62" s="3">
-        <v>68200</v>
+        <v>61700</v>
       </c>
       <c r="H62" s="3">
-        <v>71400</v>
+        <v>64600</v>
       </c>
       <c r="I62" s="3">
+        <v>68500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>71700</v>
+      </c>
+      <c r="K62" s="3">
         <v>62000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>15600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>17800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>23300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>23600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>25200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>11500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>15500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>11700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>14900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>16500</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3679,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3738,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3797,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>222200</v>
+        <v>324200</v>
       </c>
       <c r="E66" s="3">
-        <v>252600</v>
+        <v>219200</v>
       </c>
       <c r="F66" s="3">
-        <v>424300</v>
+        <v>223100</v>
       </c>
       <c r="G66" s="3">
-        <v>228700</v>
+        <v>253700</v>
       </c>
       <c r="H66" s="3">
-        <v>268200</v>
+        <v>426100</v>
       </c>
       <c r="I66" s="3">
+        <v>229700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>269300</v>
+      </c>
+      <c r="K66" s="3">
         <v>294600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>331100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>221400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>223400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>291400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>317500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>303600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>332300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>422600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>378000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>258700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3883,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3938,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3997,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4056,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +4115,14 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3785,50 +4132,56 @@
       <c r="E72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="3">
-        <v>720300</v>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
+      <c r="H72" s="3">
+        <v>723400</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>600300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>443100</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>322900</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4233,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4292,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4351,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1177900</v>
+        <v>1111800</v>
       </c>
       <c r="E76" s="3">
-        <v>1129900</v>
+        <v>1208400</v>
       </c>
       <c r="F76" s="3">
-        <v>1066900</v>
+        <v>1183000</v>
       </c>
       <c r="G76" s="3">
-        <v>1168500</v>
+        <v>1134800</v>
       </c>
       <c r="H76" s="3">
-        <v>1111100</v>
+        <v>1071500</v>
       </c>
       <c r="I76" s="3">
+        <v>1173600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1115900</v>
+      </c>
+      <c r="K76" s="3">
         <v>1018000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>888000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>793200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>742600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>691900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>680800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>609700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>563200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>473700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>479900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>468800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4469,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>45600</v>
+        <v>-240400</v>
       </c>
       <c r="E81" s="3">
-        <v>37000</v>
+        <v>43600</v>
       </c>
       <c r="F81" s="3">
-        <v>15600</v>
+        <v>45800</v>
       </c>
       <c r="G81" s="3">
+        <v>37100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>15700</v>
+      </c>
+      <c r="I81" s="3">
+        <v>29300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>38200</v>
+      </c>
+      <c r="K81" s="3">
+        <v>43300</v>
+      </c>
+      <c r="L81" s="3">
+        <v>23700</v>
+      </c>
+      <c r="M81" s="3">
         <v>29100</v>
       </c>
-      <c r="H81" s="3">
-        <v>38100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>43300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>23700</v>
-      </c>
-      <c r="K81" s="3">
-        <v>29100</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>25800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>38500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>26800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>27900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>30500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>32000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>11200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4619,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4674,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4733,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4792,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4851,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4910,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,31 +4969,37 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
+      <c r="D89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>55100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>18800</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>128700</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>33700</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>11100</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -4595,8 +5028,14 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5055,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +5110,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5169,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,31 +5228,37 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>25300</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>20400</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-162000</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>67200</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>56600</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4828,8 +5287,14 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5314,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5369,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5428,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5487,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,31 +5546,37 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>14600</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>20800</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>6200</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>42400</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -5114,8 +5605,14 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5664,14 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5721,12 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOAH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOAH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>NOAH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,158 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>145600</v>
+        <v>191100</v>
       </c>
       <c r="E8" s="3">
-        <v>131300</v>
+        <v>148700</v>
       </c>
       <c r="F8" s="3">
-        <v>114200</v>
+        <v>134000</v>
       </c>
       <c r="G8" s="3">
-        <v>114000</v>
+        <v>116600</v>
       </c>
       <c r="H8" s="3">
-        <v>120400</v>
+        <v>116400</v>
       </c>
       <c r="I8" s="3">
-        <v>128600</v>
+        <v>123000</v>
       </c>
       <c r="J8" s="3">
+        <v>131400</v>
+      </c>
+      <c r="K8" s="3">
         <v>133200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>135400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>125100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>117400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>114400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>119200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>122100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>102900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>104300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>105200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>78600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,16 +1084,19 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>279400</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>285300</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>5</v>
@@ -1093,8 +1113,8 @@
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>373800</v>
+        <v>112700</v>
       </c>
       <c r="E17" s="3">
-        <v>78200</v>
+        <v>381700</v>
       </c>
       <c r="F17" s="3">
-        <v>65400</v>
+        <v>79800</v>
       </c>
       <c r="G17" s="3">
-        <v>74800</v>
+        <v>66800</v>
       </c>
       <c r="H17" s="3">
-        <v>101200</v>
+        <v>76400</v>
       </c>
       <c r="I17" s="3">
-        <v>92800</v>
+        <v>103300</v>
       </c>
       <c r="J17" s="3">
+        <v>94800</v>
+      </c>
+      <c r="K17" s="3">
         <v>94700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>89300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>100800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>79500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>82700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>79800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>97700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>78800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>71300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>67300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>71300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>66900</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-228200</v>
+        <v>78400</v>
       </c>
       <c r="E18" s="3">
-        <v>53100</v>
+        <v>-233000</v>
       </c>
       <c r="F18" s="3">
-        <v>48800</v>
+        <v>54200</v>
       </c>
       <c r="G18" s="3">
-        <v>39100</v>
+        <v>49800</v>
       </c>
       <c r="H18" s="3">
-        <v>19300</v>
+        <v>40000</v>
       </c>
       <c r="I18" s="3">
-        <v>35800</v>
+        <v>19700</v>
       </c>
       <c r="J18" s="3">
+        <v>36600</v>
+      </c>
+      <c r="K18" s="3">
         <v>38500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>46000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>24300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>37900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>31700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>39400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>24400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>24100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>33000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>37900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>7300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>24300</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,67 +1379,71 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-14000</v>
+        <v>8900</v>
       </c>
       <c r="E20" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="F20" s="3">
         <v>2600</v>
       </c>
-      <c r="F20" s="3">
-        <v>3000</v>
-      </c>
       <c r="G20" s="3">
-        <v>6200</v>
+        <v>3100</v>
       </c>
       <c r="H20" s="3">
+        <v>6300</v>
+      </c>
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
-        <v>-6100</v>
-      </c>
       <c r="J20" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="K20" s="3">
         <v>6300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>9500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>7800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1464,19 +1501,22 @@
       <c r="U21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1491,25 +1531,25 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>700</v>
       </c>
       <c r="R22" s="3">
         <v>700</v>
@@ -1518,131 +1558,140 @@
         <v>700</v>
       </c>
       <c r="T22" s="3">
+        <v>700</v>
+      </c>
+      <c r="U22" s="3">
         <v>600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-242200</v>
+        <v>87200</v>
       </c>
       <c r="E23" s="3">
-        <v>55600</v>
+        <v>-247300</v>
       </c>
       <c r="F23" s="3">
-        <v>51800</v>
+        <v>56800</v>
       </c>
       <c r="G23" s="3">
-        <v>45400</v>
+        <v>52900</v>
       </c>
       <c r="H23" s="3">
-        <v>20000</v>
+        <v>46300</v>
       </c>
       <c r="I23" s="3">
-        <v>29700</v>
+        <v>20500</v>
       </c>
       <c r="J23" s="3">
+        <v>30400</v>
+      </c>
+      <c r="K23" s="3">
         <v>44800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>53100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>27100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>37500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>33300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>47900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>30600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>27000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>35800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>40100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>9600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>26500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4200</v>
+        <v>20300</v>
       </c>
       <c r="E24" s="3">
-        <v>13000</v>
+        <v>4300</v>
       </c>
       <c r="F24" s="3">
-        <v>11900</v>
+        <v>13300</v>
       </c>
       <c r="G24" s="3">
-        <v>10400</v>
+        <v>12100</v>
       </c>
       <c r="H24" s="3">
-        <v>4300</v>
+        <v>10700</v>
       </c>
       <c r="I24" s="3">
-        <v>6800</v>
+        <v>4400</v>
       </c>
       <c r="J24" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K24" s="3">
         <v>10300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>10600</v>
-      </c>
-      <c r="P24" s="3">
-        <v>6300</v>
       </c>
       <c r="Q24" s="3">
         <v>6300</v>
       </c>
       <c r="R24" s="3">
+        <v>6300</v>
+      </c>
+      <c r="S24" s="3">
         <v>8900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>9100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-246400</v>
+        <v>67000</v>
       </c>
       <c r="E26" s="3">
-        <v>42700</v>
+        <v>-251600</v>
       </c>
       <c r="F26" s="3">
-        <v>39900</v>
+        <v>43600</v>
       </c>
       <c r="G26" s="3">
-        <v>34900</v>
+        <v>40800</v>
       </c>
       <c r="H26" s="3">
-        <v>15700</v>
+        <v>35700</v>
       </c>
       <c r="I26" s="3">
-        <v>22900</v>
+        <v>16100</v>
       </c>
       <c r="J26" s="3">
+        <v>23400</v>
+      </c>
+      <c r="K26" s="3">
         <v>34500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>41000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>22600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>28800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>25000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>37300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>24300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>20700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>26900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>31000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>7500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-240400</v>
+        <v>70800</v>
       </c>
       <c r="E27" s="3">
-        <v>43600</v>
+        <v>-245500</v>
       </c>
       <c r="F27" s="3">
-        <v>45800</v>
+        <v>44600</v>
       </c>
       <c r="G27" s="3">
-        <v>37100</v>
+        <v>46700</v>
       </c>
       <c r="H27" s="3">
-        <v>15700</v>
+        <v>37900</v>
       </c>
       <c r="I27" s="3">
-        <v>29300</v>
+        <v>16000</v>
       </c>
       <c r="J27" s="3">
+        <v>29900</v>
+      </c>
+      <c r="K27" s="3">
         <v>38200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>43300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>23700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>29100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>25800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>38500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>26800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>27900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>30500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>32000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>11200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>14000</v>
+        <v>-8900</v>
       </c>
       <c r="E32" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2600</v>
       </c>
-      <c r="F32" s="3">
-        <v>-3000</v>
-      </c>
       <c r="G32" s="3">
-        <v>-6200</v>
+        <v>-3100</v>
       </c>
       <c r="H32" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
-        <v>6100</v>
-      </c>
       <c r="J32" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-6300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-9500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-240400</v>
+        <v>70800</v>
       </c>
       <c r="E33" s="3">
-        <v>43600</v>
+        <v>-245500</v>
       </c>
       <c r="F33" s="3">
-        <v>45800</v>
+        <v>44600</v>
       </c>
       <c r="G33" s="3">
-        <v>37100</v>
+        <v>46700</v>
       </c>
       <c r="H33" s="3">
-        <v>15700</v>
+        <v>37900</v>
       </c>
       <c r="I33" s="3">
-        <v>29300</v>
+        <v>16000</v>
       </c>
       <c r="J33" s="3">
+        <v>29900</v>
+      </c>
+      <c r="K33" s="3">
         <v>38200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>43300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>23700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>29100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>25800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>38500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>26800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>27900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>30500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>32000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>11200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-240400</v>
+        <v>70800</v>
       </c>
       <c r="E35" s="3">
-        <v>43600</v>
+        <v>-245500</v>
       </c>
       <c r="F35" s="3">
-        <v>45800</v>
+        <v>44600</v>
       </c>
       <c r="G35" s="3">
-        <v>37100</v>
+        <v>46700</v>
       </c>
       <c r="H35" s="3">
-        <v>15700</v>
+        <v>37900</v>
       </c>
       <c r="I35" s="3">
-        <v>29300</v>
+        <v>16000</v>
       </c>
       <c r="J35" s="3">
+        <v>29900</v>
+      </c>
+      <c r="K35" s="3">
         <v>38200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>43300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>23700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>29100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>25800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>38500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>26800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>27900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>30500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>32000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>11200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,185 +2486,195 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>764700</v>
+        <v>765100</v>
       </c>
       <c r="E41" s="3">
-        <v>702400</v>
+        <v>780900</v>
       </c>
       <c r="F41" s="3">
-        <v>637200</v>
+        <v>717200</v>
       </c>
       <c r="G41" s="3">
-        <v>618100</v>
+        <v>650700</v>
       </c>
       <c r="H41" s="3">
-        <v>670300</v>
+        <v>631200</v>
       </c>
       <c r="I41" s="3">
-        <v>560600</v>
+        <v>684500</v>
       </c>
       <c r="J41" s="3">
+        <v>572400</v>
+      </c>
+      <c r="K41" s="3">
         <v>439000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>436500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>411300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>330300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>300600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>308700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>293100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>298800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>295500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>379100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>429600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>263500</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>17600</v>
+        <v>22300</v>
       </c>
       <c r="E42" s="3">
-        <v>8500</v>
+        <v>17900</v>
       </c>
       <c r="F42" s="3">
-        <v>9300</v>
+        <v>8600</v>
       </c>
       <c r="G42" s="3">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="H42" s="3">
-        <v>102600</v>
+        <v>15300</v>
       </c>
       <c r="I42" s="3">
-        <v>85100</v>
+        <v>104700</v>
       </c>
       <c r="J42" s="3">
+        <v>86900</v>
+      </c>
+      <c r="K42" s="3">
         <v>114200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>76300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>68500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>29800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>32100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>35400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>24600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>63800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>84000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>59600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>43100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>209900</v>
+        <v>244500</v>
       </c>
       <c r="E43" s="3">
-        <v>234300</v>
+        <v>214300</v>
       </c>
       <c r="F43" s="3">
-        <v>262800</v>
+        <v>239300</v>
       </c>
       <c r="G43" s="3">
-        <v>256000</v>
+        <v>268400</v>
       </c>
       <c r="H43" s="3">
-        <v>217300</v>
+        <v>261400</v>
       </c>
       <c r="I43" s="3">
-        <v>237700</v>
+        <v>221900</v>
       </c>
       <c r="J43" s="3">
+        <v>242800</v>
+      </c>
+      <c r="K43" s="3">
         <v>258800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>230700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>227200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>223100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>211900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>255600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>263300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>253800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>259000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>217400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>196000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>127400</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,244 +2732,259 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>32000</v>
+        <v>33400</v>
       </c>
       <c r="E45" s="3">
-        <v>29800</v>
+        <v>32700</v>
       </c>
       <c r="F45" s="3">
-        <v>31200</v>
+        <v>30500</v>
       </c>
       <c r="G45" s="3">
-        <v>31100</v>
+        <v>31800</v>
       </c>
       <c r="H45" s="3">
-        <v>38200</v>
+        <v>31700</v>
       </c>
       <c r="I45" s="3">
-        <v>46000</v>
+        <v>39000</v>
       </c>
       <c r="J45" s="3">
+        <v>46900</v>
+      </c>
+      <c r="K45" s="3">
         <v>48500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>72800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>69300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>63800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>69400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>35500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>39300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>35900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>11600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>44600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>12900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>100500</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1024100</v>
+        <v>1065400</v>
       </c>
       <c r="E46" s="3">
-        <v>975000</v>
+        <v>1045800</v>
       </c>
       <c r="F46" s="3">
-        <v>940600</v>
+        <v>995600</v>
       </c>
       <c r="G46" s="3">
-        <v>920200</v>
+        <v>960400</v>
       </c>
       <c r="H46" s="3">
-        <v>1028400</v>
+        <v>939600</v>
       </c>
       <c r="I46" s="3">
-        <v>929400</v>
+        <v>1050100</v>
       </c>
       <c r="J46" s="3">
+        <v>949100</v>
+      </c>
+      <c r="K46" s="3">
         <v>860500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>816400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>776400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>647000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>614000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>635200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>620300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>652300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>650100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>700600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>681600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>565500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>275200</v>
+        <v>284700</v>
       </c>
       <c r="E47" s="3">
-        <v>317300</v>
+        <v>281000</v>
       </c>
       <c r="F47" s="3">
-        <v>325100</v>
+        <v>324000</v>
       </c>
       <c r="G47" s="3">
-        <v>330500</v>
+        <v>331900</v>
       </c>
       <c r="H47" s="3">
-        <v>329000</v>
+        <v>337500</v>
       </c>
       <c r="I47" s="3">
-        <v>339100</v>
+        <v>335900</v>
       </c>
       <c r="J47" s="3">
+        <v>346200</v>
+      </c>
+      <c r="K47" s="3">
         <v>390000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>373900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>365100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>309300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>284500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>278400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>300800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>200100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>188400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>146500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>127600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>117100</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>79900</v>
+        <v>78700</v>
       </c>
       <c r="E48" s="3">
-        <v>82800</v>
+        <v>81600</v>
       </c>
       <c r="F48" s="3">
-        <v>92700</v>
+        <v>84500</v>
       </c>
       <c r="G48" s="3">
-        <v>93000</v>
+        <v>94600</v>
       </c>
       <c r="H48" s="3">
-        <v>99100</v>
+        <v>95000</v>
       </c>
       <c r="I48" s="3">
-        <v>103200</v>
+        <v>101200</v>
       </c>
       <c r="J48" s="3">
         <v>105400</v>
       </c>
       <c r="K48" s="3">
+        <v>105400</v>
+      </c>
+      <c r="L48" s="3">
         <v>94700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>52700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>41400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>42400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>43000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>46600</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>37300</v>
       </c>
       <c r="R48" s="3">
         <v>37300</v>
       </c>
       <c r="S48" s="3">
+        <v>37300</v>
+      </c>
+      <c r="T48" s="3">
         <v>35900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>35100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>56900</v>
+        <v>68400</v>
       </c>
       <c r="E52" s="3">
-        <v>52500</v>
+        <v>58100</v>
       </c>
       <c r="F52" s="3">
-        <v>47900</v>
+        <v>53700</v>
       </c>
       <c r="G52" s="3">
-        <v>44900</v>
+        <v>48900</v>
       </c>
       <c r="H52" s="3">
-        <v>41200</v>
+        <v>45800</v>
       </c>
       <c r="I52" s="3">
-        <v>31600</v>
+        <v>42000</v>
       </c>
       <c r="J52" s="3">
+        <v>32200</v>
+      </c>
+      <c r="K52" s="3">
         <v>29400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>27500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>24800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>16800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>25000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>26800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>30500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>23500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>19800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>13300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>13600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1436100</v>
+        <v>1497200</v>
       </c>
       <c r="E54" s="3">
-        <v>1427600</v>
+        <v>1466400</v>
       </c>
       <c r="F54" s="3">
-        <v>1406200</v>
+        <v>1457800</v>
       </c>
       <c r="G54" s="3">
-        <v>1388500</v>
+        <v>1435900</v>
       </c>
       <c r="H54" s="3">
-        <v>1497600</v>
+        <v>1417900</v>
       </c>
       <c r="I54" s="3">
-        <v>1403200</v>
+        <v>1529300</v>
       </c>
       <c r="J54" s="3">
+        <v>1432900</v>
+      </c>
+      <c r="K54" s="3">
         <v>1385200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1312500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1219100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1014600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>966000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>983300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>998200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>913200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>895500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>896300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>857900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>727500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3308,31 +3439,34 @@
         <v>0</v>
       </c>
       <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
         <v>5000</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
       <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>45700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>48500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>84300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>82000</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3366,150 +3500,159 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P58" s="3">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>75000</v>
       </c>
       <c r="R58" s="3">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="S58" s="3">
         <v>80000</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
+      <c r="T58" s="3">
+        <v>80000</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>275500</v>
+        <v>336100</v>
       </c>
       <c r="E59" s="3">
-        <v>166600</v>
+        <v>293500</v>
       </c>
       <c r="F59" s="3">
-        <v>161100</v>
+        <v>170200</v>
       </c>
       <c r="G59" s="3">
-        <v>192100</v>
+        <v>164500</v>
       </c>
       <c r="H59" s="3">
-        <v>229900</v>
+        <v>196100</v>
       </c>
       <c r="I59" s="3">
-        <v>161200</v>
+        <v>234800</v>
       </c>
       <c r="J59" s="3">
+        <v>164600</v>
+      </c>
+      <c r="K59" s="3">
         <v>197600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>232600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>242000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>171700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>147500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>200200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>204600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>171400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>138600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>198000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>144900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>162200</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>275500</v>
+        <v>336100</v>
       </c>
       <c r="E60" s="3">
-        <v>166600</v>
+        <v>293500</v>
       </c>
       <c r="F60" s="3">
-        <v>161100</v>
+        <v>170200</v>
       </c>
       <c r="G60" s="3">
-        <v>192100</v>
+        <v>164500</v>
       </c>
       <c r="H60" s="3">
-        <v>229900</v>
+        <v>196100</v>
       </c>
       <c r="I60" s="3">
-        <v>161200</v>
+        <v>234800</v>
       </c>
       <c r="J60" s="3">
+        <v>164600</v>
+      </c>
+      <c r="K60" s="3">
         <v>197600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>232600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>242000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>171700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>152500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>200300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>280200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>292100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>267100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>362300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>226900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>162200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3538,20 +3681,20 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>22100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>31900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>47500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>67500</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3562,72 +3705,78 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="U61" s="3">
         <v>80000</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>48700</v>
+        <v>35500</v>
       </c>
       <c r="E62" s="3">
-        <v>52500</v>
+        <v>37600</v>
       </c>
       <c r="F62" s="3">
-        <v>62100</v>
+        <v>53600</v>
       </c>
       <c r="G62" s="3">
-        <v>61700</v>
+        <v>63400</v>
       </c>
       <c r="H62" s="3">
-        <v>64600</v>
+        <v>63000</v>
       </c>
       <c r="I62" s="3">
-        <v>68500</v>
+        <v>65900</v>
       </c>
       <c r="J62" s="3">
+        <v>69900</v>
+      </c>
+      <c r="K62" s="3">
         <v>71700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>62000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>17800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>23300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>23600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>25200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>15500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>11700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>14900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>16500</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>324200</v>
+        <v>371600</v>
       </c>
       <c r="E66" s="3">
-        <v>219200</v>
+        <v>345400</v>
       </c>
       <c r="F66" s="3">
-        <v>223100</v>
+        <v>223800</v>
       </c>
       <c r="G66" s="3">
-        <v>253700</v>
+        <v>227800</v>
       </c>
       <c r="H66" s="3">
-        <v>426100</v>
+        <v>259100</v>
       </c>
       <c r="I66" s="3">
-        <v>229700</v>
+        <v>435100</v>
       </c>
       <c r="J66" s="3">
+        <v>234500</v>
+      </c>
+      <c r="K66" s="3">
         <v>269300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>294600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>331100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>221400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>223400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>291400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>317500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>303600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>332300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>422600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>378000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>258700</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,16 +4292,19 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
+      <c r="E72" s="3">
+        <v>622400</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>5</v>
@@ -4138,11 +4312,11 @@
       <c r="G72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H72" s="3">
-        <v>723400</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
+        <v>738700</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
@@ -4150,38 +4324,41 @@
       <c r="K72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>600300</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>443100</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>322900</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1111800</v>
+        <v>1125600</v>
       </c>
       <c r="E76" s="3">
-        <v>1208400</v>
+        <v>1121000</v>
       </c>
       <c r="F76" s="3">
-        <v>1183000</v>
+        <v>1234000</v>
       </c>
       <c r="G76" s="3">
-        <v>1134800</v>
+        <v>1208100</v>
       </c>
       <c r="H76" s="3">
-        <v>1071500</v>
+        <v>1158800</v>
       </c>
       <c r="I76" s="3">
-        <v>1173600</v>
+        <v>1094200</v>
       </c>
       <c r="J76" s="3">
+        <v>1198400</v>
+      </c>
+      <c r="K76" s="3">
         <v>1115900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1018000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>888000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>793200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>742600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>691900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>680800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>609700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>563200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>473700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>479900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>468800</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-240400</v>
+        <v>70800</v>
       </c>
       <c r="E81" s="3">
-        <v>43600</v>
+        <v>-245500</v>
       </c>
       <c r="F81" s="3">
-        <v>45800</v>
+        <v>44600</v>
       </c>
       <c r="G81" s="3">
-        <v>37100</v>
+        <v>46700</v>
       </c>
       <c r="H81" s="3">
-        <v>15700</v>
+        <v>37900</v>
       </c>
       <c r="I81" s="3">
-        <v>29300</v>
+        <v>16000</v>
       </c>
       <c r="J81" s="3">
+        <v>29900</v>
+      </c>
+      <c r="K81" s="3">
         <v>38200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>43300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>23700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>29100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>25800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>38500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>26800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>27900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>30500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>32000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>11200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,35 +5189,38 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
+      <c r="D89" s="3">
+        <v>77400</v>
       </c>
       <c r="E89" s="3">
-        <v>55100</v>
+        <v>47200</v>
       </c>
       <c r="F89" s="3">
+        <v>56300</v>
+      </c>
+      <c r="G89" s="3">
         <v>1500</v>
       </c>
-      <c r="G89" s="3">
-        <v>18800</v>
-      </c>
       <c r="H89" s="3">
-        <v>128700</v>
+        <v>19200</v>
       </c>
       <c r="I89" s="3">
-        <v>33700</v>
+        <v>131400</v>
       </c>
       <c r="J89" s="3">
+        <v>34400</v>
+      </c>
+      <c r="K89" s="3">
         <v>11100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
@@ -5034,8 +5251,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,35 +5461,38 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3">
+        <v>10700</v>
       </c>
       <c r="E94" s="3">
-        <v>25300</v>
+        <v>-12100</v>
       </c>
       <c r="F94" s="3">
-        <v>20000</v>
+        <v>25900</v>
       </c>
       <c r="G94" s="3">
         <v>20400</v>
       </c>
       <c r="H94" s="3">
-        <v>-162000</v>
+        <v>20800</v>
       </c>
       <c r="I94" s="3">
-        <v>67200</v>
+        <v>-165400</v>
       </c>
       <c r="J94" s="3">
+        <v>68600</v>
+      </c>
+      <c r="K94" s="3">
         <v>56600</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,35 +5795,38 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
+      <c r="D100" s="3">
+        <v>83300</v>
       </c>
       <c r="E100" s="3">
-        <v>3500</v>
+        <v>-76700</v>
       </c>
       <c r="F100" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
-        <v>14600</v>
-      </c>
       <c r="H100" s="3">
-        <v>20800</v>
+        <v>14900</v>
       </c>
       <c r="I100" s="3">
-        <v>6200</v>
+        <v>21300</v>
       </c>
       <c r="J100" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K100" s="3">
         <v>42400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -5611,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5727,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOAH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOAH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>NOAH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,158 +665,165 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>191100</v>
+        <v>138500</v>
       </c>
       <c r="E8" s="3">
-        <v>148700</v>
+        <v>188600</v>
       </c>
       <c r="F8" s="3">
-        <v>134000</v>
+        <v>146800</v>
       </c>
       <c r="G8" s="3">
-        <v>116600</v>
+        <v>132300</v>
       </c>
       <c r="H8" s="3">
-        <v>116400</v>
+        <v>115100</v>
       </c>
       <c r="I8" s="3">
-        <v>123000</v>
+        <v>114900</v>
       </c>
       <c r="J8" s="3">
+        <v>121400</v>
+      </c>
+      <c r="K8" s="3">
         <v>131400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>133200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>135400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>125100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>117400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>114400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>119200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>122100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>102900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>104300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>105200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>78600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,19 +1104,22 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>285300</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>281600</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>5</v>
@@ -1116,8 +1136,8 @@
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>112700</v>
+        <v>89800</v>
       </c>
       <c r="E17" s="3">
-        <v>381700</v>
+        <v>111200</v>
       </c>
       <c r="F17" s="3">
+        <v>376700</v>
+      </c>
+      <c r="G17" s="3">
+        <v>78800</v>
+      </c>
+      <c r="H17" s="3">
+        <v>65900</v>
+      </c>
+      <c r="I17" s="3">
+        <v>75400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>101900</v>
+      </c>
+      <c r="K17" s="3">
+        <v>94800</v>
+      </c>
+      <c r="L17" s="3">
+        <v>94700</v>
+      </c>
+      <c r="M17" s="3">
+        <v>89300</v>
+      </c>
+      <c r="N17" s="3">
+        <v>100800</v>
+      </c>
+      <c r="O17" s="3">
+        <v>79500</v>
+      </c>
+      <c r="P17" s="3">
+        <v>82700</v>
+      </c>
+      <c r="Q17" s="3">
         <v>79800</v>
       </c>
-      <c r="G17" s="3">
-        <v>66800</v>
-      </c>
-      <c r="H17" s="3">
-        <v>76400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>103300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>94800</v>
-      </c>
-      <c r="K17" s="3">
-        <v>94700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>89300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100800</v>
-      </c>
-      <c r="N17" s="3">
-        <v>79500</v>
-      </c>
-      <c r="O17" s="3">
-        <v>82700</v>
-      </c>
-      <c r="P17" s="3">
-        <v>79800</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>97700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>78800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>71300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>67300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>71300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>66900</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>78400</v>
+        <v>48700</v>
       </c>
       <c r="E18" s="3">
-        <v>-233000</v>
+        <v>77400</v>
       </c>
       <c r="F18" s="3">
-        <v>54200</v>
+        <v>-230000</v>
       </c>
       <c r="G18" s="3">
-        <v>49800</v>
+        <v>53500</v>
       </c>
       <c r="H18" s="3">
-        <v>40000</v>
+        <v>49200</v>
       </c>
       <c r="I18" s="3">
-        <v>19700</v>
+        <v>39500</v>
       </c>
       <c r="J18" s="3">
+        <v>19400</v>
+      </c>
+      <c r="K18" s="3">
         <v>36600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>38500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>46000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>24300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>37900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>31700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>39400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>24400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>24100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>33000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>37900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>7300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>24300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,70 +1413,74 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>8900</v>
+        <v>1100</v>
       </c>
       <c r="E20" s="3">
-        <v>-14300</v>
+        <v>8800</v>
       </c>
       <c r="F20" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="G20" s="3">
         <v>2600</v>
       </c>
-      <c r="G20" s="3">
-        <v>3100</v>
-      </c>
       <c r="H20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I20" s="3">
         <v>6300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>9500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>7800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1504,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1518,8 +1558,8 @@
       <c r="F22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1534,25 +1574,25 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1600</v>
-      </c>
-      <c r="R22" s="3">
-        <v>700</v>
       </c>
       <c r="S22" s="3">
         <v>700</v>
@@ -1561,137 +1601,146 @@
         <v>700</v>
       </c>
       <c r="U22" s="3">
+        <v>700</v>
+      </c>
+      <c r="V22" s="3">
         <v>600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>87200</v>
+        <v>49800</v>
       </c>
       <c r="E23" s="3">
-        <v>-247300</v>
+        <v>86100</v>
       </c>
       <c r="F23" s="3">
-        <v>56800</v>
+        <v>-244100</v>
       </c>
       <c r="G23" s="3">
-        <v>52900</v>
+        <v>56100</v>
       </c>
       <c r="H23" s="3">
-        <v>46300</v>
+        <v>52200</v>
       </c>
       <c r="I23" s="3">
-        <v>20500</v>
+        <v>45700</v>
       </c>
       <c r="J23" s="3">
+        <v>20200</v>
+      </c>
+      <c r="K23" s="3">
         <v>30400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>44800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>53100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>27100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>37500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>33300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>47900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>30600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>27000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>35800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>40100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>9600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>26500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>20300</v>
+        <v>10600</v>
       </c>
       <c r="E24" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F24" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G24" s="3">
+        <v>13100</v>
+      </c>
+      <c r="H24" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>10500</v>
+      </c>
+      <c r="J24" s="3">
         <v>4300</v>
       </c>
-      <c r="F24" s="3">
-        <v>13300</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="K24" s="3">
+        <v>7000</v>
+      </c>
+      <c r="L24" s="3">
+        <v>10300</v>
+      </c>
+      <c r="M24" s="3">
         <v>12100</v>
       </c>
-      <c r="H24" s="3">
-        <v>10700</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="N24" s="3">
         <v>4400</v>
       </c>
-      <c r="J24" s="3">
-        <v>7000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>10300</v>
-      </c>
-      <c r="L24" s="3">
-        <v>12100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>4400</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10600</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>6300</v>
       </c>
       <c r="R24" s="3">
         <v>6300</v>
       </c>
       <c r="S24" s="3">
+        <v>6300</v>
+      </c>
+      <c r="T24" s="3">
         <v>8900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>9100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>67000</v>
+        <v>39200</v>
       </c>
       <c r="E26" s="3">
-        <v>-251600</v>
+        <v>66100</v>
       </c>
       <c r="F26" s="3">
-        <v>43600</v>
+        <v>-248300</v>
       </c>
       <c r="G26" s="3">
-        <v>40800</v>
+        <v>43000</v>
       </c>
       <c r="H26" s="3">
-        <v>35700</v>
+        <v>40200</v>
       </c>
       <c r="I26" s="3">
-        <v>16100</v>
+        <v>35200</v>
       </c>
       <c r="J26" s="3">
+        <v>15900</v>
+      </c>
+      <c r="K26" s="3">
         <v>23400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>34500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>41000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>22600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>28800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>25000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>37300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>24300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>20700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>26900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>31000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>70800</v>
+        <v>47000</v>
       </c>
       <c r="E27" s="3">
-        <v>-245500</v>
+        <v>69900</v>
       </c>
       <c r="F27" s="3">
-        <v>44600</v>
+        <v>-242300</v>
       </c>
       <c r="G27" s="3">
-        <v>46700</v>
+        <v>44000</v>
       </c>
       <c r="H27" s="3">
-        <v>37900</v>
+        <v>46100</v>
       </c>
       <c r="I27" s="3">
-        <v>16000</v>
+        <v>37400</v>
       </c>
       <c r="J27" s="3">
+        <v>15800</v>
+      </c>
+      <c r="K27" s="3">
         <v>29900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>38200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>43300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>23700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>29100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>25800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>38500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>26800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>27900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>30500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>32000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>11200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8900</v>
+        <v>-1100</v>
       </c>
       <c r="E32" s="3">
-        <v>14300</v>
+        <v>-8800</v>
       </c>
       <c r="F32" s="3">
+        <v>14100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-2600</v>
       </c>
-      <c r="G32" s="3">
-        <v>-3100</v>
-      </c>
       <c r="H32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-6300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-7800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>70800</v>
+        <v>47000</v>
       </c>
       <c r="E33" s="3">
-        <v>-245500</v>
+        <v>69900</v>
       </c>
       <c r="F33" s="3">
-        <v>44600</v>
+        <v>-242300</v>
       </c>
       <c r="G33" s="3">
-        <v>46700</v>
+        <v>44000</v>
       </c>
       <c r="H33" s="3">
-        <v>37900</v>
+        <v>46100</v>
       </c>
       <c r="I33" s="3">
-        <v>16000</v>
+        <v>37400</v>
       </c>
       <c r="J33" s="3">
+        <v>15800</v>
+      </c>
+      <c r="K33" s="3">
         <v>29900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>38200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>43300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>23700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>29100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>25800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>38500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>26800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>27900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>30500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>32000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>11200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>70800</v>
+        <v>47000</v>
       </c>
       <c r="E35" s="3">
-        <v>-245500</v>
+        <v>69900</v>
       </c>
       <c r="F35" s="3">
-        <v>44600</v>
+        <v>-242300</v>
       </c>
       <c r="G35" s="3">
-        <v>46700</v>
+        <v>44000</v>
       </c>
       <c r="H35" s="3">
-        <v>37900</v>
+        <v>46100</v>
       </c>
       <c r="I35" s="3">
-        <v>16000</v>
+        <v>37400</v>
       </c>
       <c r="J35" s="3">
+        <v>15800</v>
+      </c>
+      <c r="K35" s="3">
         <v>29900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>38200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>43300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>23700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>29100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>25800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>38500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>26800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>27900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>30500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>32000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>11200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,194 +2573,204 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>765100</v>
+        <v>413700</v>
       </c>
       <c r="E41" s="3">
-        <v>780900</v>
+        <v>755200</v>
       </c>
       <c r="F41" s="3">
-        <v>717200</v>
+        <v>770700</v>
       </c>
       <c r="G41" s="3">
-        <v>650700</v>
+        <v>707900</v>
       </c>
       <c r="H41" s="3">
-        <v>631200</v>
+        <v>642200</v>
       </c>
       <c r="I41" s="3">
-        <v>684500</v>
+        <v>623000</v>
       </c>
       <c r="J41" s="3">
+        <v>675600</v>
+      </c>
+      <c r="K41" s="3">
         <v>572400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>439000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>436500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>411300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>330300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>300600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>308700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>293100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>298800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>295500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>379100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>429600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>263500</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>22300</v>
+        <v>14800</v>
       </c>
       <c r="E42" s="3">
-        <v>17900</v>
+        <v>22000</v>
       </c>
       <c r="F42" s="3">
-        <v>8600</v>
+        <v>17700</v>
       </c>
       <c r="G42" s="3">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="H42" s="3">
-        <v>15300</v>
+        <v>9400</v>
       </c>
       <c r="I42" s="3">
-        <v>104700</v>
+        <v>15100</v>
       </c>
       <c r="J42" s="3">
+        <v>103400</v>
+      </c>
+      <c r="K42" s="3">
         <v>86900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>114200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>76300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>68500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>29800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>32100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>35400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>24600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>63800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>84000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>59600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>43100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>244500</v>
+        <v>250900</v>
       </c>
       <c r="E43" s="3">
-        <v>214300</v>
+        <v>241400</v>
       </c>
       <c r="F43" s="3">
-        <v>239300</v>
+        <v>211500</v>
       </c>
       <c r="G43" s="3">
-        <v>268400</v>
+        <v>236200</v>
       </c>
       <c r="H43" s="3">
-        <v>261400</v>
+        <v>264900</v>
       </c>
       <c r="I43" s="3">
-        <v>221900</v>
+        <v>258000</v>
       </c>
       <c r="J43" s="3">
+        <v>219000</v>
+      </c>
+      <c r="K43" s="3">
         <v>242800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>258800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>230700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>227200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>223100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>211900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>255600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>263300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>253800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>259000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>217400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>196000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>127400</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,256 +2831,271 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>33400</v>
+        <v>38500</v>
       </c>
       <c r="E45" s="3">
-        <v>32700</v>
+        <v>32900</v>
       </c>
       <c r="F45" s="3">
-        <v>30500</v>
+        <v>32200</v>
       </c>
       <c r="G45" s="3">
-        <v>31800</v>
+        <v>30100</v>
       </c>
       <c r="H45" s="3">
-        <v>31700</v>
+        <v>31400</v>
       </c>
       <c r="I45" s="3">
-        <v>39000</v>
+        <v>31300</v>
       </c>
       <c r="J45" s="3">
+        <v>38500</v>
+      </c>
+      <c r="K45" s="3">
         <v>46900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>48500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>72800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>69300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>63800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>69400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>35500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>39300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>35900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>11600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>44600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>12900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>100500</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1065400</v>
+        <v>717800</v>
       </c>
       <c r="E46" s="3">
-        <v>1045800</v>
+        <v>1051500</v>
       </c>
       <c r="F46" s="3">
-        <v>995600</v>
+        <v>1032200</v>
       </c>
       <c r="G46" s="3">
-        <v>960400</v>
+        <v>982700</v>
       </c>
       <c r="H46" s="3">
-        <v>939600</v>
+        <v>947900</v>
       </c>
       <c r="I46" s="3">
-        <v>1050100</v>
+        <v>927400</v>
       </c>
       <c r="J46" s="3">
+        <v>1036500</v>
+      </c>
+      <c r="K46" s="3">
         <v>949100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>860500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>816400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>776400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>647000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>614000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>635200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>620300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>652300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>650100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>700600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>681600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>565500</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>284700</v>
+        <v>279200</v>
       </c>
       <c r="E47" s="3">
         <v>281000</v>
       </c>
       <c r="F47" s="3">
-        <v>324000</v>
+        <v>277300</v>
       </c>
       <c r="G47" s="3">
-        <v>331900</v>
+        <v>319800</v>
       </c>
       <c r="H47" s="3">
-        <v>337500</v>
+        <v>327600</v>
       </c>
       <c r="I47" s="3">
-        <v>335900</v>
+        <v>333100</v>
       </c>
       <c r="J47" s="3">
+        <v>331600</v>
+      </c>
+      <c r="K47" s="3">
         <v>346200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>390000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>373900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>365100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>309300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>284500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>278400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>300800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>200100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>188400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>146500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>127600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>117100</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>78700</v>
+        <v>446400</v>
       </c>
       <c r="E48" s="3">
-        <v>81600</v>
+        <v>77700</v>
       </c>
       <c r="F48" s="3">
-        <v>84500</v>
+        <v>80500</v>
       </c>
       <c r="G48" s="3">
-        <v>94600</v>
+        <v>83400</v>
       </c>
       <c r="H48" s="3">
-        <v>95000</v>
+        <v>93400</v>
       </c>
       <c r="I48" s="3">
-        <v>101200</v>
+        <v>93800</v>
       </c>
       <c r="J48" s="3">
-        <v>105400</v>
+        <v>99900</v>
       </c>
       <c r="K48" s="3">
         <v>105400</v>
       </c>
       <c r="L48" s="3">
+        <v>105400</v>
+      </c>
+      <c r="M48" s="3">
         <v>94700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>52700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>41400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>42400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>43000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>46600</v>
-      </c>
-      <c r="R48" s="3">
-        <v>37300</v>
       </c>
       <c r="S48" s="3">
         <v>37300</v>
       </c>
       <c r="T48" s="3">
+        <v>37300</v>
+      </c>
+      <c r="U48" s="3">
         <v>35900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>35100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>68400</v>
+        <v>65100</v>
       </c>
       <c r="E52" s="3">
-        <v>58100</v>
+        <v>67500</v>
       </c>
       <c r="F52" s="3">
-        <v>53700</v>
+        <v>57400</v>
       </c>
       <c r="G52" s="3">
-        <v>48900</v>
+        <v>53000</v>
       </c>
       <c r="H52" s="3">
-        <v>45800</v>
+        <v>48200</v>
       </c>
       <c r="I52" s="3">
-        <v>42000</v>
+        <v>45200</v>
       </c>
       <c r="J52" s="3">
+        <v>41500</v>
+      </c>
+      <c r="K52" s="3">
         <v>32200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>29400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>27500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>24800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>25000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>26800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>30500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>23500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>19800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>13300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>13600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1497200</v>
+        <v>1508600</v>
       </c>
       <c r="E54" s="3">
-        <v>1466400</v>
+        <v>1477700</v>
       </c>
       <c r="F54" s="3">
-        <v>1457800</v>
+        <v>1447300</v>
       </c>
       <c r="G54" s="3">
-        <v>1435900</v>
+        <v>1438800</v>
       </c>
       <c r="H54" s="3">
-        <v>1417900</v>
+        <v>1417200</v>
       </c>
       <c r="I54" s="3">
-        <v>1529300</v>
+        <v>1399400</v>
       </c>
       <c r="J54" s="3">
+        <v>1509400</v>
+      </c>
+      <c r="K54" s="3">
         <v>1432900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1385200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1312500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1219100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1014600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>966000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>983300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>998200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>913200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>895500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>896300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>857900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>727500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3442,31 +3573,34 @@
         <v>0</v>
       </c>
       <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
         <v>5000</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
       <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>45700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>48500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>84300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>82000</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3503,156 +3637,165 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q58" s="3">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>75000</v>
       </c>
       <c r="S58" s="3">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="T58" s="3">
         <v>80000</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
+      <c r="U58" s="3">
+        <v>80000</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>336100</v>
+        <v>259900</v>
       </c>
       <c r="E59" s="3">
-        <v>293500</v>
+        <v>331700</v>
       </c>
       <c r="F59" s="3">
-        <v>170200</v>
+        <v>289700</v>
       </c>
       <c r="G59" s="3">
-        <v>164500</v>
+        <v>167900</v>
       </c>
       <c r="H59" s="3">
-        <v>196100</v>
+        <v>162300</v>
       </c>
       <c r="I59" s="3">
-        <v>234800</v>
+        <v>193600</v>
       </c>
       <c r="J59" s="3">
+        <v>231700</v>
+      </c>
+      <c r="K59" s="3">
         <v>164600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>197600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>232600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>242000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>171700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>147500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>200200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>204600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>171400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>138600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>198000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>144900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>162200</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>336100</v>
+        <v>259900</v>
       </c>
       <c r="E60" s="3">
-        <v>293500</v>
+        <v>331700</v>
       </c>
       <c r="F60" s="3">
-        <v>170200</v>
+        <v>289700</v>
       </c>
       <c r="G60" s="3">
-        <v>164500</v>
+        <v>167900</v>
       </c>
       <c r="H60" s="3">
-        <v>196100</v>
+        <v>162300</v>
       </c>
       <c r="I60" s="3">
-        <v>234800</v>
+        <v>193600</v>
       </c>
       <c r="J60" s="3">
+        <v>231700</v>
+      </c>
+      <c r="K60" s="3">
         <v>164600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>197600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>232600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>242000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>171700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>152500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>200300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>280200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>292100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>267100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>362300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>226900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>162200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3684,20 +3827,20 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>22100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>31900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>47500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>67500</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3708,75 +3851,81 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="V61" s="3">
         <v>80000</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>35500</v>
+        <v>80000</v>
       </c>
       <c r="E62" s="3">
-        <v>37600</v>
+        <v>35000</v>
       </c>
       <c r="F62" s="3">
-        <v>53600</v>
+        <v>37100</v>
       </c>
       <c r="G62" s="3">
-        <v>63400</v>
+        <v>52900</v>
       </c>
       <c r="H62" s="3">
-        <v>63000</v>
+        <v>62600</v>
       </c>
       <c r="I62" s="3">
-        <v>65900</v>
+        <v>62200</v>
       </c>
       <c r="J62" s="3">
+        <v>65100</v>
+      </c>
+      <c r="K62" s="3">
         <v>69900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>71700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>62000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>17800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>23300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>23600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>25200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>11500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>15500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>11700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>14900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>16500</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>371600</v>
+        <v>339800</v>
       </c>
       <c r="E66" s="3">
-        <v>345400</v>
+        <v>366700</v>
       </c>
       <c r="F66" s="3">
-        <v>223800</v>
+        <v>340900</v>
       </c>
       <c r="G66" s="3">
-        <v>227800</v>
+        <v>220900</v>
       </c>
       <c r="H66" s="3">
-        <v>259100</v>
+        <v>224900</v>
       </c>
       <c r="I66" s="3">
-        <v>435100</v>
+        <v>255700</v>
       </c>
       <c r="J66" s="3">
+        <v>429500</v>
+      </c>
+      <c r="K66" s="3">
         <v>234500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>269300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>294600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>331100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>221400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>223400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>291400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>317500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>303600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>332300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>422600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>378000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>258700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,19 +4466,22 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="3">
-        <v>622400</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
+        <v>614300</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>5</v>
@@ -4315,11 +4489,11 @@
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I72" s="3">
-        <v>738700</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
+        <v>729100</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>5</v>
@@ -4327,38 +4501,41 @@
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>600300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>443100</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>322900</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1125600</v>
+        <v>1168800</v>
       </c>
       <c r="E76" s="3">
-        <v>1121000</v>
+        <v>1111000</v>
       </c>
       <c r="F76" s="3">
-        <v>1234000</v>
+        <v>1106400</v>
       </c>
       <c r="G76" s="3">
-        <v>1208100</v>
+        <v>1217900</v>
       </c>
       <c r="H76" s="3">
-        <v>1158800</v>
+        <v>1192300</v>
       </c>
       <c r="I76" s="3">
-        <v>1094200</v>
+        <v>1143700</v>
       </c>
       <c r="J76" s="3">
+        <v>1079900</v>
+      </c>
+      <c r="K76" s="3">
         <v>1198400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1115900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1018000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>888000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>793200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>742600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>691900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>680800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>609700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>563200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>473700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>479900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>468800</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>70800</v>
+        <v>47000</v>
       </c>
       <c r="E81" s="3">
-        <v>-245500</v>
+        <v>69900</v>
       </c>
       <c r="F81" s="3">
-        <v>44600</v>
+        <v>-242300</v>
       </c>
       <c r="G81" s="3">
-        <v>46700</v>
+        <v>44000</v>
       </c>
       <c r="H81" s="3">
-        <v>37900</v>
+        <v>46100</v>
       </c>
       <c r="I81" s="3">
-        <v>16000</v>
+        <v>37400</v>
       </c>
       <c r="J81" s="3">
+        <v>15800</v>
+      </c>
+      <c r="K81" s="3">
         <v>29900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>38200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>43300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>23700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>29100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>25800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>38500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>26800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>27900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>30500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>32000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>11200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,38 +5406,41 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>77400</v>
+        <v>700</v>
       </c>
       <c r="E89" s="3">
-        <v>47200</v>
+        <v>76400</v>
       </c>
       <c r="F89" s="3">
-        <v>56300</v>
+        <v>46600</v>
       </c>
       <c r="G89" s="3">
+        <v>55600</v>
+      </c>
+      <c r="H89" s="3">
         <v>1500</v>
       </c>
-      <c r="H89" s="3">
-        <v>19200</v>
-      </c>
       <c r="I89" s="3">
-        <v>131400</v>
+        <v>19000</v>
       </c>
       <c r="J89" s="3">
+        <v>129700</v>
+      </c>
+      <c r="K89" s="3">
         <v>34400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,38 +5691,41 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>10700</v>
+        <v>31000</v>
       </c>
       <c r="E94" s="3">
-        <v>-12100</v>
+        <v>10600</v>
       </c>
       <c r="F94" s="3">
-        <v>25900</v>
+        <v>-11900</v>
       </c>
       <c r="G94" s="3">
-        <v>20400</v>
+        <v>25500</v>
       </c>
       <c r="H94" s="3">
-        <v>20800</v>
+        <v>20100</v>
       </c>
       <c r="I94" s="3">
-        <v>-165400</v>
+        <v>20500</v>
       </c>
       <c r="J94" s="3">
+        <v>-163200</v>
+      </c>
+      <c r="K94" s="3">
         <v>68600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>56600</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,38 +6041,41 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>83300</v>
+        <v>1500</v>
       </c>
       <c r="E100" s="3">
-        <v>-76700</v>
+        <v>82200</v>
       </c>
       <c r="F100" s="3">
-        <v>3600</v>
+        <v>-75700</v>
       </c>
       <c r="G100" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
-        <v>14900</v>
-      </c>
       <c r="I100" s="3">
-        <v>21300</v>
+        <v>14700</v>
       </c>
       <c r="J100" s="3">
+        <v>21000</v>
+      </c>
+      <c r="K100" s="3">
         <v>6300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>42400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOAH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOAH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>NOAH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,172 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>138500</v>
+        <v>142300</v>
       </c>
       <c r="E8" s="3">
-        <v>188600</v>
+        <v>140800</v>
       </c>
       <c r="F8" s="3">
-        <v>146800</v>
+        <v>191700</v>
       </c>
       <c r="G8" s="3">
-        <v>132300</v>
+        <v>149200</v>
       </c>
       <c r="H8" s="3">
-        <v>115100</v>
+        <v>134500</v>
       </c>
       <c r="I8" s="3">
-        <v>114900</v>
+        <v>117000</v>
       </c>
       <c r="J8" s="3">
+        <v>116800</v>
+      </c>
+      <c r="K8" s="3">
         <v>121400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>131400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>133200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>135400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>125100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>117400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>114400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>119200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>122100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>102900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>104300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>105200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>78600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,22 +1124,25 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
         <v>3000</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>281600</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>286300</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
@@ -1139,8 +1159,8 @@
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>89800</v>
+        <v>106700</v>
       </c>
       <c r="E17" s="3">
-        <v>111200</v>
+        <v>91300</v>
       </c>
       <c r="F17" s="3">
-        <v>376700</v>
+        <v>113100</v>
       </c>
       <c r="G17" s="3">
+        <v>383000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>80100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>67000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>76700</v>
+      </c>
+      <c r="K17" s="3">
+        <v>101900</v>
+      </c>
+      <c r="L17" s="3">
+        <v>94800</v>
+      </c>
+      <c r="M17" s="3">
+        <v>94700</v>
+      </c>
+      <c r="N17" s="3">
+        <v>89300</v>
+      </c>
+      <c r="O17" s="3">
+        <v>100800</v>
+      </c>
+      <c r="P17" s="3">
+        <v>79500</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>82700</v>
+      </c>
+      <c r="R17" s="3">
+        <v>79800</v>
+      </c>
+      <c r="S17" s="3">
+        <v>97700</v>
+      </c>
+      <c r="T17" s="3">
         <v>78800</v>
       </c>
-      <c r="H17" s="3">
-        <v>65900</v>
-      </c>
-      <c r="I17" s="3">
-        <v>75400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>101900</v>
-      </c>
-      <c r="K17" s="3">
-        <v>94800</v>
-      </c>
-      <c r="L17" s="3">
-        <v>94700</v>
-      </c>
-      <c r="M17" s="3">
-        <v>89300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>100800</v>
-      </c>
-      <c r="O17" s="3">
-        <v>79500</v>
-      </c>
-      <c r="P17" s="3">
-        <v>82700</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>79800</v>
-      </c>
-      <c r="R17" s="3">
-        <v>97700</v>
-      </c>
-      <c r="S17" s="3">
-        <v>78800</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>71300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>67300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>71300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>66900</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>48700</v>
+        <v>35600</v>
       </c>
       <c r="E18" s="3">
-        <v>77400</v>
+        <v>49500</v>
       </c>
       <c r="F18" s="3">
-        <v>-230000</v>
+        <v>78600</v>
       </c>
       <c r="G18" s="3">
-        <v>53500</v>
+        <v>-233800</v>
       </c>
       <c r="H18" s="3">
-        <v>49200</v>
+        <v>54400</v>
       </c>
       <c r="I18" s="3">
-        <v>39500</v>
+        <v>50000</v>
       </c>
       <c r="J18" s="3">
+        <v>40100</v>
+      </c>
+      <c r="K18" s="3">
         <v>19400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>36600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>38500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>46000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>24300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>37900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>31700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>39400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>24400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>24100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>33000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>37900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>7300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>24300</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,73 +1447,77 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
-        <v>8800</v>
-      </c>
       <c r="F20" s="3">
-        <v>-14100</v>
+        <v>8900</v>
       </c>
       <c r="G20" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="H20" s="3">
         <v>2600</v>
       </c>
-      <c r="H20" s="3">
-        <v>3000</v>
-      </c>
       <c r="I20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K20" s="3">
+        <v>800</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="M20" s="3">
         <v>6300</v>
       </c>
-      <c r="J20" s="3">
-        <v>800</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>6300</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>9500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>7800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1544,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1561,8 +1601,8 @@
       <c r="G22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1577,25 +1617,25 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1600</v>
-      </c>
-      <c r="S22" s="3">
-        <v>700</v>
       </c>
       <c r="T22" s="3">
         <v>700</v>
@@ -1604,143 +1644,152 @@
         <v>700</v>
       </c>
       <c r="V22" s="3">
+        <v>700</v>
+      </c>
+      <c r="W22" s="3">
         <v>600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>49800</v>
+        <v>41800</v>
       </c>
       <c r="E23" s="3">
-        <v>86100</v>
+        <v>50600</v>
       </c>
       <c r="F23" s="3">
-        <v>-244100</v>
+        <v>87500</v>
       </c>
       <c r="G23" s="3">
-        <v>56100</v>
+        <v>-248200</v>
       </c>
       <c r="H23" s="3">
-        <v>52200</v>
+        <v>57000</v>
       </c>
       <c r="I23" s="3">
-        <v>45700</v>
+        <v>53100</v>
       </c>
       <c r="J23" s="3">
+        <v>46500</v>
+      </c>
+      <c r="K23" s="3">
         <v>20200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>30400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>44800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>53100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>27100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>37500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>33300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>47900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>30600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>27000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>35800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>40100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>9600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>26500</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F24" s="3">
+        <v>20300</v>
+      </c>
+      <c r="G24" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H24" s="3">
+        <v>13300</v>
+      </c>
+      <c r="I24" s="3">
+        <v>12200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K24" s="3">
+        <v>4300</v>
+      </c>
+      <c r="L24" s="3">
+        <v>7000</v>
+      </c>
+      <c r="M24" s="3">
+        <v>10300</v>
+      </c>
+      <c r="N24" s="3">
+        <v>12100</v>
+      </c>
+      <c r="O24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="P24" s="3">
+        <v>8700</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>8300</v>
+      </c>
+      <c r="R24" s="3">
         <v>10600</v>
-      </c>
-      <c r="E24" s="3">
-        <v>20000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>4200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>13100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>12000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>10500</v>
-      </c>
-      <c r="J24" s="3">
-        <v>4300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>7000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>10300</v>
-      </c>
-      <c r="M24" s="3">
-        <v>12100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>4400</v>
-      </c>
-      <c r="O24" s="3">
-        <v>8700</v>
-      </c>
-      <c r="P24" s="3">
-        <v>8300</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>10600</v>
-      </c>
-      <c r="R24" s="3">
-        <v>6300</v>
       </c>
       <c r="S24" s="3">
         <v>6300</v>
       </c>
       <c r="T24" s="3">
+        <v>6300</v>
+      </c>
+      <c r="U24" s="3">
         <v>8900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>9100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>39200</v>
+        <v>32400</v>
       </c>
       <c r="E26" s="3">
-        <v>66100</v>
+        <v>39800</v>
       </c>
       <c r="F26" s="3">
-        <v>-248300</v>
+        <v>67200</v>
       </c>
       <c r="G26" s="3">
-        <v>43000</v>
+        <v>-252500</v>
       </c>
       <c r="H26" s="3">
-        <v>40200</v>
+        <v>43700</v>
       </c>
       <c r="I26" s="3">
-        <v>35200</v>
+        <v>40900</v>
       </c>
       <c r="J26" s="3">
+        <v>35800</v>
+      </c>
+      <c r="K26" s="3">
         <v>15900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>23400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>34500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>41000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>22600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>28800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>25000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>37300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>24300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>20700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>26900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>31000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>7500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>47000</v>
+        <v>42800</v>
       </c>
       <c r="E27" s="3">
-        <v>69900</v>
+        <v>47800</v>
       </c>
       <c r="F27" s="3">
-        <v>-242300</v>
+        <v>71100</v>
       </c>
       <c r="G27" s="3">
-        <v>44000</v>
+        <v>-246300</v>
       </c>
       <c r="H27" s="3">
-        <v>46100</v>
+        <v>44700</v>
       </c>
       <c r="I27" s="3">
-        <v>37400</v>
+        <v>46900</v>
       </c>
       <c r="J27" s="3">
+        <v>38000</v>
+      </c>
+      <c r="K27" s="3">
         <v>15800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>29900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>38200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>43300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>23700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>29100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>25800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>38500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>26800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>27900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>30500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>32000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>11200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
-        <v>-8800</v>
-      </c>
       <c r="F32" s="3">
-        <v>14100</v>
+        <v>-8900</v>
       </c>
       <c r="G32" s="3">
+        <v>14400</v>
+      </c>
+      <c r="H32" s="3">
         <v>-2600</v>
       </c>
-      <c r="H32" s="3">
-        <v>-3000</v>
-      </c>
       <c r="I32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L32" s="3">
+        <v>6200</v>
+      </c>
+      <c r="M32" s="3">
         <v>-6300</v>
       </c>
-      <c r="J32" s="3">
-        <v>-800</v>
-      </c>
-      <c r="K32" s="3">
-        <v>6200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-9500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-7800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>47000</v>
+        <v>42800</v>
       </c>
       <c r="E33" s="3">
-        <v>69900</v>
+        <v>47800</v>
       </c>
       <c r="F33" s="3">
-        <v>-242300</v>
+        <v>71100</v>
       </c>
       <c r="G33" s="3">
-        <v>44000</v>
+        <v>-246300</v>
       </c>
       <c r="H33" s="3">
-        <v>46100</v>
+        <v>44700</v>
       </c>
       <c r="I33" s="3">
-        <v>37400</v>
+        <v>46900</v>
       </c>
       <c r="J33" s="3">
+        <v>38000</v>
+      </c>
+      <c r="K33" s="3">
         <v>15800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>29900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>38200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>43300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>23700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>29100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>25800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>38500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>26800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>27900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>30500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>32000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>11200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>47000</v>
+        <v>42800</v>
       </c>
       <c r="E35" s="3">
-        <v>69900</v>
+        <v>47800</v>
       </c>
       <c r="F35" s="3">
-        <v>-242300</v>
+        <v>71100</v>
       </c>
       <c r="G35" s="3">
-        <v>44000</v>
+        <v>-246300</v>
       </c>
       <c r="H35" s="3">
-        <v>46100</v>
+        <v>44700</v>
       </c>
       <c r="I35" s="3">
-        <v>37400</v>
+        <v>46900</v>
       </c>
       <c r="J35" s="3">
+        <v>38000</v>
+      </c>
+      <c r="K35" s="3">
         <v>15800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>29900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>38200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>43300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>23700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>29100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>25800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>38500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>26800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>27900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>30500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>32000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>11200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,203 +2660,213 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>413700</v>
+        <v>443000</v>
       </c>
       <c r="E41" s="3">
-        <v>755200</v>
+        <v>420600</v>
       </c>
       <c r="F41" s="3">
-        <v>770700</v>
+        <v>767800</v>
       </c>
       <c r="G41" s="3">
-        <v>707900</v>
+        <v>783600</v>
       </c>
       <c r="H41" s="3">
-        <v>642200</v>
+        <v>719800</v>
       </c>
       <c r="I41" s="3">
-        <v>623000</v>
+        <v>653000</v>
       </c>
       <c r="J41" s="3">
+        <v>633400</v>
+      </c>
+      <c r="K41" s="3">
         <v>675600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>572400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>439000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>436500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>411300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>330300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>308700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>293100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>298800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>295500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>379100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>429600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>263500</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>14800</v>
+        <v>17000</v>
       </c>
       <c r="E42" s="3">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="F42" s="3">
-        <v>17700</v>
+        <v>22400</v>
       </c>
       <c r="G42" s="3">
-        <v>8500</v>
+        <v>18000</v>
       </c>
       <c r="H42" s="3">
-        <v>9400</v>
+        <v>8700</v>
       </c>
       <c r="I42" s="3">
-        <v>15100</v>
+        <v>9600</v>
       </c>
       <c r="J42" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K42" s="3">
         <v>103400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>86900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>114200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>76300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>68500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>29800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>32100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>35400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>24600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>63800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>84000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>59600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>43100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>250900</v>
+        <v>271300</v>
       </c>
       <c r="E43" s="3">
-        <v>241400</v>
+        <v>255100</v>
       </c>
       <c r="F43" s="3">
-        <v>211500</v>
+        <v>245400</v>
       </c>
       <c r="G43" s="3">
-        <v>236200</v>
+        <v>215000</v>
       </c>
       <c r="H43" s="3">
-        <v>264900</v>
+        <v>240100</v>
       </c>
       <c r="I43" s="3">
-        <v>258000</v>
+        <v>269300</v>
       </c>
       <c r="J43" s="3">
+        <v>262300</v>
+      </c>
+      <c r="K43" s="3">
         <v>219000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>242800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>258800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>230700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>227200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>223100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>211900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>255600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>263300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>253800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>259000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>217400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>196000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>127400</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,268 +2930,283 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>39200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>33500</v>
+      </c>
+      <c r="G45" s="3">
+        <v>32800</v>
+      </c>
+      <c r="H45" s="3">
+        <v>30600</v>
+      </c>
+      <c r="I45" s="3">
+        <v>31900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>31900</v>
+      </c>
+      <c r="K45" s="3">
         <v>38500</v>
       </c>
-      <c r="E45" s="3">
-        <v>32900</v>
-      </c>
-      <c r="F45" s="3">
-        <v>32200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>30100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>31400</v>
-      </c>
-      <c r="I45" s="3">
-        <v>31300</v>
-      </c>
-      <c r="J45" s="3">
-        <v>38500</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>46900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>48500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>72800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>69300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>63800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>69400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>35500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>39300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>35900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>11600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>44600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>12900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>100500</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>717800</v>
+        <v>764600</v>
       </c>
       <c r="E46" s="3">
-        <v>1051500</v>
+        <v>729900</v>
       </c>
       <c r="F46" s="3">
-        <v>1032200</v>
+        <v>1069100</v>
       </c>
       <c r="G46" s="3">
-        <v>982700</v>
+        <v>1049400</v>
       </c>
       <c r="H46" s="3">
-        <v>947900</v>
+        <v>999100</v>
       </c>
       <c r="I46" s="3">
-        <v>927400</v>
+        <v>963800</v>
       </c>
       <c r="J46" s="3">
+        <v>942900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1036500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>949100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>860500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>816400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>776400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>647000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>614000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>635200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>620300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>652300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>650100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>700600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>681600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>565500</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>279200</v>
+        <v>307100</v>
       </c>
       <c r="E47" s="3">
-        <v>281000</v>
+        <v>283900</v>
       </c>
       <c r="F47" s="3">
-        <v>277300</v>
+        <v>285700</v>
       </c>
       <c r="G47" s="3">
-        <v>319800</v>
+        <v>282000</v>
       </c>
       <c r="H47" s="3">
-        <v>327600</v>
+        <v>325100</v>
       </c>
       <c r="I47" s="3">
         <v>333100</v>
       </c>
       <c r="J47" s="3">
+        <v>338700</v>
+      </c>
+      <c r="K47" s="3">
         <v>331600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>346200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>390000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>373900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>365100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>309300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>284500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>278400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>300800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>200100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>188400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>146500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>127600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>117100</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>446400</v>
+        <v>448100</v>
       </c>
       <c r="E48" s="3">
-        <v>77700</v>
+        <v>453900</v>
       </c>
       <c r="F48" s="3">
-        <v>80500</v>
+        <v>79000</v>
       </c>
       <c r="G48" s="3">
-        <v>83400</v>
+        <v>81900</v>
       </c>
       <c r="H48" s="3">
-        <v>93400</v>
+        <v>84800</v>
       </c>
       <c r="I48" s="3">
-        <v>93800</v>
+        <v>95000</v>
       </c>
       <c r="J48" s="3">
+        <v>95300</v>
+      </c>
+      <c r="K48" s="3">
         <v>99900</v>
-      </c>
-      <c r="K48" s="3">
-        <v>105400</v>
       </c>
       <c r="L48" s="3">
         <v>105400</v>
       </c>
       <c r="M48" s="3">
+        <v>105400</v>
+      </c>
+      <c r="N48" s="3">
         <v>94700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>52700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>41400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>42400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>43000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>46600</v>
-      </c>
-      <c r="S48" s="3">
-        <v>37300</v>
       </c>
       <c r="T48" s="3">
         <v>37300</v>
       </c>
       <c r="U48" s="3">
+        <v>37300</v>
+      </c>
+      <c r="V48" s="3">
         <v>35900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>35100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>65100</v>
+        <v>61800</v>
       </c>
       <c r="E52" s="3">
-        <v>67500</v>
+        <v>66200</v>
       </c>
       <c r="F52" s="3">
-        <v>57400</v>
+        <v>68700</v>
       </c>
       <c r="G52" s="3">
-        <v>53000</v>
+        <v>58300</v>
       </c>
       <c r="H52" s="3">
-        <v>48200</v>
+        <v>53800</v>
       </c>
       <c r="I52" s="3">
-        <v>45200</v>
+        <v>49100</v>
       </c>
       <c r="J52" s="3">
+        <v>46000</v>
+      </c>
+      <c r="K52" s="3">
         <v>41500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>32200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>29400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>27500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>24800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>16800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>25000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>26800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>30500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>23500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>19800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>13300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>13600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1508600</v>
+        <v>1581700</v>
       </c>
       <c r="E54" s="3">
-        <v>1477700</v>
+        <v>1533900</v>
       </c>
       <c r="F54" s="3">
-        <v>1447300</v>
+        <v>1502500</v>
       </c>
       <c r="G54" s="3">
-        <v>1438800</v>
+        <v>1471600</v>
       </c>
       <c r="H54" s="3">
-        <v>1417200</v>
+        <v>1462900</v>
       </c>
       <c r="I54" s="3">
-        <v>1399400</v>
+        <v>1441000</v>
       </c>
       <c r="J54" s="3">
+        <v>1422900</v>
+      </c>
+      <c r="K54" s="3">
         <v>1509400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1432900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1385200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1312500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1219100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1014600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>966000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>983300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>998200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>913200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>895500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>896300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>857900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>727500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3576,31 +3707,34 @@
         <v>0</v>
       </c>
       <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
         <v>5000</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
       <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
         <v>600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>45700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>48500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>84300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>82000</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3640,162 +3774,171 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R58" s="3">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>75000</v>
       </c>
       <c r="T58" s="3">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="U58" s="3">
         <v>80000</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
+      <c r="V58" s="3">
+        <v>80000</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>259900</v>
+        <v>265700</v>
       </c>
       <c r="E59" s="3">
-        <v>331700</v>
+        <v>264200</v>
       </c>
       <c r="F59" s="3">
-        <v>289700</v>
+        <v>337300</v>
       </c>
       <c r="G59" s="3">
-        <v>167900</v>
+        <v>294500</v>
       </c>
       <c r="H59" s="3">
-        <v>162300</v>
+        <v>170800</v>
       </c>
       <c r="I59" s="3">
-        <v>193600</v>
+        <v>165000</v>
       </c>
       <c r="J59" s="3">
+        <v>196800</v>
+      </c>
+      <c r="K59" s="3">
         <v>231700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>164600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>197600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>232600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>242000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>171700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>147500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>200200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>204600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>171400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>138600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>198000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>144900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>162200</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>259900</v>
+        <v>265700</v>
       </c>
       <c r="E60" s="3">
-        <v>331700</v>
+        <v>264200</v>
       </c>
       <c r="F60" s="3">
-        <v>289700</v>
+        <v>337300</v>
       </c>
       <c r="G60" s="3">
-        <v>167900</v>
+        <v>294500</v>
       </c>
       <c r="H60" s="3">
-        <v>162300</v>
+        <v>170800</v>
       </c>
       <c r="I60" s="3">
-        <v>193600</v>
+        <v>165000</v>
       </c>
       <c r="J60" s="3">
+        <v>196800</v>
+      </c>
+      <c r="K60" s="3">
         <v>231700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>164600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>197600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>232600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>242000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>171700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>152500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>200300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>280200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>292100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>267100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>362300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>226900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>162200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3830,20 +3973,20 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>22100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>31900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>47500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>67500</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3854,78 +3997,84 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="W61" s="3">
         <v>80000</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>80000</v>
+        <v>79700</v>
       </c>
       <c r="E62" s="3">
-        <v>35000</v>
+        <v>81300</v>
       </c>
       <c r="F62" s="3">
-        <v>37100</v>
+        <v>35600</v>
       </c>
       <c r="G62" s="3">
-        <v>52900</v>
+        <v>37700</v>
       </c>
       <c r="H62" s="3">
-        <v>62600</v>
+        <v>53800</v>
       </c>
       <c r="I62" s="3">
-        <v>62200</v>
+        <v>63600</v>
       </c>
       <c r="J62" s="3">
+        <v>63200</v>
+      </c>
+      <c r="K62" s="3">
         <v>65100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>69900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>71700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>62000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>17800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>23300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>23600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>25200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>11500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>15500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>11700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>14900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>16500</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>339800</v>
+        <v>345400</v>
       </c>
       <c r="E66" s="3">
-        <v>366700</v>
+        <v>345500</v>
       </c>
       <c r="F66" s="3">
-        <v>340900</v>
+        <v>372900</v>
       </c>
       <c r="G66" s="3">
-        <v>220900</v>
+        <v>346600</v>
       </c>
       <c r="H66" s="3">
-        <v>224900</v>
+        <v>224600</v>
       </c>
       <c r="I66" s="3">
-        <v>255700</v>
+        <v>228600</v>
       </c>
       <c r="J66" s="3">
+        <v>260000</v>
+      </c>
+      <c r="K66" s="3">
         <v>429500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>234500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>269300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>294600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>331100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>221400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>223400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>291400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>317500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>303600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>332300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>422600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>378000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>258700</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,8 +4640,11 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4480,11 +4654,11 @@
       <c r="E72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="3">
-        <v>614300</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
+        <v>624600</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
@@ -4492,50 +4666,53 @@
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>729100</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>600300</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>443100</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>322900</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1168800</v>
+        <v>1236300</v>
       </c>
       <c r="E76" s="3">
-        <v>1111000</v>
+        <v>1188300</v>
       </c>
       <c r="F76" s="3">
-        <v>1106400</v>
+        <v>1129600</v>
       </c>
       <c r="G76" s="3">
-        <v>1217900</v>
+        <v>1125000</v>
       </c>
       <c r="H76" s="3">
-        <v>1192300</v>
+        <v>1238300</v>
       </c>
       <c r="I76" s="3">
-        <v>1143700</v>
+        <v>1212300</v>
       </c>
       <c r="J76" s="3">
+        <v>1162900</v>
+      </c>
+      <c r="K76" s="3">
         <v>1079900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1198400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1115900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1018000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>888000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>793200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>742600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>691900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>680800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>609700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>563200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>473700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>479900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>468800</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>47000</v>
+        <v>42800</v>
       </c>
       <c r="E81" s="3">
-        <v>69900</v>
+        <v>47800</v>
       </c>
       <c r="F81" s="3">
-        <v>-242300</v>
+        <v>71100</v>
       </c>
       <c r="G81" s="3">
-        <v>44000</v>
+        <v>-246300</v>
       </c>
       <c r="H81" s="3">
-        <v>46100</v>
+        <v>44700</v>
       </c>
       <c r="I81" s="3">
-        <v>37400</v>
+        <v>46900</v>
       </c>
       <c r="J81" s="3">
+        <v>38000</v>
+      </c>
+      <c r="K81" s="3">
         <v>15800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>29900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>38200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>43300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>23700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>29100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>25800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>38500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>26800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>27900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>30500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>32000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>11200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,41 +5623,44 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>56500</v>
+      </c>
+      <c r="E89" s="3">
         <v>700</v>
       </c>
-      <c r="E89" s="3">
-        <v>76400</v>
-      </c>
       <c r="F89" s="3">
-        <v>46600</v>
+        <v>77600</v>
       </c>
       <c r="G89" s="3">
-        <v>55600</v>
+        <v>47400</v>
       </c>
       <c r="H89" s="3">
+        <v>56500</v>
+      </c>
+      <c r="I89" s="3">
         <v>1500</v>
       </c>
-      <c r="I89" s="3">
-        <v>19000</v>
-      </c>
       <c r="J89" s="3">
+        <v>19300</v>
+      </c>
+      <c r="K89" s="3">
         <v>129700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>34400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>11100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,41 +5921,44 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>31000</v>
+        <v>36700</v>
       </c>
       <c r="E94" s="3">
-        <v>10600</v>
+        <v>31500</v>
       </c>
       <c r="F94" s="3">
-        <v>-11900</v>
+        <v>10800</v>
       </c>
       <c r="G94" s="3">
-        <v>25500</v>
+        <v>-12100</v>
       </c>
       <c r="H94" s="3">
-        <v>20100</v>
+        <v>25900</v>
       </c>
       <c r="I94" s="3">
         <v>20500</v>
       </c>
       <c r="J94" s="3">
+        <v>20900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-163200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>68600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>56600</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6053,32 +6299,32 @@
         <v>1500</v>
       </c>
       <c r="E100" s="3">
-        <v>82200</v>
+        <v>1500</v>
       </c>
       <c r="F100" s="3">
-        <v>-75700</v>
+        <v>83600</v>
       </c>
       <c r="G100" s="3">
-        <v>3500</v>
+        <v>-77000</v>
       </c>
       <c r="H100" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
-        <v>14700</v>
-      </c>
       <c r="J100" s="3">
+        <v>14900</v>
+      </c>
+      <c r="K100" s="3">
         <v>21000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>42400</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOAH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOAH_QTR_FIN.xlsx
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>142300</v>
+        <v>143400</v>
       </c>
       <c r="E8" s="3">
-        <v>140800</v>
+        <v>141900</v>
       </c>
       <c r="F8" s="3">
-        <v>191700</v>
+        <v>193200</v>
       </c>
       <c r="G8" s="3">
-        <v>149200</v>
+        <v>150400</v>
       </c>
       <c r="H8" s="3">
-        <v>134500</v>
+        <v>135500</v>
       </c>
       <c r="I8" s="3">
-        <v>117000</v>
+        <v>117900</v>
       </c>
       <c r="J8" s="3">
-        <v>116800</v>
+        <v>117700</v>
       </c>
       <c r="K8" s="3">
         <v>121400</v>
@@ -1142,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="G14" s="3">
-        <v>286300</v>
+        <v>288500</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
@@ -1292,25 +1292,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>106700</v>
+        <v>107500</v>
       </c>
       <c r="E17" s="3">
-        <v>91300</v>
+        <v>92000</v>
       </c>
       <c r="F17" s="3">
-        <v>113100</v>
+        <v>114000</v>
       </c>
       <c r="G17" s="3">
-        <v>383000</v>
+        <v>386000</v>
       </c>
       <c r="H17" s="3">
-        <v>80100</v>
+        <v>80700</v>
       </c>
       <c r="I17" s="3">
-        <v>67000</v>
+        <v>67500</v>
       </c>
       <c r="J17" s="3">
-        <v>76700</v>
+        <v>77300</v>
       </c>
       <c r="K17" s="3">
         <v>101900</v>
@@ -1360,25 +1360,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>35600</v>
+        <v>35900</v>
       </c>
       <c r="E18" s="3">
-        <v>49500</v>
+        <v>49900</v>
       </c>
       <c r="F18" s="3">
-        <v>78600</v>
+        <v>79300</v>
       </c>
       <c r="G18" s="3">
-        <v>-233800</v>
+        <v>-235600</v>
       </c>
       <c r="H18" s="3">
-        <v>54400</v>
+        <v>54800</v>
       </c>
       <c r="I18" s="3">
-        <v>50000</v>
+        <v>50400</v>
       </c>
       <c r="J18" s="3">
-        <v>40100</v>
+        <v>40400</v>
       </c>
       <c r="K18" s="3">
         <v>19400</v>
@@ -1460,13 +1460,13 @@
         <v>1100</v>
       </c>
       <c r="F20" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="G20" s="3">
-        <v>-14400</v>
+        <v>-14500</v>
       </c>
       <c r="H20" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="I20" s="3">
         <v>3100</v>
@@ -1658,25 +1658,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>41800</v>
+        <v>42100</v>
       </c>
       <c r="E23" s="3">
-        <v>50600</v>
+        <v>51000</v>
       </c>
       <c r="F23" s="3">
-        <v>87500</v>
+        <v>88200</v>
       </c>
       <c r="G23" s="3">
-        <v>-248200</v>
+        <v>-250100</v>
       </c>
       <c r="H23" s="3">
-        <v>57000</v>
+        <v>57400</v>
       </c>
       <c r="I23" s="3">
-        <v>53100</v>
+        <v>53500</v>
       </c>
       <c r="J23" s="3">
-        <v>46500</v>
+        <v>46800</v>
       </c>
       <c r="K23" s="3">
         <v>20200</v>
@@ -1726,25 +1726,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="E24" s="3">
         <v>10800</v>
       </c>
       <c r="F24" s="3">
-        <v>20300</v>
+        <v>20500</v>
       </c>
       <c r="G24" s="3">
         <v>4300</v>
       </c>
       <c r="H24" s="3">
-        <v>13300</v>
+        <v>13400</v>
       </c>
       <c r="I24" s="3">
-        <v>12200</v>
+        <v>12300</v>
       </c>
       <c r="J24" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="K24" s="3">
         <v>4300</v>
@@ -1862,25 +1862,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>32400</v>
+        <v>32600</v>
       </c>
       <c r="E26" s="3">
-        <v>39800</v>
+        <v>40200</v>
       </c>
       <c r="F26" s="3">
-        <v>67200</v>
+        <v>67700</v>
       </c>
       <c r="G26" s="3">
-        <v>-252500</v>
+        <v>-254400</v>
       </c>
       <c r="H26" s="3">
-        <v>43700</v>
+        <v>44000</v>
       </c>
       <c r="I26" s="3">
-        <v>40900</v>
+        <v>41200</v>
       </c>
       <c r="J26" s="3">
-        <v>35800</v>
+        <v>36100</v>
       </c>
       <c r="K26" s="3">
         <v>15900</v>
@@ -1930,25 +1930,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>42800</v>
+        <v>43100</v>
       </c>
       <c r="E27" s="3">
-        <v>47800</v>
+        <v>48200</v>
       </c>
       <c r="F27" s="3">
-        <v>71100</v>
+        <v>71600</v>
       </c>
       <c r="G27" s="3">
-        <v>-246300</v>
+        <v>-248200</v>
       </c>
       <c r="H27" s="3">
-        <v>44700</v>
+        <v>45100</v>
       </c>
       <c r="I27" s="3">
-        <v>46900</v>
+        <v>47300</v>
       </c>
       <c r="J27" s="3">
-        <v>38000</v>
+        <v>38300</v>
       </c>
       <c r="K27" s="3">
         <v>15800</v>
@@ -2276,13 +2276,13 @@
         <v>-1100</v>
       </c>
       <c r="F32" s="3">
-        <v>-8900</v>
+        <v>-9000</v>
       </c>
       <c r="G32" s="3">
-        <v>14400</v>
+        <v>14500</v>
       </c>
       <c r="H32" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="I32" s="3">
         <v>-3100</v>
@@ -2338,25 +2338,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>42800</v>
+        <v>43100</v>
       </c>
       <c r="E33" s="3">
-        <v>47800</v>
+        <v>48200</v>
       </c>
       <c r="F33" s="3">
-        <v>71100</v>
+        <v>71600</v>
       </c>
       <c r="G33" s="3">
-        <v>-246300</v>
+        <v>-248200</v>
       </c>
       <c r="H33" s="3">
-        <v>44700</v>
+        <v>45100</v>
       </c>
       <c r="I33" s="3">
-        <v>46900</v>
+        <v>47300</v>
       </c>
       <c r="J33" s="3">
-        <v>38000</v>
+        <v>38300</v>
       </c>
       <c r="K33" s="3">
         <v>15800</v>
@@ -2474,25 +2474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>42800</v>
+        <v>43100</v>
       </c>
       <c r="E35" s="3">
-        <v>47800</v>
+        <v>48200</v>
       </c>
       <c r="F35" s="3">
-        <v>71100</v>
+        <v>71600</v>
       </c>
       <c r="G35" s="3">
-        <v>-246300</v>
+        <v>-248200</v>
       </c>
       <c r="H35" s="3">
-        <v>44700</v>
+        <v>45100</v>
       </c>
       <c r="I35" s="3">
-        <v>46900</v>
+        <v>47300</v>
       </c>
       <c r="J35" s="3">
-        <v>38000</v>
+        <v>38300</v>
       </c>
       <c r="K35" s="3">
         <v>15800</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>443000</v>
+        <v>446400</v>
       </c>
       <c r="E41" s="3">
-        <v>420600</v>
+        <v>423800</v>
       </c>
       <c r="F41" s="3">
-        <v>767800</v>
+        <v>773700</v>
       </c>
       <c r="G41" s="3">
-        <v>783600</v>
+        <v>789600</v>
       </c>
       <c r="H41" s="3">
-        <v>719800</v>
+        <v>725300</v>
       </c>
       <c r="I41" s="3">
-        <v>653000</v>
+        <v>658000</v>
       </c>
       <c r="J41" s="3">
-        <v>633400</v>
+        <v>638300</v>
       </c>
       <c r="K41" s="3">
         <v>675600</v>
@@ -2735,16 +2735,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>17000</v>
+        <v>17100</v>
       </c>
       <c r="E42" s="3">
-        <v>15000</v>
+        <v>15200</v>
       </c>
       <c r="F42" s="3">
-        <v>22400</v>
+        <v>22600</v>
       </c>
       <c r="G42" s="3">
-        <v>18000</v>
+        <v>18100</v>
       </c>
       <c r="H42" s="3">
         <v>8700</v>
@@ -2753,7 +2753,7 @@
         <v>9600</v>
       </c>
       <c r="J42" s="3">
-        <v>15300</v>
+        <v>15400</v>
       </c>
       <c r="K42" s="3">
         <v>103400</v>
@@ -2803,25 +2803,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>271300</v>
+        <v>273400</v>
       </c>
       <c r="E43" s="3">
-        <v>255100</v>
+        <v>257100</v>
       </c>
       <c r="F43" s="3">
-        <v>245400</v>
+        <v>247300</v>
       </c>
       <c r="G43" s="3">
-        <v>215000</v>
+        <v>216700</v>
       </c>
       <c r="H43" s="3">
-        <v>240100</v>
+        <v>242000</v>
       </c>
       <c r="I43" s="3">
-        <v>269300</v>
+        <v>271400</v>
       </c>
       <c r="J43" s="3">
-        <v>262300</v>
+        <v>264400</v>
       </c>
       <c r="K43" s="3">
         <v>219000</v>
@@ -2939,25 +2939,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>33400</v>
+        <v>33600</v>
       </c>
       <c r="E45" s="3">
-        <v>39200</v>
+        <v>39500</v>
       </c>
       <c r="F45" s="3">
-        <v>33500</v>
+        <v>33800</v>
       </c>
       <c r="G45" s="3">
-        <v>32800</v>
+        <v>33000</v>
       </c>
       <c r="H45" s="3">
-        <v>30600</v>
+        <v>30800</v>
       </c>
       <c r="I45" s="3">
-        <v>31900</v>
+        <v>32200</v>
       </c>
       <c r="J45" s="3">
-        <v>31900</v>
+        <v>32100</v>
       </c>
       <c r="K45" s="3">
         <v>38500</v>
@@ -3007,25 +3007,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>764600</v>
+        <v>770500</v>
       </c>
       <c r="E46" s="3">
-        <v>729900</v>
+        <v>735500</v>
       </c>
       <c r="F46" s="3">
-        <v>1069100</v>
+        <v>1077300</v>
       </c>
       <c r="G46" s="3">
-        <v>1049400</v>
+        <v>1057500</v>
       </c>
       <c r="H46" s="3">
-        <v>999100</v>
+        <v>1006800</v>
       </c>
       <c r="I46" s="3">
-        <v>963800</v>
+        <v>971200</v>
       </c>
       <c r="J46" s="3">
-        <v>942900</v>
+        <v>950200</v>
       </c>
       <c r="K46" s="3">
         <v>1036500</v>
@@ -3075,25 +3075,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>307100</v>
+        <v>309500</v>
       </c>
       <c r="E47" s="3">
-        <v>283900</v>
+        <v>286000</v>
       </c>
       <c r="F47" s="3">
-        <v>285700</v>
+        <v>287900</v>
       </c>
       <c r="G47" s="3">
-        <v>282000</v>
+        <v>284100</v>
       </c>
       <c r="H47" s="3">
-        <v>325100</v>
+        <v>327600</v>
       </c>
       <c r="I47" s="3">
-        <v>333100</v>
+        <v>335700</v>
       </c>
       <c r="J47" s="3">
-        <v>338700</v>
+        <v>341300</v>
       </c>
       <c r="K47" s="3">
         <v>331600</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>448100</v>
+        <v>451600</v>
       </c>
       <c r="E48" s="3">
-        <v>453900</v>
+        <v>457400</v>
       </c>
       <c r="F48" s="3">
-        <v>79000</v>
+        <v>79600</v>
       </c>
       <c r="G48" s="3">
-        <v>81900</v>
+        <v>82500</v>
       </c>
       <c r="H48" s="3">
-        <v>84800</v>
+        <v>85500</v>
       </c>
       <c r="I48" s="3">
-        <v>95000</v>
+        <v>95700</v>
       </c>
       <c r="J48" s="3">
-        <v>95300</v>
+        <v>96100</v>
       </c>
       <c r="K48" s="3">
         <v>99900</v>
@@ -3415,25 +3415,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>61800</v>
+        <v>62300</v>
       </c>
       <c r="E52" s="3">
-        <v>66200</v>
+        <v>66700</v>
       </c>
       <c r="F52" s="3">
-        <v>68700</v>
+        <v>69200</v>
       </c>
       <c r="G52" s="3">
-        <v>58300</v>
+        <v>58800</v>
       </c>
       <c r="H52" s="3">
-        <v>53800</v>
+        <v>54300</v>
       </c>
       <c r="I52" s="3">
-        <v>49100</v>
+        <v>49400</v>
       </c>
       <c r="J52" s="3">
-        <v>46000</v>
+        <v>46300</v>
       </c>
       <c r="K52" s="3">
         <v>41500</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1581700</v>
+        <v>1593900</v>
       </c>
       <c r="E54" s="3">
-        <v>1533900</v>
+        <v>1545600</v>
       </c>
       <c r="F54" s="3">
-        <v>1502500</v>
+        <v>1514000</v>
       </c>
       <c r="G54" s="3">
-        <v>1471600</v>
+        <v>1482900</v>
       </c>
       <c r="H54" s="3">
-        <v>1462900</v>
+        <v>1474100</v>
       </c>
       <c r="I54" s="3">
-        <v>1441000</v>
+        <v>1452000</v>
       </c>
       <c r="J54" s="3">
-        <v>1422900</v>
+        <v>1433800</v>
       </c>
       <c r="K54" s="3">
         <v>1509400</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>265700</v>
+        <v>267800</v>
       </c>
       <c r="E59" s="3">
-        <v>264200</v>
+        <v>266200</v>
       </c>
       <c r="F59" s="3">
-        <v>337300</v>
+        <v>339900</v>
       </c>
       <c r="G59" s="3">
-        <v>294500</v>
+        <v>296800</v>
       </c>
       <c r="H59" s="3">
-        <v>170800</v>
+        <v>172100</v>
       </c>
       <c r="I59" s="3">
-        <v>165000</v>
+        <v>166300</v>
       </c>
       <c r="J59" s="3">
-        <v>196800</v>
+        <v>198300</v>
       </c>
       <c r="K59" s="3">
         <v>231700</v>
@@ -3875,25 +3875,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>265700</v>
+        <v>267800</v>
       </c>
       <c r="E60" s="3">
-        <v>264200</v>
+        <v>266200</v>
       </c>
       <c r="F60" s="3">
-        <v>337300</v>
+        <v>339900</v>
       </c>
       <c r="G60" s="3">
-        <v>294500</v>
+        <v>296800</v>
       </c>
       <c r="H60" s="3">
-        <v>170800</v>
+        <v>172100</v>
       </c>
       <c r="I60" s="3">
-        <v>165000</v>
+        <v>166300</v>
       </c>
       <c r="J60" s="3">
-        <v>196800</v>
+        <v>198300</v>
       </c>
       <c r="K60" s="3">
         <v>231700</v>
@@ -4011,25 +4011,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>79700</v>
+        <v>80300</v>
       </c>
       <c r="E62" s="3">
-        <v>81300</v>
+        <v>81900</v>
       </c>
       <c r="F62" s="3">
-        <v>35600</v>
+        <v>35900</v>
       </c>
       <c r="G62" s="3">
-        <v>37700</v>
+        <v>38000</v>
       </c>
       <c r="H62" s="3">
-        <v>53800</v>
+        <v>54200</v>
       </c>
       <c r="I62" s="3">
-        <v>63600</v>
+        <v>64100</v>
       </c>
       <c r="J62" s="3">
-        <v>63200</v>
+        <v>63700</v>
       </c>
       <c r="K62" s="3">
         <v>65100</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>345400</v>
+        <v>348100</v>
       </c>
       <c r="E66" s="3">
-        <v>345500</v>
+        <v>348200</v>
       </c>
       <c r="F66" s="3">
-        <v>372900</v>
+        <v>375700</v>
       </c>
       <c r="G66" s="3">
-        <v>346600</v>
+        <v>349300</v>
       </c>
       <c r="H66" s="3">
-        <v>224600</v>
+        <v>226300</v>
       </c>
       <c r="I66" s="3">
-        <v>228600</v>
+        <v>230400</v>
       </c>
       <c r="J66" s="3">
-        <v>260000</v>
+        <v>262000</v>
       </c>
       <c r="K66" s="3">
         <v>429500</v>
@@ -4658,7 +4658,7 @@
         <v>5</v>
       </c>
       <c r="G72" s="3">
-        <v>624600</v>
+        <v>629400</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1236300</v>
+        <v>1245800</v>
       </c>
       <c r="E76" s="3">
-        <v>1188300</v>
+        <v>1197400</v>
       </c>
       <c r="F76" s="3">
-        <v>1129600</v>
+        <v>1138300</v>
       </c>
       <c r="G76" s="3">
-        <v>1125000</v>
+        <v>1133600</v>
       </c>
       <c r="H76" s="3">
-        <v>1238300</v>
+        <v>1247800</v>
       </c>
       <c r="I76" s="3">
-        <v>1212300</v>
+        <v>1221600</v>
       </c>
       <c r="J76" s="3">
-        <v>1162900</v>
+        <v>1171800</v>
       </c>
       <c r="K76" s="3">
         <v>1079900</v>
@@ -5130,25 +5130,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>42800</v>
+        <v>43100</v>
       </c>
       <c r="E81" s="3">
-        <v>47800</v>
+        <v>48200</v>
       </c>
       <c r="F81" s="3">
-        <v>71100</v>
+        <v>71600</v>
       </c>
       <c r="G81" s="3">
-        <v>-246300</v>
+        <v>-248200</v>
       </c>
       <c r="H81" s="3">
-        <v>44700</v>
+        <v>45100</v>
       </c>
       <c r="I81" s="3">
-        <v>46900</v>
+        <v>47300</v>
       </c>
       <c r="J81" s="3">
-        <v>38000</v>
+        <v>38300</v>
       </c>
       <c r="K81" s="3">
         <v>15800</v>
@@ -5632,25 +5632,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>56500</v>
+        <v>57000</v>
       </c>
       <c r="E89" s="3">
         <v>700</v>
       </c>
       <c r="F89" s="3">
-        <v>77600</v>
+        <v>78200</v>
       </c>
       <c r="G89" s="3">
-        <v>47400</v>
+        <v>47800</v>
       </c>
       <c r="H89" s="3">
-        <v>56500</v>
+        <v>56900</v>
       </c>
       <c r="I89" s="3">
         <v>1500</v>
       </c>
       <c r="J89" s="3">
-        <v>19300</v>
+        <v>19400</v>
       </c>
       <c r="K89" s="3">
         <v>129700</v>
@@ -5930,25 +5930,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>36700</v>
+        <v>37000</v>
       </c>
       <c r="E94" s="3">
-        <v>31500</v>
+        <v>31800</v>
       </c>
       <c r="F94" s="3">
-        <v>10800</v>
+        <v>10900</v>
       </c>
       <c r="G94" s="3">
-        <v>-12100</v>
+        <v>-12200</v>
       </c>
       <c r="H94" s="3">
-        <v>25900</v>
+        <v>26100</v>
       </c>
       <c r="I94" s="3">
-        <v>20500</v>
+        <v>20600</v>
       </c>
       <c r="J94" s="3">
-        <v>20900</v>
+        <v>21000</v>
       </c>
       <c r="K94" s="3">
         <v>-163200</v>
@@ -6299,13 +6299,13 @@
         <v>1500</v>
       </c>
       <c r="E100" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F100" s="3">
-        <v>83600</v>
+        <v>84200</v>
       </c>
       <c r="G100" s="3">
-        <v>-77000</v>
+        <v>-77600</v>
       </c>
       <c r="H100" s="3">
         <v>3600</v>
@@ -6314,7 +6314,7 @@
         <v>300</v>
       </c>
       <c r="J100" s="3">
-        <v>14900</v>
+        <v>15100</v>
       </c>
       <c r="K100" s="3">
         <v>21000</v>

--- a/AAII_Financials/Quarterly/NOAH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOAH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>NOAH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,178 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>143400</v>
+        <v>185700</v>
       </c>
       <c r="E8" s="3">
-        <v>141900</v>
+        <v>133900</v>
       </c>
       <c r="F8" s="3">
-        <v>193200</v>
+        <v>132500</v>
       </c>
       <c r="G8" s="3">
-        <v>150400</v>
+        <v>180500</v>
       </c>
       <c r="H8" s="3">
-        <v>135500</v>
+        <v>140500</v>
       </c>
       <c r="I8" s="3">
-        <v>117900</v>
+        <v>126600</v>
       </c>
       <c r="J8" s="3">
+        <v>110100</v>
+      </c>
+      <c r="K8" s="3">
         <v>117700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>121400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>131400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>133200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>135400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>125100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>117400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>114400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>119200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>122100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>102900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>104300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>105200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>78600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,25 +1143,28 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
-        <v>3000</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>288500</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
+      <c r="F14" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>269500</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
@@ -1162,8 +1181,8 @@
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>107500</v>
+        <v>166100</v>
       </c>
       <c r="E17" s="3">
-        <v>92000</v>
+        <v>100400</v>
       </c>
       <c r="F17" s="3">
-        <v>114000</v>
+        <v>85900</v>
       </c>
       <c r="G17" s="3">
-        <v>386000</v>
+        <v>106400</v>
       </c>
       <c r="H17" s="3">
-        <v>80700</v>
+        <v>360500</v>
       </c>
       <c r="I17" s="3">
-        <v>67500</v>
+        <v>75400</v>
       </c>
       <c r="J17" s="3">
+        <v>63100</v>
+      </c>
+      <c r="K17" s="3">
         <v>77300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>101900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>94800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>94700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>89300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>100800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>79500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>82700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>79800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>97700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>78800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>71300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>67300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>71300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>66900</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>35900</v>
+        <v>19600</v>
       </c>
       <c r="E18" s="3">
-        <v>49900</v>
+        <v>33500</v>
       </c>
       <c r="F18" s="3">
-        <v>79300</v>
+        <v>46600</v>
       </c>
       <c r="G18" s="3">
-        <v>-235600</v>
+        <v>74000</v>
       </c>
       <c r="H18" s="3">
-        <v>54800</v>
+        <v>-220100</v>
       </c>
       <c r="I18" s="3">
-        <v>50400</v>
+        <v>51200</v>
       </c>
       <c r="J18" s="3">
+        <v>47100</v>
+      </c>
+      <c r="K18" s="3">
         <v>40400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>19400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>36600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>38500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>46000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>24300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>37900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>31700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>39400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>24400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>24100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>33000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>37900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>7300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>24300</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,76 +1480,80 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6200</v>
+        <v>2300</v>
       </c>
       <c r="E20" s="3">
-        <v>1100</v>
+        <v>5800</v>
       </c>
       <c r="F20" s="3">
-        <v>9000</v>
+        <v>1000</v>
       </c>
       <c r="G20" s="3">
-        <v>-14500</v>
+        <v>8400</v>
       </c>
       <c r="H20" s="3">
-        <v>2700</v>
+        <v>-13500</v>
       </c>
       <c r="I20" s="3">
-        <v>3100</v>
+        <v>2500</v>
       </c>
       <c r="J20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K20" s="3">
         <v>6400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>9500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>7800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1584,13 +1620,16 @@
       <c r="X21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>5</v>
@@ -1604,8 +1643,8 @@
       <c r="H22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1620,25 +1659,25 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1600</v>
-      </c>
-      <c r="T22" s="3">
-        <v>700</v>
       </c>
       <c r="U22" s="3">
         <v>700</v>
@@ -1647,149 +1686,158 @@
         <v>700</v>
       </c>
       <c r="W22" s="3">
+        <v>700</v>
+      </c>
+      <c r="X22" s="3">
         <v>600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>42100</v>
+        <v>21900</v>
       </c>
       <c r="E23" s="3">
-        <v>51000</v>
+        <v>39300</v>
       </c>
       <c r="F23" s="3">
-        <v>88200</v>
+        <v>47600</v>
       </c>
       <c r="G23" s="3">
-        <v>-250100</v>
+        <v>82400</v>
       </c>
       <c r="H23" s="3">
-        <v>57400</v>
+        <v>-233600</v>
       </c>
       <c r="I23" s="3">
-        <v>53500</v>
+        <v>53700</v>
       </c>
       <c r="J23" s="3">
+        <v>50000</v>
+      </c>
+      <c r="K23" s="3">
         <v>46800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>20200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>30400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>44800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>53100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>27100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>37500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>33300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>47900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>30600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>27000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>35800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>40100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>9600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>26500</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>9500</v>
+        <v>5200</v>
       </c>
       <c r="E24" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F24" s="3">
+        <v>10100</v>
+      </c>
+      <c r="G24" s="3">
+        <v>19100</v>
+      </c>
+      <c r="H24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>12500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>11500</v>
+      </c>
+      <c r="K24" s="3">
         <v>10800</v>
       </c>
-      <c r="F24" s="3">
-        <v>20500</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="L24" s="3">
         <v>4300</v>
       </c>
-      <c r="H24" s="3">
-        <v>13400</v>
-      </c>
-      <c r="I24" s="3">
-        <v>12300</v>
-      </c>
-      <c r="J24" s="3">
-        <v>10800</v>
-      </c>
-      <c r="K24" s="3">
-        <v>4300</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>12100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>10600</v>
-      </c>
-      <c r="S24" s="3">
-        <v>6300</v>
       </c>
       <c r="T24" s="3">
         <v>6300</v>
       </c>
       <c r="U24" s="3">
+        <v>6300</v>
+      </c>
+      <c r="V24" s="3">
         <v>8900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>9100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>32600</v>
+        <v>16700</v>
       </c>
       <c r="E26" s="3">
-        <v>40200</v>
+        <v>30500</v>
       </c>
       <c r="F26" s="3">
-        <v>67700</v>
+        <v>37500</v>
       </c>
       <c r="G26" s="3">
-        <v>-254400</v>
+        <v>63300</v>
       </c>
       <c r="H26" s="3">
-        <v>44000</v>
+        <v>-237700</v>
       </c>
       <c r="I26" s="3">
-        <v>41200</v>
+        <v>41100</v>
       </c>
       <c r="J26" s="3">
+        <v>38500</v>
+      </c>
+      <c r="K26" s="3">
         <v>36100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>15900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>23400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>34500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>41000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>22600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>28800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>25000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>37300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>24300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>20700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>26900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>31000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>7500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>43100</v>
+        <v>41500</v>
       </c>
       <c r="E27" s="3">
-        <v>48200</v>
+        <v>40300</v>
       </c>
       <c r="F27" s="3">
-        <v>71600</v>
+        <v>45000</v>
       </c>
       <c r="G27" s="3">
-        <v>-248200</v>
+        <v>66900</v>
       </c>
       <c r="H27" s="3">
-        <v>45100</v>
+        <v>-231900</v>
       </c>
       <c r="I27" s="3">
-        <v>47300</v>
+        <v>42100</v>
       </c>
       <c r="J27" s="3">
+        <v>44200</v>
+      </c>
+      <c r="K27" s="3">
         <v>38300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>15800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>29900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>38200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>43300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>23700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>29100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>25800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>38500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>26800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>27900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>30500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>32000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>11200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6200</v>
+        <v>-2300</v>
       </c>
       <c r="E32" s="3">
-        <v>-1100</v>
+        <v>-5800</v>
       </c>
       <c r="F32" s="3">
-        <v>-9000</v>
+        <v>-1000</v>
       </c>
       <c r="G32" s="3">
-        <v>14500</v>
+        <v>-8400</v>
       </c>
       <c r="H32" s="3">
-        <v>-2700</v>
+        <v>13500</v>
       </c>
       <c r="I32" s="3">
-        <v>-3100</v>
+        <v>-2500</v>
       </c>
       <c r="J32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-6400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-9500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-7800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>43100</v>
+        <v>41500</v>
       </c>
       <c r="E33" s="3">
-        <v>48200</v>
+        <v>40300</v>
       </c>
       <c r="F33" s="3">
-        <v>71600</v>
+        <v>45000</v>
       </c>
       <c r="G33" s="3">
-        <v>-248200</v>
+        <v>66900</v>
       </c>
       <c r="H33" s="3">
-        <v>45100</v>
+        <v>-231900</v>
       </c>
       <c r="I33" s="3">
-        <v>47300</v>
+        <v>42100</v>
       </c>
       <c r="J33" s="3">
+        <v>44200</v>
+      </c>
+      <c r="K33" s="3">
         <v>38300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>15800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>29900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>38200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>43300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>23700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>29100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>25800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>38500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>26800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>27900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>30500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>32000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>11200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>43100</v>
+        <v>41500</v>
       </c>
       <c r="E35" s="3">
-        <v>48200</v>
+        <v>40300</v>
       </c>
       <c r="F35" s="3">
-        <v>71600</v>
+        <v>45000</v>
       </c>
       <c r="G35" s="3">
-        <v>-248200</v>
+        <v>66900</v>
       </c>
       <c r="H35" s="3">
-        <v>45100</v>
+        <v>-231900</v>
       </c>
       <c r="I35" s="3">
-        <v>47300</v>
+        <v>42100</v>
       </c>
       <c r="J35" s="3">
+        <v>44200</v>
+      </c>
+      <c r="K35" s="3">
         <v>38300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>15800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>29900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>38200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>43300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>23700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>29100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>25800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>38500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>26800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>27900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>30500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>32000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>11200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,144 +2746,151 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>446400</v>
+        <v>501700</v>
       </c>
       <c r="E41" s="3">
-        <v>423800</v>
+        <v>417000</v>
       </c>
       <c r="F41" s="3">
-        <v>773700</v>
+        <v>395900</v>
       </c>
       <c r="G41" s="3">
-        <v>789600</v>
+        <v>722700</v>
       </c>
       <c r="H41" s="3">
-        <v>725300</v>
+        <v>737600</v>
       </c>
       <c r="I41" s="3">
-        <v>658000</v>
+        <v>677500</v>
       </c>
       <c r="J41" s="3">
+        <v>614600</v>
+      </c>
+      <c r="K41" s="3">
         <v>638300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>675600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>572400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>439000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>436500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>411300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>330300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>300600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>308700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>293100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>298800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>295500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>379100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>429600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>263500</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>17100</v>
+        <v>13700</v>
       </c>
       <c r="E42" s="3">
-        <v>15200</v>
+        <v>16000</v>
       </c>
       <c r="F42" s="3">
-        <v>22600</v>
+        <v>14200</v>
       </c>
       <c r="G42" s="3">
-        <v>18100</v>
+        <v>21100</v>
       </c>
       <c r="H42" s="3">
-        <v>8700</v>
+        <v>16900</v>
       </c>
       <c r="I42" s="3">
-        <v>9600</v>
+        <v>8200</v>
       </c>
       <c r="J42" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K42" s="3">
         <v>15400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>103400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>86900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>114200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>76300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>68500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>29800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>32100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>35400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>24600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>63800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>84000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>59600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>43100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2806,67 +2898,70 @@
         <v>273400</v>
       </c>
       <c r="E43" s="3">
-        <v>257100</v>
+        <v>255400</v>
       </c>
       <c r="F43" s="3">
-        <v>247300</v>
+        <v>240100</v>
       </c>
       <c r="G43" s="3">
-        <v>216700</v>
+        <v>231000</v>
       </c>
       <c r="H43" s="3">
-        <v>242000</v>
+        <v>202400</v>
       </c>
       <c r="I43" s="3">
-        <v>271400</v>
+        <v>226000</v>
       </c>
       <c r="J43" s="3">
+        <v>253500</v>
+      </c>
+      <c r="K43" s="3">
         <v>264400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>219000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>242800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>258800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>230700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>227200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>223100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>211900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>255600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>263300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>253800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>259000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>217400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>196000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>127400</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,280 +3028,295 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>33600</v>
+        <v>24200</v>
       </c>
       <c r="E45" s="3">
-        <v>39500</v>
+        <v>31400</v>
       </c>
       <c r="F45" s="3">
-        <v>33800</v>
+        <v>36800</v>
       </c>
       <c r="G45" s="3">
-        <v>33000</v>
+        <v>31500</v>
       </c>
       <c r="H45" s="3">
-        <v>30800</v>
+        <v>30900</v>
       </c>
       <c r="I45" s="3">
-        <v>32200</v>
+        <v>28800</v>
       </c>
       <c r="J45" s="3">
+        <v>30100</v>
+      </c>
+      <c r="K45" s="3">
         <v>32100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>38500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>46900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>48500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>72800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>69300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>63800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>69400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>35500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>39300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>35900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>11600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>44600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>12900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>100500</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>770500</v>
+        <v>813000</v>
       </c>
       <c r="E46" s="3">
-        <v>735500</v>
+        <v>719700</v>
       </c>
       <c r="F46" s="3">
-        <v>1077300</v>
+        <v>687000</v>
       </c>
       <c r="G46" s="3">
-        <v>1057500</v>
+        <v>1006300</v>
       </c>
       <c r="H46" s="3">
-        <v>1006800</v>
+        <v>987800</v>
       </c>
       <c r="I46" s="3">
-        <v>971200</v>
+        <v>940400</v>
       </c>
       <c r="J46" s="3">
+        <v>907200</v>
+      </c>
+      <c r="K46" s="3">
         <v>950200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1036500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>949100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>860500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>816400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>776400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>647000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>614000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>635200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>620300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>652300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>650100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>700600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>681600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>565500</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>309500</v>
+        <v>305100</v>
       </c>
       <c r="E47" s="3">
-        <v>286000</v>
+        <v>289100</v>
       </c>
       <c r="F47" s="3">
-        <v>287900</v>
+        <v>267200</v>
       </c>
       <c r="G47" s="3">
-        <v>284100</v>
+        <v>268900</v>
       </c>
       <c r="H47" s="3">
-        <v>327600</v>
+        <v>265400</v>
       </c>
       <c r="I47" s="3">
-        <v>335700</v>
+        <v>306000</v>
       </c>
       <c r="J47" s="3">
+        <v>313500</v>
+      </c>
+      <c r="K47" s="3">
         <v>341300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>331600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>346200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>390000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>373900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>365100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>309300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>284500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>278400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>300800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>200100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>188400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>146500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>127600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>117100</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>451600</v>
+        <v>413300</v>
       </c>
       <c r="E48" s="3">
-        <v>457400</v>
+        <v>421800</v>
       </c>
       <c r="F48" s="3">
-        <v>79600</v>
+        <v>427200</v>
       </c>
       <c r="G48" s="3">
-        <v>82500</v>
+        <v>74300</v>
       </c>
       <c r="H48" s="3">
-        <v>85500</v>
+        <v>77000</v>
       </c>
       <c r="I48" s="3">
-        <v>95700</v>
+        <v>79800</v>
       </c>
       <c r="J48" s="3">
+        <v>89400</v>
+      </c>
+      <c r="K48" s="3">
         <v>96100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>99900</v>
-      </c>
-      <c r="L48" s="3">
-        <v>105400</v>
       </c>
       <c r="M48" s="3">
         <v>105400</v>
       </c>
       <c r="N48" s="3">
+        <v>105400</v>
+      </c>
+      <c r="O48" s="3">
         <v>94700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>52700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>41400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>42400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>43000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>46600</v>
-      </c>
-      <c r="T48" s="3">
-        <v>37300</v>
       </c>
       <c r="U48" s="3">
         <v>37300</v>
       </c>
       <c r="V48" s="3">
+        <v>37300</v>
+      </c>
+      <c r="W48" s="3">
         <v>35900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>35100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>73300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>58200</v>
+      </c>
+      <c r="F52" s="3">
         <v>62300</v>
       </c>
-      <c r="E52" s="3">
-        <v>66700</v>
-      </c>
-      <c r="F52" s="3">
-        <v>69200</v>
-      </c>
       <c r="G52" s="3">
-        <v>58800</v>
+        <v>64600</v>
       </c>
       <c r="H52" s="3">
-        <v>54300</v>
+        <v>54900</v>
       </c>
       <c r="I52" s="3">
-        <v>49400</v>
+        <v>50700</v>
       </c>
       <c r="J52" s="3">
+        <v>46200</v>
+      </c>
+      <c r="K52" s="3">
         <v>46300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>41500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>32200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>29400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>27500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>24800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>16800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>25000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>26800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>30500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>23500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>19800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>13300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>13600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1593900</v>
+        <v>1604700</v>
       </c>
       <c r="E54" s="3">
-        <v>1545600</v>
+        <v>1488800</v>
       </c>
       <c r="F54" s="3">
-        <v>1514000</v>
+        <v>1443700</v>
       </c>
       <c r="G54" s="3">
-        <v>1482900</v>
+        <v>1414200</v>
       </c>
       <c r="H54" s="3">
-        <v>1474100</v>
+        <v>1385100</v>
       </c>
       <c r="I54" s="3">
-        <v>1452000</v>
+        <v>1376900</v>
       </c>
       <c r="J54" s="3">
+        <v>1356300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1433800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1509400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1432900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1385200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1312500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1219100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1014600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>966000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>983300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>998200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>913200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>895500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>896300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>857900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>727500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3710,31 +3840,34 @@
         <v>0</v>
       </c>
       <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
         <v>5000</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
       <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
         <v>600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>45700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>48500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>84300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>82000</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3777,168 +3910,177 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S58" s="3">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="T58" s="3">
         <v>75000</v>
       </c>
       <c r="U58" s="3">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="V58" s="3">
         <v>80000</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>5</v>
+      <c r="W58" s="3">
+        <v>80000</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>267800</v>
+        <v>336400</v>
       </c>
       <c r="E59" s="3">
-        <v>266200</v>
+        <v>250100</v>
       </c>
       <c r="F59" s="3">
-        <v>339900</v>
+        <v>248700</v>
       </c>
       <c r="G59" s="3">
-        <v>296800</v>
+        <v>317500</v>
       </c>
       <c r="H59" s="3">
-        <v>172100</v>
+        <v>277200</v>
       </c>
       <c r="I59" s="3">
-        <v>166300</v>
+        <v>160700</v>
       </c>
       <c r="J59" s="3">
+        <v>155300</v>
+      </c>
+      <c r="K59" s="3">
         <v>198300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>231700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>164600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>197600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>232600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>242000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>171700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>147500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>200200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>204600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>171400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>138600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>198000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>144900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>162200</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>267800</v>
+        <v>336400</v>
       </c>
       <c r="E60" s="3">
-        <v>266200</v>
+        <v>250100</v>
       </c>
       <c r="F60" s="3">
-        <v>339900</v>
+        <v>248700</v>
       </c>
       <c r="G60" s="3">
-        <v>296800</v>
+        <v>317500</v>
       </c>
       <c r="H60" s="3">
-        <v>172100</v>
+        <v>277200</v>
       </c>
       <c r="I60" s="3">
-        <v>166300</v>
+        <v>160700</v>
       </c>
       <c r="J60" s="3">
+        <v>155300</v>
+      </c>
+      <c r="K60" s="3">
         <v>198300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>231700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>164600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>197600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>232600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>242000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>171700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>152500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>200300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>280200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>292100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>267100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>362300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>226900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>162200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3976,20 +4118,20 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>22100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>31900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>47500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>67500</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4000,81 +4142,87 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="X61" s="3">
         <v>80000</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>80300</v>
+        <v>68500</v>
       </c>
       <c r="E62" s="3">
-        <v>81900</v>
+        <v>75000</v>
       </c>
       <c r="F62" s="3">
-        <v>35900</v>
+        <v>76500</v>
       </c>
       <c r="G62" s="3">
-        <v>38000</v>
+        <v>33500</v>
       </c>
       <c r="H62" s="3">
-        <v>54200</v>
+        <v>35500</v>
       </c>
       <c r="I62" s="3">
-        <v>64100</v>
+        <v>50700</v>
       </c>
       <c r="J62" s="3">
+        <v>59900</v>
+      </c>
+      <c r="K62" s="3">
         <v>63700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>65100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>69900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>71700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>62000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>17800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>23300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>23600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>25200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>11500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>15500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>11700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>14900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>16500</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>348100</v>
+        <v>419800</v>
       </c>
       <c r="E66" s="3">
-        <v>348200</v>
+        <v>325100</v>
       </c>
       <c r="F66" s="3">
-        <v>375700</v>
+        <v>325200</v>
       </c>
       <c r="G66" s="3">
-        <v>349300</v>
+        <v>351000</v>
       </c>
       <c r="H66" s="3">
-        <v>226300</v>
+        <v>326300</v>
       </c>
       <c r="I66" s="3">
-        <v>230400</v>
+        <v>211400</v>
       </c>
       <c r="J66" s="3">
+        <v>215200</v>
+      </c>
+      <c r="K66" s="3">
         <v>262000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>429500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>234500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>269300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>294600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>331100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>221400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>223400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>291400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>317500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>303600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>332300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>422600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>378000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>258700</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,13 +4813,16 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
+      <c r="D72" s="3">
+        <v>764400</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>5</v>
@@ -4657,11 +4830,11 @@
       <c r="F72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G72" s="3">
-        <v>629400</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
+        <v>587900</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
@@ -4669,50 +4842,53 @@
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>729100</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>600300</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>443100</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X72" s="3">
         <v>322900</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1245800</v>
+        <v>1184900</v>
       </c>
       <c r="E76" s="3">
-        <v>1197400</v>
+        <v>1163600</v>
       </c>
       <c r="F76" s="3">
-        <v>1138300</v>
+        <v>1118500</v>
       </c>
       <c r="G76" s="3">
-        <v>1133600</v>
+        <v>1063200</v>
       </c>
       <c r="H76" s="3">
-        <v>1247800</v>
+        <v>1058900</v>
       </c>
       <c r="I76" s="3">
-        <v>1221600</v>
+        <v>1165600</v>
       </c>
       <c r="J76" s="3">
+        <v>1141100</v>
+      </c>
+      <c r="K76" s="3">
         <v>1171800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1079900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1198400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1115900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1018000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>888000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>793200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>742600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>691900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>680800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>609700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>563200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>473700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>479900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>468800</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>43100</v>
+        <v>41500</v>
       </c>
       <c r="E81" s="3">
-        <v>48200</v>
+        <v>40300</v>
       </c>
       <c r="F81" s="3">
-        <v>71600</v>
+        <v>45000</v>
       </c>
       <c r="G81" s="3">
-        <v>-248200</v>
+        <v>66900</v>
       </c>
       <c r="H81" s="3">
-        <v>45100</v>
+        <v>-231900</v>
       </c>
       <c r="I81" s="3">
-        <v>47300</v>
+        <v>42100</v>
       </c>
       <c r="J81" s="3">
+        <v>44200</v>
+      </c>
+      <c r="K81" s="3">
         <v>38300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>15800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>29900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>38200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>43300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>23700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>29100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>25800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>38500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>26800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>27900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>30500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>32000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>11200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,44 +5839,47 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>57000</v>
+        <v>97300</v>
       </c>
       <c r="E89" s="3">
+        <v>53200</v>
+      </c>
+      <c r="F89" s="3">
         <v>700</v>
       </c>
-      <c r="F89" s="3">
-        <v>78200</v>
-      </c>
       <c r="G89" s="3">
-        <v>47800</v>
+        <v>73100</v>
       </c>
       <c r="H89" s="3">
-        <v>56900</v>
+        <v>44600</v>
       </c>
       <c r="I89" s="3">
-        <v>1500</v>
+        <v>53200</v>
       </c>
       <c r="J89" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K89" s="3">
         <v>19400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>129700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>34400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>11100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
@@ -5694,8 +5910,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,44 +6150,47 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>37000</v>
+        <v>-453400</v>
       </c>
       <c r="E94" s="3">
-        <v>31800</v>
+        <v>34500</v>
       </c>
       <c r="F94" s="3">
-        <v>10900</v>
+        <v>29700</v>
       </c>
       <c r="G94" s="3">
-        <v>-12200</v>
+        <v>10200</v>
       </c>
       <c r="H94" s="3">
-        <v>26100</v>
+        <v>-11400</v>
       </c>
       <c r="I94" s="3">
-        <v>20600</v>
+        <v>24400</v>
       </c>
       <c r="J94" s="3">
+        <v>19300</v>
+      </c>
+      <c r="K94" s="3">
         <v>21000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-163200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>68600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>56600</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,44 +6532,47 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-157100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F100" s="3">
         <v>1500</v>
       </c>
-      <c r="E100" s="3">
-        <v>1600</v>
-      </c>
-      <c r="F100" s="3">
-        <v>84200</v>
-      </c>
       <c r="G100" s="3">
-        <v>-77600</v>
+        <v>78600</v>
       </c>
       <c r="H100" s="3">
-        <v>3600</v>
+        <v>-72500</v>
       </c>
       <c r="I100" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>15100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>21000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>42400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -6358,8 +6603,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6674,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6492,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOAH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOAH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
   <si>
     <t>NOAH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,192 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>185700</v>
+        <v>107800</v>
       </c>
       <c r="E8" s="3">
-        <v>133900</v>
+        <v>116200</v>
       </c>
       <c r="F8" s="3">
-        <v>132500</v>
+        <v>184000</v>
       </c>
       <c r="G8" s="3">
-        <v>180500</v>
+        <v>132700</v>
       </c>
       <c r="H8" s="3">
-        <v>140500</v>
+        <v>131300</v>
       </c>
       <c r="I8" s="3">
+        <v>178800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>139200</v>
+      </c>
+      <c r="K8" s="3">
         <v>126600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>110100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>117700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>121400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>131400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>133200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>135400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>125100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>117400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>114400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>119200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>122100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>102900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>104300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>105200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>78600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -906,8 +920,14 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +997,14 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,31 +1180,37 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>2800</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
-        <v>269500</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
+      <c r="J14" s="3">
+        <v>267100</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
@@ -1184,11 +1224,11 @@
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>166100</v>
+        <v>60600</v>
       </c>
       <c r="E17" s="3">
-        <v>100400</v>
+        <v>70400</v>
       </c>
       <c r="F17" s="3">
-        <v>85900</v>
+        <v>164600</v>
       </c>
       <c r="G17" s="3">
-        <v>106400</v>
+        <v>99500</v>
       </c>
       <c r="H17" s="3">
-        <v>360500</v>
+        <v>85200</v>
       </c>
       <c r="I17" s="3">
+        <v>105500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>357300</v>
+      </c>
+      <c r="K17" s="3">
         <v>75400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>63100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>77300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>101900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>94800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>94700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>89300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>100800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>79500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>82700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>79800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>97700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>78800</v>
-      </c>
-      <c r="V17" s="3">
-        <v>71300</v>
-      </c>
-      <c r="W17" s="3">
-        <v>67300</v>
       </c>
       <c r="X17" s="3">
         <v>71300</v>
       </c>
       <c r="Y17" s="3">
+        <v>67300</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>71300</v>
+      </c>
+      <c r="AA17" s="3">
         <v>66900</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>19600</v>
+        <v>47200</v>
       </c>
       <c r="E18" s="3">
-        <v>33500</v>
+        <v>45800</v>
       </c>
       <c r="F18" s="3">
-        <v>46600</v>
+        <v>19400</v>
       </c>
       <c r="G18" s="3">
-        <v>74000</v>
+        <v>33200</v>
       </c>
       <c r="H18" s="3">
-        <v>-220100</v>
+        <v>46200</v>
       </c>
       <c r="I18" s="3">
+        <v>73400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-218100</v>
+      </c>
+      <c r="K18" s="3">
         <v>51200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>47100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>40400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>19400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>36600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>38500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>46000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>24300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>37900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>31700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>39400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>24400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>24100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>33000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>37900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>7300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>24300</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,79 +1547,87 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F20" s="3">
         <v>2300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>5800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
-        <v>8400</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-13500</v>
-      </c>
       <c r="I20" s="3">
+        <v>8300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="K20" s="3">
         <v>2500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>2900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>6400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-6200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>6300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>7100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>2800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>2000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>9500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>7800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>3600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>3500</v>
-      </c>
-      <c r="W20" s="3">
-        <v>2900</v>
-      </c>
-      <c r="X20" s="3">
-        <v>2800</v>
       </c>
       <c r="Y20" s="3">
         <v>2900</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1623,34 +1697,40 @@
       <c r="Y21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1662,182 +1742,200 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3">
         <v>500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>1000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>1600</v>
-      </c>
-      <c r="U22" s="3">
-        <v>700</v>
-      </c>
-      <c r="V22" s="3">
-        <v>700</v>
       </c>
       <c r="W22" s="3">
         <v>700</v>
       </c>
       <c r="X22" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Y22" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>21900</v>
+        <v>52300</v>
       </c>
       <c r="E23" s="3">
-        <v>39300</v>
+        <v>51300</v>
       </c>
       <c r="F23" s="3">
-        <v>47600</v>
+        <v>21700</v>
       </c>
       <c r="G23" s="3">
-        <v>82400</v>
+        <v>39000</v>
       </c>
       <c r="H23" s="3">
-        <v>-233600</v>
+        <v>47200</v>
       </c>
       <c r="I23" s="3">
+        <v>81700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-231500</v>
+      </c>
+      <c r="K23" s="3">
         <v>53700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>50000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>46800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>20200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>30400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>44800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>53100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>27100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>37500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>33300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>47900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>30600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>27000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>35800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>40100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>9600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>26500</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F24" s="3">
         <v>5200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>8800</v>
       </c>
-      <c r="F24" s="3">
-        <v>10100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>19100</v>
-      </c>
       <c r="H24" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>19000</v>
+      </c>
+      <c r="J24" s="3">
         <v>4000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>12500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>11500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>10800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>4300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>7000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>10300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>12100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>4400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>8700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>8300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>10600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>6300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>6300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>8900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>9100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>2100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>16700</v>
+        <v>40800</v>
       </c>
       <c r="E26" s="3">
-        <v>30500</v>
+        <v>40000</v>
       </c>
       <c r="F26" s="3">
-        <v>37500</v>
+        <v>16600</v>
       </c>
       <c r="G26" s="3">
-        <v>63300</v>
+        <v>30200</v>
       </c>
       <c r="H26" s="3">
-        <v>-237700</v>
+        <v>37200</v>
       </c>
       <c r="I26" s="3">
+        <v>62700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-235500</v>
+      </c>
+      <c r="K26" s="3">
         <v>41100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>38500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>36100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>15900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>23400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>34500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>41000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>22600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>28800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>25000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>37300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>24300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>20700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>26900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>31000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>7500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>41500</v>
+        <v>51000</v>
       </c>
       <c r="E27" s="3">
-        <v>40300</v>
+        <v>44600</v>
       </c>
       <c r="F27" s="3">
-        <v>45000</v>
+        <v>41100</v>
       </c>
       <c r="G27" s="3">
-        <v>66900</v>
+        <v>39900</v>
       </c>
       <c r="H27" s="3">
-        <v>-231900</v>
+        <v>44600</v>
       </c>
       <c r="I27" s="3">
+        <v>66300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-229800</v>
+      </c>
+      <c r="K27" s="3">
         <v>42100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>44200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>38300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>15800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>29900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>38200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>43300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>23700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>29100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>25800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>38500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>26800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>27900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>30500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>32000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>11200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2467,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-5800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="H32" s="3">
-        <v>13500</v>
-      </c>
       <c r="I32" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-2900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-6400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>6200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-6300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-7100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-2000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-9500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-7800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-3600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-3500</v>
-      </c>
-      <c r="W32" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="X32" s="3">
-        <v>-2800</v>
       </c>
       <c r="Y32" s="3">
         <v>-2900</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>-2900</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>41500</v>
+        <v>51000</v>
       </c>
       <c r="E33" s="3">
-        <v>40300</v>
+        <v>44600</v>
       </c>
       <c r="F33" s="3">
-        <v>45000</v>
+        <v>41100</v>
       </c>
       <c r="G33" s="3">
-        <v>66900</v>
+        <v>39900</v>
       </c>
       <c r="H33" s="3">
-        <v>-231900</v>
+        <v>44600</v>
       </c>
       <c r="I33" s="3">
+        <v>66300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-229800</v>
+      </c>
+      <c r="K33" s="3">
         <v>42100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>44200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>38300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>15800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>29900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>38200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>43300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>23700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>29100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>25800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>38500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>26800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>27900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>30500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>32000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>11200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>41500</v>
+        <v>51000</v>
       </c>
       <c r="E35" s="3">
-        <v>40300</v>
+        <v>44600</v>
       </c>
       <c r="F35" s="3">
-        <v>45000</v>
+        <v>41100</v>
       </c>
       <c r="G35" s="3">
-        <v>66900</v>
+        <v>39900</v>
       </c>
       <c r="H35" s="3">
-        <v>-231900</v>
+        <v>44600</v>
       </c>
       <c r="I35" s="3">
+        <v>66300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-229800</v>
+      </c>
+      <c r="K35" s="3">
         <v>42100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>44200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>38300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>15800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>29900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>38200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>43300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>23700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>29100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>25800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>38500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>26800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>27900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>30500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>32000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>11200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,221 +2919,241 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>501700</v>
+        <v>526900</v>
       </c>
       <c r="E41" s="3">
-        <v>417000</v>
+        <v>569500</v>
       </c>
       <c r="F41" s="3">
-        <v>395900</v>
+        <v>497200</v>
       </c>
       <c r="G41" s="3">
-        <v>722700</v>
+        <v>413200</v>
       </c>
       <c r="H41" s="3">
-        <v>737600</v>
+        <v>392300</v>
       </c>
       <c r="I41" s="3">
+        <v>716200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>730900</v>
+      </c>
+      <c r="K41" s="3">
         <v>677500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>614600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>638300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>675600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>572400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>439000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>436500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>411300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>330300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>300600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>308700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>293100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>298800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>295500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>379100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>429600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>263500</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>13700</v>
+        <v>12500</v>
       </c>
       <c r="E42" s="3">
-        <v>16000</v>
+        <v>9400</v>
       </c>
       <c r="F42" s="3">
-        <v>14200</v>
+        <v>13600</v>
       </c>
       <c r="G42" s="3">
-        <v>21100</v>
+        <v>15800</v>
       </c>
       <c r="H42" s="3">
-        <v>16900</v>
+        <v>14000</v>
       </c>
       <c r="I42" s="3">
+        <v>20900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>16800</v>
+      </c>
+      <c r="K42" s="3">
         <v>8200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>9000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>15400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>103400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>86900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>114200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>76300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>68500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>29800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>32100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>35400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>24600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>63800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>84000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>59600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>43100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>273400</v>
+        <v>246200</v>
       </c>
       <c r="E43" s="3">
-        <v>255400</v>
+        <v>220100</v>
       </c>
       <c r="F43" s="3">
-        <v>240100</v>
+        <v>270900</v>
       </c>
       <c r="G43" s="3">
-        <v>231000</v>
+        <v>253100</v>
       </c>
       <c r="H43" s="3">
-        <v>202400</v>
+        <v>237900</v>
       </c>
       <c r="I43" s="3">
+        <v>228900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>200600</v>
+      </c>
+      <c r="K43" s="3">
         <v>226000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>253500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>264400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>219000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>242800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>258800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>230700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>227200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>223100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>211900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>255600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>263300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>253800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>259000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>217400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>196000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>127400</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,292 +3223,322 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>24200</v>
+        <v>31100</v>
       </c>
       <c r="E45" s="3">
-        <v>31400</v>
+        <v>25000</v>
       </c>
       <c r="F45" s="3">
-        <v>36800</v>
+        <v>24000</v>
       </c>
       <c r="G45" s="3">
-        <v>31500</v>
+        <v>31100</v>
       </c>
       <c r="H45" s="3">
-        <v>30900</v>
+        <v>36500</v>
       </c>
       <c r="I45" s="3">
+        <v>31200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>30600</v>
+      </c>
+      <c r="K45" s="3">
         <v>28800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>30100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>32100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>38500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>46900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>48500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>72800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>69300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>63800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>69400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>35500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>39300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>35900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>11600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>44600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>12900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>100500</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>813000</v>
+        <v>816700</v>
       </c>
       <c r="E46" s="3">
-        <v>719700</v>
+        <v>824000</v>
       </c>
       <c r="F46" s="3">
-        <v>687000</v>
+        <v>805600</v>
       </c>
       <c r="G46" s="3">
-        <v>1006300</v>
+        <v>713200</v>
       </c>
       <c r="H46" s="3">
-        <v>987800</v>
+        <v>680800</v>
       </c>
       <c r="I46" s="3">
+        <v>997200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>978900</v>
+      </c>
+      <c r="K46" s="3">
         <v>940400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>907200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>950200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1036500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>949100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>860500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>816400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>776400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>647000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>614000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>635200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>620300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>652300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>650100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>700600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>681600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>565500</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>305100</v>
+        <v>324500</v>
       </c>
       <c r="E47" s="3">
-        <v>289100</v>
+        <v>311000</v>
       </c>
       <c r="F47" s="3">
-        <v>267200</v>
+        <v>302400</v>
       </c>
       <c r="G47" s="3">
-        <v>268900</v>
+        <v>286500</v>
       </c>
       <c r="H47" s="3">
-        <v>265400</v>
+        <v>264800</v>
       </c>
       <c r="I47" s="3">
+        <v>266500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>263000</v>
+      </c>
+      <c r="K47" s="3">
         <v>306000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>313500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>341300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>331600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>346200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>390000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>373900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>365100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>309300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>284500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>278400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>300800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>200100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>188400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>146500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>127600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>117100</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>413300</v>
+        <v>394900</v>
       </c>
       <c r="E48" s="3">
-        <v>421800</v>
+        <v>402700</v>
       </c>
       <c r="F48" s="3">
-        <v>427200</v>
+        <v>409600</v>
       </c>
       <c r="G48" s="3">
-        <v>74300</v>
+        <v>418000</v>
       </c>
       <c r="H48" s="3">
-        <v>77000</v>
+        <v>423400</v>
       </c>
       <c r="I48" s="3">
+        <v>73700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>76300</v>
+      </c>
+      <c r="K48" s="3">
         <v>79800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>89400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>96100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>99900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>105400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>105400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>94700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>52700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>41400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>42400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>43000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>46600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>37300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>37300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>35900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>35100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3762,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>73300</v>
+        <v>72400</v>
       </c>
       <c r="E52" s="3">
-        <v>58200</v>
+        <v>72700</v>
       </c>
       <c r="F52" s="3">
-        <v>62300</v>
+        <v>72700</v>
       </c>
       <c r="G52" s="3">
-        <v>64600</v>
+        <v>57700</v>
       </c>
       <c r="H52" s="3">
-        <v>54900</v>
+        <v>61800</v>
       </c>
       <c r="I52" s="3">
+        <v>64000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>54400</v>
+      </c>
+      <c r="K52" s="3">
         <v>50700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>46200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>46300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>41500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>32200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>29400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>27500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>24800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>16800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>25000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>26800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>30500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>23500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>19800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>13300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>13600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1604700</v>
+        <v>1608500</v>
       </c>
       <c r="E54" s="3">
-        <v>1488800</v>
+        <v>1610400</v>
       </c>
       <c r="F54" s="3">
-        <v>1443700</v>
+        <v>1590200</v>
       </c>
       <c r="G54" s="3">
-        <v>1414200</v>
+        <v>1475300</v>
       </c>
       <c r="H54" s="3">
-        <v>1385100</v>
+        <v>1430700</v>
       </c>
       <c r="I54" s="3">
+        <v>1401400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1372600</v>
+      </c>
+      <c r="K54" s="3">
         <v>1376900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1356300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1433800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1509400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1432900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1385200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1312500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1219100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1014600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>966000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>983300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>998200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>913200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>895500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>896300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>857900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>727500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +4055,10 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3843,31 +4105,37 @@
         <v>0</v>
       </c>
       <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
         <v>5000</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
         <v>600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>45700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>48500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>84300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>82000</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3913,174 +4181,192 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
+      <c r="R58" s="3">
+        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>75000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>75000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>80000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>80000</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>336400</v>
+        <v>251400</v>
       </c>
       <c r="E59" s="3">
-        <v>250100</v>
+        <v>313500</v>
       </c>
       <c r="F59" s="3">
-        <v>248700</v>
+        <v>333400</v>
       </c>
       <c r="G59" s="3">
-        <v>317500</v>
+        <v>247900</v>
       </c>
       <c r="H59" s="3">
-        <v>277200</v>
+        <v>246400</v>
       </c>
       <c r="I59" s="3">
+        <v>314600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>274700</v>
+      </c>
+      <c r="K59" s="3">
         <v>160700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>155300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>198300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>231700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>164600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>197600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>232600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>242000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>171700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>147500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>200200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>204600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>171400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>138600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>198000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>144900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>162200</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>336400</v>
+        <v>251400</v>
       </c>
       <c r="E60" s="3">
-        <v>250100</v>
+        <v>313500</v>
       </c>
       <c r="F60" s="3">
-        <v>248700</v>
+        <v>333400</v>
       </c>
       <c r="G60" s="3">
-        <v>317500</v>
+        <v>247900</v>
       </c>
       <c r="H60" s="3">
-        <v>277200</v>
+        <v>246400</v>
       </c>
       <c r="I60" s="3">
+        <v>314600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>274700</v>
+      </c>
+      <c r="K60" s="3">
         <v>160700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>155300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>198300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>231700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>164600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>197600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>232600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>242000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>171700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>152500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>200300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>280200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>292100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>267100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>362300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>226900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>162200</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4121,23 +4407,23 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>22100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>31900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>47500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>67500</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4145,84 +4431,96 @@
         <v>0</v>
       </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>80000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>68500</v>
+        <v>60700</v>
       </c>
       <c r="E62" s="3">
-        <v>75000</v>
+        <v>63900</v>
       </c>
       <c r="F62" s="3">
-        <v>76500</v>
+        <v>67900</v>
       </c>
       <c r="G62" s="3">
-        <v>33500</v>
+        <v>74300</v>
       </c>
       <c r="H62" s="3">
-        <v>35500</v>
+        <v>75800</v>
       </c>
       <c r="I62" s="3">
+        <v>33200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>35200</v>
+      </c>
+      <c r="K62" s="3">
         <v>50700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>59900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>63700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>65100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>69900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>71700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>62000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>15600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>17800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>23300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>23600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>25200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>11500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>15500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>11700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>14900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>16500</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>419800</v>
+        <v>312000</v>
       </c>
       <c r="E66" s="3">
-        <v>325100</v>
+        <v>377400</v>
       </c>
       <c r="F66" s="3">
-        <v>325200</v>
+        <v>416000</v>
       </c>
       <c r="G66" s="3">
-        <v>351000</v>
+        <v>322200</v>
       </c>
       <c r="H66" s="3">
-        <v>326300</v>
+        <v>322300</v>
       </c>
       <c r="I66" s="3">
+        <v>347800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>323300</v>
+      </c>
+      <c r="K66" s="3">
         <v>211400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>215200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>262000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>429500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>234500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>269300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>294600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>331100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>221400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>223400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>291400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>317500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>303600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>332300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>422600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>378000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>258700</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>764400</v>
+      <c r="D72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
+      <c r="F72" s="3">
+        <v>757500</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H72" s="3">
-        <v>587900</v>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
+      <c r="J72" s="3">
+        <v>582600</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>729100</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>600300</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>443100</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z72" s="3">
         <v>322900</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1184900</v>
+        <v>1296500</v>
       </c>
       <c r="E76" s="3">
-        <v>1163600</v>
+        <v>1233100</v>
       </c>
       <c r="F76" s="3">
-        <v>1118500</v>
+        <v>1174200</v>
       </c>
       <c r="G76" s="3">
-        <v>1063200</v>
+        <v>1153100</v>
       </c>
       <c r="H76" s="3">
-        <v>1058900</v>
+        <v>1108400</v>
       </c>
       <c r="I76" s="3">
+        <v>1053600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1049300</v>
+      </c>
+      <c r="K76" s="3">
         <v>1165600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1141100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1171800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1079900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1198400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1115900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1018000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>888000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>793200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>742600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>691900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>680800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>609700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>563200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>473700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>479900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>468800</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>41500</v>
+        <v>51000</v>
       </c>
       <c r="E81" s="3">
-        <v>40300</v>
+        <v>44600</v>
       </c>
       <c r="F81" s="3">
-        <v>45000</v>
+        <v>41100</v>
       </c>
       <c r="G81" s="3">
-        <v>66900</v>
+        <v>39900</v>
       </c>
       <c r="H81" s="3">
-        <v>-231900</v>
+        <v>44600</v>
       </c>
       <c r="I81" s="3">
+        <v>66300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-229800</v>
+      </c>
+      <c r="K81" s="3">
         <v>42100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>44200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>38300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>15800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>29900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>38200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>43300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>23700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>29100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>25800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>38500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>26800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>27900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>30500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>32000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>11200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,50 +6270,56 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>97300</v>
+        <v>-30900</v>
       </c>
       <c r="E89" s="3">
+        <v>73200</v>
+      </c>
+      <c r="F89" s="3">
+        <v>96400</v>
+      </c>
+      <c r="G89" s="3">
+        <v>52700</v>
+      </c>
+      <c r="H89" s="3">
+        <v>700</v>
+      </c>
+      <c r="I89" s="3">
+        <v>72400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>44200</v>
+      </c>
+      <c r="K89" s="3">
         <v>53200</v>
       </c>
-      <c r="F89" s="3">
-        <v>700</v>
-      </c>
-      <c r="G89" s="3">
-        <v>73100</v>
-      </c>
-      <c r="H89" s="3">
-        <v>44600</v>
-      </c>
-      <c r="I89" s="3">
-        <v>53200</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>19400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>129700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>34400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>11100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
@@ -5913,8 +6347,14 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6011,8 +6453,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,50 +6607,56 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-453400</v>
+        <v>1100</v>
       </c>
       <c r="E94" s="3">
-        <v>34500</v>
+        <v>1400</v>
       </c>
       <c r="F94" s="3">
-        <v>29700</v>
+        <v>-449300</v>
       </c>
       <c r="G94" s="3">
-        <v>10200</v>
+        <v>34200</v>
       </c>
       <c r="H94" s="3">
-        <v>-11400</v>
+        <v>29400</v>
       </c>
       <c r="I94" s="3">
+        <v>10100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="K94" s="3">
         <v>24400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>19300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>21000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-163200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>68600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>56600</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -6224,8 +6684,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,50 +7021,56 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-157100</v>
+        <v>-1700</v>
       </c>
       <c r="E100" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-155700</v>
+      </c>
+      <c r="G100" s="3">
         <v>1400</v>
       </c>
-      <c r="F100" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G100" s="3">
-        <v>78600</v>
-      </c>
       <c r="H100" s="3">
-        <v>-72500</v>
+        <v>1400</v>
       </c>
       <c r="I100" s="3">
+        <v>77900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-71800</v>
+      </c>
+      <c r="K100" s="3">
         <v>3400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>15100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>21000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>6300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>42400</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -6606,8 +7098,14 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,8 +7175,14 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6746,6 +7250,12 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOAH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOAH_QTR_FIN.xlsx
@@ -778,25 +778,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>107800</v>
+        <v>102700</v>
       </c>
       <c r="E8" s="3">
-        <v>116200</v>
+        <v>110800</v>
       </c>
       <c r="F8" s="3">
-        <v>184000</v>
+        <v>175400</v>
       </c>
       <c r="G8" s="3">
+        <v>126500</v>
+      </c>
+      <c r="H8" s="3">
+        <v>125200</v>
+      </c>
+      <c r="I8" s="3">
+        <v>170500</v>
+      </c>
+      <c r="J8" s="3">
         <v>132700</v>
-      </c>
-      <c r="H8" s="3">
-        <v>131300</v>
-      </c>
-      <c r="I8" s="3">
-        <v>178800</v>
-      </c>
-      <c r="J8" s="3">
-        <v>139200</v>
       </c>
       <c r="K8" s="3">
         <v>126600</v>
@@ -1204,13 +1204,13 @@
         <v>200</v>
       </c>
       <c r="H14" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J14" s="3">
-        <v>267100</v>
+        <v>254600</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
@@ -1372,25 +1372,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>60600</v>
+        <v>57800</v>
       </c>
       <c r="E17" s="3">
-        <v>70400</v>
+        <v>67100</v>
       </c>
       <c r="F17" s="3">
-        <v>164600</v>
+        <v>156900</v>
       </c>
       <c r="G17" s="3">
-        <v>99500</v>
+        <v>94900</v>
       </c>
       <c r="H17" s="3">
-        <v>85200</v>
+        <v>81200</v>
       </c>
       <c r="I17" s="3">
-        <v>105500</v>
+        <v>100600</v>
       </c>
       <c r="J17" s="3">
-        <v>357300</v>
+        <v>340600</v>
       </c>
       <c r="K17" s="3">
         <v>75400</v>
@@ -1449,25 +1449,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>47200</v>
+        <v>45000</v>
       </c>
       <c r="E18" s="3">
-        <v>45800</v>
+        <v>43700</v>
       </c>
       <c r="F18" s="3">
-        <v>19400</v>
+        <v>18500</v>
       </c>
       <c r="G18" s="3">
-        <v>33200</v>
+        <v>31700</v>
       </c>
       <c r="H18" s="3">
-        <v>46200</v>
+        <v>44000</v>
       </c>
       <c r="I18" s="3">
-        <v>73400</v>
+        <v>69900</v>
       </c>
       <c r="J18" s="3">
-        <v>-218100</v>
+        <v>-207900</v>
       </c>
       <c r="K18" s="3">
         <v>51200</v>
@@ -1555,25 +1555,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="E20" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G20" s="3">
         <v>5500</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>5800</v>
       </c>
       <c r="H20" s="3">
         <v>1000</v>
       </c>
       <c r="I20" s="3">
-        <v>8300</v>
+        <v>7900</v>
       </c>
       <c r="J20" s="3">
-        <v>-13400</v>
+        <v>-12800</v>
       </c>
       <c r="K20" s="3">
         <v>2500</v>
@@ -1786,25 +1786,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>52300</v>
+        <v>49800</v>
       </c>
       <c r="E23" s="3">
-        <v>51300</v>
+        <v>48900</v>
       </c>
       <c r="F23" s="3">
-        <v>21700</v>
+        <v>20700</v>
       </c>
       <c r="G23" s="3">
-        <v>39000</v>
+        <v>37100</v>
       </c>
       <c r="H23" s="3">
-        <v>47200</v>
+        <v>45000</v>
       </c>
       <c r="I23" s="3">
-        <v>81700</v>
+        <v>77800</v>
       </c>
       <c r="J23" s="3">
-        <v>-231500</v>
+        <v>-220700</v>
       </c>
       <c r="K23" s="3">
         <v>53700</v>
@@ -1863,25 +1863,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>11400</v>
+        <v>10900</v>
       </c>
       <c r="E24" s="3">
-        <v>11300</v>
+        <v>10800</v>
       </c>
       <c r="F24" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="G24" s="3">
-        <v>8800</v>
+        <v>8400</v>
       </c>
       <c r="H24" s="3">
-        <v>10000</v>
+        <v>9600</v>
       </c>
       <c r="I24" s="3">
-        <v>19000</v>
+        <v>18100</v>
       </c>
       <c r="J24" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="K24" s="3">
         <v>12500</v>
@@ -2017,25 +2017,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>40800</v>
+        <v>38900</v>
       </c>
       <c r="E26" s="3">
-        <v>40000</v>
+        <v>38200</v>
       </c>
       <c r="F26" s="3">
-        <v>16600</v>
+        <v>15800</v>
       </c>
       <c r="G26" s="3">
-        <v>30200</v>
+        <v>28800</v>
       </c>
       <c r="H26" s="3">
-        <v>37200</v>
+        <v>35400</v>
       </c>
       <c r="I26" s="3">
-        <v>62700</v>
+        <v>59800</v>
       </c>
       <c r="J26" s="3">
-        <v>-235500</v>
+        <v>-224500</v>
       </c>
       <c r="K26" s="3">
         <v>41100</v>
@@ -2094,25 +2094,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>51000</v>
+        <v>48600</v>
       </c>
       <c r="E27" s="3">
-        <v>44600</v>
+        <v>42500</v>
       </c>
       <c r="F27" s="3">
-        <v>41100</v>
+        <v>39200</v>
       </c>
       <c r="G27" s="3">
-        <v>39900</v>
+        <v>38000</v>
       </c>
       <c r="H27" s="3">
-        <v>44600</v>
+        <v>42500</v>
       </c>
       <c r="I27" s="3">
-        <v>66300</v>
+        <v>63200</v>
       </c>
       <c r="J27" s="3">
-        <v>-229800</v>
+        <v>-219000</v>
       </c>
       <c r="K27" s="3">
         <v>42100</v>
@@ -2479,25 +2479,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5100</v>
+        <v>-4800</v>
       </c>
       <c r="E32" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-5500</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-5800</v>
       </c>
       <c r="H32" s="3">
         <v>-1000</v>
       </c>
       <c r="I32" s="3">
-        <v>-8300</v>
+        <v>-7900</v>
       </c>
       <c r="J32" s="3">
-        <v>13400</v>
+        <v>12800</v>
       </c>
       <c r="K32" s="3">
         <v>-2500</v>
@@ -2556,25 +2556,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>51000</v>
+        <v>48600</v>
       </c>
       <c r="E33" s="3">
-        <v>44600</v>
+        <v>42500</v>
       </c>
       <c r="F33" s="3">
-        <v>41100</v>
+        <v>39200</v>
       </c>
       <c r="G33" s="3">
-        <v>39900</v>
+        <v>38000</v>
       </c>
       <c r="H33" s="3">
-        <v>44600</v>
+        <v>42500</v>
       </c>
       <c r="I33" s="3">
-        <v>66300</v>
+        <v>63200</v>
       </c>
       <c r="J33" s="3">
-        <v>-229800</v>
+        <v>-219000</v>
       </c>
       <c r="K33" s="3">
         <v>42100</v>
@@ -2710,25 +2710,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>51000</v>
+        <v>48600</v>
       </c>
       <c r="E35" s="3">
-        <v>44600</v>
+        <v>42500</v>
       </c>
       <c r="F35" s="3">
-        <v>41100</v>
+        <v>39200</v>
       </c>
       <c r="G35" s="3">
-        <v>39900</v>
+        <v>38000</v>
       </c>
       <c r="H35" s="3">
-        <v>44600</v>
+        <v>42500</v>
       </c>
       <c r="I35" s="3">
-        <v>66300</v>
+        <v>63200</v>
       </c>
       <c r="J35" s="3">
-        <v>-229800</v>
+        <v>-219000</v>
       </c>
       <c r="K35" s="3">
         <v>42100</v>
@@ -2927,25 +2927,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>526900</v>
+        <v>502200</v>
       </c>
       <c r="E41" s="3">
-        <v>569500</v>
+        <v>542900</v>
       </c>
       <c r="F41" s="3">
-        <v>497200</v>
+        <v>473900</v>
       </c>
       <c r="G41" s="3">
-        <v>413200</v>
+        <v>393900</v>
       </c>
       <c r="H41" s="3">
-        <v>392300</v>
+        <v>373900</v>
       </c>
       <c r="I41" s="3">
-        <v>716200</v>
+        <v>682700</v>
       </c>
       <c r="J41" s="3">
-        <v>730900</v>
+        <v>696700</v>
       </c>
       <c r="K41" s="3">
         <v>677500</v>
@@ -3004,25 +3004,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="E42" s="3">
-        <v>9400</v>
+        <v>9000</v>
       </c>
       <c r="F42" s="3">
-        <v>13600</v>
+        <v>12900</v>
       </c>
       <c r="G42" s="3">
-        <v>15800</v>
+        <v>15100</v>
       </c>
       <c r="H42" s="3">
-        <v>14000</v>
+        <v>13400</v>
       </c>
       <c r="I42" s="3">
-        <v>20900</v>
+        <v>19900</v>
       </c>
       <c r="J42" s="3">
-        <v>16800</v>
+        <v>16000</v>
       </c>
       <c r="K42" s="3">
         <v>8200</v>
@@ -3081,25 +3081,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>246200</v>
+        <v>234600</v>
       </c>
       <c r="E43" s="3">
-        <v>220100</v>
+        <v>209800</v>
       </c>
       <c r="F43" s="3">
-        <v>270900</v>
+        <v>258200</v>
       </c>
       <c r="G43" s="3">
-        <v>253100</v>
+        <v>241200</v>
       </c>
       <c r="H43" s="3">
-        <v>237900</v>
+        <v>226800</v>
       </c>
       <c r="I43" s="3">
-        <v>228900</v>
+        <v>218200</v>
       </c>
       <c r="J43" s="3">
-        <v>200600</v>
+        <v>191200</v>
       </c>
       <c r="K43" s="3">
         <v>226000</v>
@@ -3235,25 +3235,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>31100</v>
+        <v>29700</v>
       </c>
       <c r="E45" s="3">
-        <v>25000</v>
+        <v>23800</v>
       </c>
       <c r="F45" s="3">
-        <v>24000</v>
+        <v>22900</v>
       </c>
       <c r="G45" s="3">
-        <v>31100</v>
+        <v>29700</v>
       </c>
       <c r="H45" s="3">
-        <v>36500</v>
+        <v>34800</v>
       </c>
       <c r="I45" s="3">
-        <v>31200</v>
+        <v>29800</v>
       </c>
       <c r="J45" s="3">
-        <v>30600</v>
+        <v>29200</v>
       </c>
       <c r="K45" s="3">
         <v>28800</v>
@@ -3312,25 +3312,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>816700</v>
+        <v>778500</v>
       </c>
       <c r="E46" s="3">
-        <v>824000</v>
+        <v>785500</v>
       </c>
       <c r="F46" s="3">
-        <v>805600</v>
+        <v>767900</v>
       </c>
       <c r="G46" s="3">
-        <v>713200</v>
+        <v>679800</v>
       </c>
       <c r="H46" s="3">
-        <v>680800</v>
+        <v>648900</v>
       </c>
       <c r="I46" s="3">
-        <v>997200</v>
+        <v>950600</v>
       </c>
       <c r="J46" s="3">
-        <v>978900</v>
+        <v>933100</v>
       </c>
       <c r="K46" s="3">
         <v>940400</v>
@@ -3389,25 +3389,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>324500</v>
+        <v>309400</v>
       </c>
       <c r="E47" s="3">
-        <v>311000</v>
+        <v>296400</v>
       </c>
       <c r="F47" s="3">
-        <v>302400</v>
+        <v>288200</v>
       </c>
       <c r="G47" s="3">
-        <v>286500</v>
+        <v>273100</v>
       </c>
       <c r="H47" s="3">
-        <v>264800</v>
+        <v>252400</v>
       </c>
       <c r="I47" s="3">
-        <v>266500</v>
+        <v>254100</v>
       </c>
       <c r="J47" s="3">
-        <v>263000</v>
+        <v>250700</v>
       </c>
       <c r="K47" s="3">
         <v>306000</v>
@@ -3466,25 +3466,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>394900</v>
+        <v>376400</v>
       </c>
       <c r="E48" s="3">
-        <v>402700</v>
+        <v>383800</v>
       </c>
       <c r="F48" s="3">
-        <v>409600</v>
+        <v>390400</v>
       </c>
       <c r="G48" s="3">
-        <v>418000</v>
+        <v>398400</v>
       </c>
       <c r="H48" s="3">
-        <v>423400</v>
+        <v>403600</v>
       </c>
       <c r="I48" s="3">
-        <v>73700</v>
+        <v>70200</v>
       </c>
       <c r="J48" s="3">
-        <v>76300</v>
+        <v>72800</v>
       </c>
       <c r="K48" s="3">
         <v>79800</v>
@@ -3774,25 +3774,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>72400</v>
+        <v>69000</v>
       </c>
       <c r="E52" s="3">
-        <v>72700</v>
+        <v>69300</v>
       </c>
       <c r="F52" s="3">
-        <v>72700</v>
+        <v>69300</v>
       </c>
       <c r="G52" s="3">
-        <v>57700</v>
+        <v>55000</v>
       </c>
       <c r="H52" s="3">
-        <v>61800</v>
+        <v>58900</v>
       </c>
       <c r="I52" s="3">
-        <v>64000</v>
+        <v>61100</v>
       </c>
       <c r="J52" s="3">
-        <v>54400</v>
+        <v>51900</v>
       </c>
       <c r="K52" s="3">
         <v>50700</v>
@@ -3928,25 +3928,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1608500</v>
+        <v>1533300</v>
       </c>
       <c r="E54" s="3">
-        <v>1610400</v>
+        <v>1535100</v>
       </c>
       <c r="F54" s="3">
-        <v>1590200</v>
+        <v>1515900</v>
       </c>
       <c r="G54" s="3">
-        <v>1475300</v>
+        <v>1406300</v>
       </c>
       <c r="H54" s="3">
-        <v>1430700</v>
+        <v>1363800</v>
       </c>
       <c r="I54" s="3">
-        <v>1401400</v>
+        <v>1335900</v>
       </c>
       <c r="J54" s="3">
-        <v>1372600</v>
+        <v>1308400</v>
       </c>
       <c r="K54" s="3">
         <v>1376900</v>
@@ -4217,25 +4217,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>251400</v>
+        <v>239600</v>
       </c>
       <c r="E59" s="3">
-        <v>313500</v>
+        <v>298800</v>
       </c>
       <c r="F59" s="3">
-        <v>333400</v>
+        <v>317800</v>
       </c>
       <c r="G59" s="3">
-        <v>247900</v>
+        <v>236300</v>
       </c>
       <c r="H59" s="3">
-        <v>246400</v>
+        <v>234900</v>
       </c>
       <c r="I59" s="3">
-        <v>314600</v>
+        <v>299900</v>
       </c>
       <c r="J59" s="3">
-        <v>274700</v>
+        <v>261800</v>
       </c>
       <c r="K59" s="3">
         <v>160700</v>
@@ -4294,25 +4294,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>251400</v>
+        <v>239600</v>
       </c>
       <c r="E60" s="3">
-        <v>313500</v>
+        <v>298800</v>
       </c>
       <c r="F60" s="3">
-        <v>333400</v>
+        <v>317800</v>
       </c>
       <c r="G60" s="3">
-        <v>247900</v>
+        <v>236300</v>
       </c>
       <c r="H60" s="3">
-        <v>246400</v>
+        <v>234900</v>
       </c>
       <c r="I60" s="3">
-        <v>314600</v>
+        <v>299900</v>
       </c>
       <c r="J60" s="3">
-        <v>274700</v>
+        <v>261800</v>
       </c>
       <c r="K60" s="3">
         <v>160700</v>
@@ -4448,25 +4448,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>60700</v>
+        <v>57800</v>
       </c>
       <c r="E62" s="3">
-        <v>63900</v>
+        <v>60900</v>
       </c>
       <c r="F62" s="3">
-        <v>67900</v>
+        <v>64700</v>
       </c>
       <c r="G62" s="3">
-        <v>74300</v>
+        <v>70900</v>
       </c>
       <c r="H62" s="3">
-        <v>75800</v>
+        <v>72300</v>
       </c>
       <c r="I62" s="3">
-        <v>33200</v>
+        <v>31600</v>
       </c>
       <c r="J62" s="3">
-        <v>35200</v>
+        <v>33600</v>
       </c>
       <c r="K62" s="3">
         <v>50700</v>
@@ -4756,25 +4756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>312000</v>
+        <v>297500</v>
       </c>
       <c r="E66" s="3">
-        <v>377400</v>
+        <v>359700</v>
       </c>
       <c r="F66" s="3">
-        <v>416000</v>
+        <v>396600</v>
       </c>
       <c r="G66" s="3">
-        <v>322200</v>
+        <v>307100</v>
       </c>
       <c r="H66" s="3">
-        <v>322300</v>
+        <v>307200</v>
       </c>
       <c r="I66" s="3">
-        <v>347800</v>
+        <v>331500</v>
       </c>
       <c r="J66" s="3">
-        <v>323300</v>
+        <v>308200</v>
       </c>
       <c r="K66" s="3">
         <v>211400</v>
@@ -5176,7 +5176,7 @@
         <v>5</v>
       </c>
       <c r="F72" s="3">
-        <v>757500</v>
+        <v>722100</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>5</v>
@@ -5188,7 +5188,7 @@
         <v>5</v>
       </c>
       <c r="J72" s="3">
-        <v>582600</v>
+        <v>555400</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>5</v>
@@ -5478,25 +5478,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1296500</v>
+        <v>1235800</v>
       </c>
       <c r="E76" s="3">
-        <v>1233100</v>
+        <v>1175400</v>
       </c>
       <c r="F76" s="3">
-        <v>1174200</v>
+        <v>1119300</v>
       </c>
       <c r="G76" s="3">
-        <v>1153100</v>
+        <v>1099200</v>
       </c>
       <c r="H76" s="3">
-        <v>1108400</v>
+        <v>1056600</v>
       </c>
       <c r="I76" s="3">
-        <v>1053600</v>
+        <v>1004300</v>
       </c>
       <c r="J76" s="3">
-        <v>1049300</v>
+        <v>1000200</v>
       </c>
       <c r="K76" s="3">
         <v>1165600</v>
@@ -5714,25 +5714,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>51000</v>
+        <v>48600</v>
       </c>
       <c r="E81" s="3">
-        <v>44600</v>
+        <v>42500</v>
       </c>
       <c r="F81" s="3">
-        <v>41100</v>
+        <v>39200</v>
       </c>
       <c r="G81" s="3">
-        <v>39900</v>
+        <v>38000</v>
       </c>
       <c r="H81" s="3">
-        <v>44600</v>
+        <v>42500</v>
       </c>
       <c r="I81" s="3">
-        <v>66300</v>
+        <v>63200</v>
       </c>
       <c r="J81" s="3">
-        <v>-229800</v>
+        <v>-219000</v>
       </c>
       <c r="K81" s="3">
         <v>42100</v>
@@ -6282,25 +6282,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-30900</v>
+        <v>-29400</v>
       </c>
       <c r="E89" s="3">
-        <v>73200</v>
+        <v>69800</v>
       </c>
       <c r="F89" s="3">
-        <v>96400</v>
+        <v>91900</v>
       </c>
       <c r="G89" s="3">
-        <v>52700</v>
+        <v>50300</v>
       </c>
       <c r="H89" s="3">
         <v>700</v>
       </c>
       <c r="I89" s="3">
-        <v>72400</v>
+        <v>69000</v>
       </c>
       <c r="J89" s="3">
-        <v>44200</v>
+        <v>42200</v>
       </c>
       <c r="K89" s="3">
         <v>53200</v>
@@ -6622,22 +6622,22 @@
         <v>1100</v>
       </c>
       <c r="E94" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F94" s="3">
-        <v>-449300</v>
+        <v>-428300</v>
       </c>
       <c r="G94" s="3">
-        <v>34200</v>
+        <v>32600</v>
       </c>
       <c r="H94" s="3">
-        <v>29400</v>
+        <v>28000</v>
       </c>
       <c r="I94" s="3">
-        <v>10100</v>
+        <v>9600</v>
       </c>
       <c r="J94" s="3">
-        <v>-11300</v>
+        <v>-10800</v>
       </c>
       <c r="K94" s="3">
         <v>24400</v>
@@ -7033,25 +7033,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="E100" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F100" s="3">
-        <v>-155700</v>
+        <v>-148400</v>
       </c>
       <c r="G100" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H100" s="3">
         <v>1400</v>
       </c>
       <c r="I100" s="3">
-        <v>77900</v>
+        <v>74300</v>
       </c>
       <c r="J100" s="3">
-        <v>-71800</v>
+        <v>-68500</v>
       </c>
       <c r="K100" s="3">
         <v>3400</v>

--- a/AAII_Financials/Quarterly/NOAH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOAH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
   <si>
     <t>NOAH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,199 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>102700</v>
+        <v>98300</v>
       </c>
       <c r="E8" s="3">
-        <v>110800</v>
+        <v>106000</v>
       </c>
       <c r="F8" s="3">
-        <v>175400</v>
+        <v>114300</v>
       </c>
       <c r="G8" s="3">
-        <v>126500</v>
+        <v>181000</v>
       </c>
       <c r="H8" s="3">
-        <v>125200</v>
+        <v>130500</v>
       </c>
       <c r="I8" s="3">
-        <v>170500</v>
+        <v>129200</v>
       </c>
       <c r="J8" s="3">
+        <v>175900</v>
+      </c>
+      <c r="K8" s="3">
         <v>132700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>126600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>110100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>117700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>121400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>131400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>133200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>135400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>125100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>117400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>114400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>119200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>122100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>102900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>104300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>105200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>78600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,35 +1203,38 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="I14" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>254600</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1230,8 +1250,8 @@
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>57800</v>
+        <v>65000</v>
       </c>
       <c r="E17" s="3">
-        <v>67100</v>
+        <v>59600</v>
       </c>
       <c r="F17" s="3">
-        <v>156900</v>
+        <v>69200</v>
       </c>
       <c r="G17" s="3">
-        <v>94900</v>
+        <v>161900</v>
       </c>
       <c r="H17" s="3">
-        <v>81200</v>
+        <v>97900</v>
       </c>
       <c r="I17" s="3">
-        <v>100600</v>
+        <v>83800</v>
       </c>
       <c r="J17" s="3">
+        <v>103700</v>
+      </c>
+      <c r="K17" s="3">
         <v>340600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>75400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>63100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>77300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>101900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>94800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>94700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>89300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>100800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>79500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>82700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>79800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>97700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>78800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>71300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>67300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>71300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>66900</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>45000</v>
+        <v>33300</v>
       </c>
       <c r="E18" s="3">
-        <v>43700</v>
+        <v>46400</v>
       </c>
       <c r="F18" s="3">
-        <v>18500</v>
+        <v>45100</v>
       </c>
       <c r="G18" s="3">
+        <v>19100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>32700</v>
+      </c>
+      <c r="I18" s="3">
+        <v>45400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>72100</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-207900</v>
+      </c>
+      <c r="L18" s="3">
+        <v>51200</v>
+      </c>
+      <c r="M18" s="3">
+        <v>47100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>40400</v>
+      </c>
+      <c r="O18" s="3">
+        <v>19400</v>
+      </c>
+      <c r="P18" s="3">
+        <v>36600</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>38500</v>
+      </c>
+      <c r="R18" s="3">
+        <v>46000</v>
+      </c>
+      <c r="S18" s="3">
+        <v>24300</v>
+      </c>
+      <c r="T18" s="3">
+        <v>37900</v>
+      </c>
+      <c r="U18" s="3">
         <v>31700</v>
       </c>
-      <c r="H18" s="3">
-        <v>44000</v>
-      </c>
-      <c r="I18" s="3">
-        <v>69900</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-207900</v>
-      </c>
-      <c r="K18" s="3">
-        <v>51200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>47100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>40400</v>
-      </c>
-      <c r="N18" s="3">
-        <v>19400</v>
-      </c>
-      <c r="O18" s="3">
-        <v>36600</v>
-      </c>
-      <c r="P18" s="3">
-        <v>38500</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>46000</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="V18" s="3">
+        <v>39400</v>
+      </c>
+      <c r="W18" s="3">
+        <v>24400</v>
+      </c>
+      <c r="X18" s="3">
+        <v>24100</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>33000</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>37900</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>7300</v>
+      </c>
+      <c r="AB18" s="3">
         <v>24300</v>
       </c>
-      <c r="S18" s="3">
-        <v>37900</v>
-      </c>
-      <c r="T18" s="3">
-        <v>31700</v>
-      </c>
-      <c r="U18" s="3">
-        <v>39400</v>
-      </c>
-      <c r="V18" s="3">
-        <v>24400</v>
-      </c>
-      <c r="W18" s="3">
-        <v>24100</v>
-      </c>
-      <c r="X18" s="3">
-        <v>33000</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>37900</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>7300</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>24300</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,85 +1582,89 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4800</v>
+        <v>2800</v>
       </c>
       <c r="E20" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="F20" s="3">
-        <v>2200</v>
+        <v>5400</v>
       </c>
       <c r="G20" s="3">
-        <v>5500</v>
+        <v>2300</v>
       </c>
       <c r="H20" s="3">
+        <v>5700</v>
+      </c>
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
-        <v>7900</v>
-      </c>
       <c r="J20" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-12800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>6300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>7100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>9500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>7800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>3600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1703,8 +1740,11 @@
       <c r="AA21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1729,11 +1769,11 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1748,25 +1788,25 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3">
         <v>500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1600</v>
-      </c>
-      <c r="W22" s="3">
-        <v>700</v>
       </c>
       <c r="X22" s="3">
         <v>700</v>
@@ -1775,167 +1815,176 @@
         <v>700</v>
       </c>
       <c r="Z22" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA22" s="3">
         <v>600</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>49800</v>
+        <v>36100</v>
       </c>
       <c r="E23" s="3">
-        <v>48900</v>
+        <v>51400</v>
       </c>
       <c r="F23" s="3">
-        <v>20700</v>
+        <v>50500</v>
       </c>
       <c r="G23" s="3">
-        <v>37100</v>
+        <v>21400</v>
       </c>
       <c r="H23" s="3">
-        <v>45000</v>
+        <v>38300</v>
       </c>
       <c r="I23" s="3">
-        <v>77800</v>
+        <v>46400</v>
       </c>
       <c r="J23" s="3">
+        <v>80300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-220700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>53700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>50000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>46800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>20200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>30400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>44800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>53100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>27100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>37500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>33300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>47900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>30600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>27000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>35800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>40100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>9600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>26500</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>10900</v>
+        <v>7300</v>
       </c>
       <c r="E24" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F24" s="3">
+        <v>11100</v>
+      </c>
+      <c r="G24" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H24" s="3">
+        <v>8600</v>
+      </c>
+      <c r="I24" s="3">
+        <v>9900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>18600</v>
+      </c>
+      <c r="K24" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L24" s="3">
+        <v>12500</v>
+      </c>
+      <c r="M24" s="3">
+        <v>11500</v>
+      </c>
+      <c r="N24" s="3">
         <v>10800</v>
       </c>
-      <c r="F24" s="3">
-        <v>4900</v>
-      </c>
-      <c r="G24" s="3">
-        <v>8400</v>
-      </c>
-      <c r="H24" s="3">
-        <v>9600</v>
-      </c>
-      <c r="I24" s="3">
-        <v>18100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>3800</v>
-      </c>
-      <c r="K24" s="3">
-        <v>12500</v>
-      </c>
-      <c r="L24" s="3">
-        <v>11500</v>
-      </c>
-      <c r="M24" s="3">
-        <v>10800</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>12100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>8300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>10600</v>
-      </c>
-      <c r="V24" s="3">
-        <v>6300</v>
       </c>
       <c r="W24" s="3">
         <v>6300</v>
       </c>
       <c r="X24" s="3">
+        <v>6300</v>
+      </c>
+      <c r="Y24" s="3">
         <v>8900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>9100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>2100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>38900</v>
+        <v>28800</v>
       </c>
       <c r="E26" s="3">
-        <v>38200</v>
+        <v>40200</v>
       </c>
       <c r="F26" s="3">
-        <v>15800</v>
+        <v>39400</v>
       </c>
       <c r="G26" s="3">
+        <v>16300</v>
+      </c>
+      <c r="H26" s="3">
+        <v>29700</v>
+      </c>
+      <c r="I26" s="3">
+        <v>36600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>61700</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-224500</v>
+      </c>
+      <c r="L26" s="3">
+        <v>41100</v>
+      </c>
+      <c r="M26" s="3">
+        <v>38500</v>
+      </c>
+      <c r="N26" s="3">
+        <v>36100</v>
+      </c>
+      <c r="O26" s="3">
+        <v>15900</v>
+      </c>
+      <c r="P26" s="3">
+        <v>23400</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>34500</v>
+      </c>
+      <c r="R26" s="3">
+        <v>41000</v>
+      </c>
+      <c r="S26" s="3">
+        <v>22600</v>
+      </c>
+      <c r="T26" s="3">
         <v>28800</v>
       </c>
-      <c r="H26" s="3">
-        <v>35400</v>
-      </c>
-      <c r="I26" s="3">
-        <v>59800</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-224500</v>
-      </c>
-      <c r="K26" s="3">
-        <v>41100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>38500</v>
-      </c>
-      <c r="M26" s="3">
-        <v>36100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>15900</v>
-      </c>
-      <c r="O26" s="3">
-        <v>23400</v>
-      </c>
-      <c r="P26" s="3">
-        <v>34500</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>41000</v>
-      </c>
-      <c r="R26" s="3">
-        <v>22600</v>
-      </c>
-      <c r="S26" s="3">
-        <v>28800</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>25000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>37300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>24300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>20700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>26900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>31000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>7500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>48600</v>
+        <v>26200</v>
       </c>
       <c r="E27" s="3">
-        <v>42500</v>
+        <v>50100</v>
       </c>
       <c r="F27" s="3">
+        <v>43800</v>
+      </c>
+      <c r="G27" s="3">
+        <v>40400</v>
+      </c>
+      <c r="H27" s="3">
         <v>39200</v>
       </c>
-      <c r="G27" s="3">
-        <v>38000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>42500</v>
-      </c>
       <c r="I27" s="3">
-        <v>63200</v>
+        <v>43900</v>
       </c>
       <c r="J27" s="3">
+        <v>65200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-219000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>42100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>44200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>38300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>15800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>29900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>38200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>43300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>23700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>29100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>25800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>38500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>26800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>27900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>30500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>32000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>11200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4800</v>
+        <v>-2800</v>
       </c>
       <c r="E32" s="3">
-        <v>-5300</v>
+        <v>-5000</v>
       </c>
       <c r="F32" s="3">
-        <v>-2200</v>
+        <v>-5400</v>
       </c>
       <c r="G32" s="3">
-        <v>-5500</v>
+        <v>-2300</v>
       </c>
       <c r="H32" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
-        <v>-7900</v>
-      </c>
       <c r="J32" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="K32" s="3">
         <v>12800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-7100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-9500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-7800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-3600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>48600</v>
+        <v>26200</v>
       </c>
       <c r="E33" s="3">
-        <v>42500</v>
+        <v>50100</v>
       </c>
       <c r="F33" s="3">
+        <v>43800</v>
+      </c>
+      <c r="G33" s="3">
+        <v>40400</v>
+      </c>
+      <c r="H33" s="3">
         <v>39200</v>
       </c>
-      <c r="G33" s="3">
-        <v>38000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>42500</v>
-      </c>
       <c r="I33" s="3">
-        <v>63200</v>
+        <v>43900</v>
       </c>
       <c r="J33" s="3">
+        <v>65200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-219000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>42100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>44200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>38300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>15800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>29900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>38200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>43300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>23700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>29100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>25800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>38500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>26800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>27900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>30500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>32000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>11200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>48600</v>
+        <v>26200</v>
       </c>
       <c r="E35" s="3">
-        <v>42500</v>
+        <v>50100</v>
       </c>
       <c r="F35" s="3">
+        <v>43800</v>
+      </c>
+      <c r="G35" s="3">
+        <v>40400</v>
+      </c>
+      <c r="H35" s="3">
         <v>39200</v>
       </c>
-      <c r="G35" s="3">
-        <v>38000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>42500</v>
-      </c>
       <c r="I35" s="3">
-        <v>63200</v>
+        <v>43900</v>
       </c>
       <c r="J35" s="3">
+        <v>65200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-219000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>42100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>44200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>38300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>15800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>29900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>38200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>43300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>23700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>29100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>25800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>38500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>26800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>27900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>30500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>32000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>11200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,239 +3007,249 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>502200</v>
+        <v>619400</v>
       </c>
       <c r="E41" s="3">
-        <v>542900</v>
+        <v>518200</v>
       </c>
       <c r="F41" s="3">
-        <v>473900</v>
+        <v>560100</v>
       </c>
       <c r="G41" s="3">
-        <v>393900</v>
+        <v>489000</v>
       </c>
       <c r="H41" s="3">
-        <v>373900</v>
+        <v>406400</v>
       </c>
       <c r="I41" s="3">
-        <v>682700</v>
+        <v>385800</v>
       </c>
       <c r="J41" s="3">
+        <v>704400</v>
+      </c>
+      <c r="K41" s="3">
         <v>696700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>677500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>614600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>638300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>675600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>572400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>439000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>436500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>411300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>330300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>300600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>308700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>293100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>298800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>295500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>379100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>429600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>263500</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>12000</v>
+        <v>14200</v>
       </c>
       <c r="E42" s="3">
+        <v>12300</v>
+      </c>
+      <c r="F42" s="3">
+        <v>9200</v>
+      </c>
+      <c r="G42" s="3">
+        <v>13300</v>
+      </c>
+      <c r="H42" s="3">
+        <v>15600</v>
+      </c>
+      <c r="I42" s="3">
+        <v>13800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K42" s="3">
+        <v>16000</v>
+      </c>
+      <c r="L42" s="3">
+        <v>8200</v>
+      </c>
+      <c r="M42" s="3">
         <v>9000</v>
       </c>
-      <c r="F42" s="3">
-        <v>12900</v>
-      </c>
-      <c r="G42" s="3">
-        <v>15100</v>
-      </c>
-      <c r="H42" s="3">
-        <v>13400</v>
-      </c>
-      <c r="I42" s="3">
-        <v>19900</v>
-      </c>
-      <c r="J42" s="3">
-        <v>16000</v>
-      </c>
-      <c r="K42" s="3">
-        <v>8200</v>
-      </c>
-      <c r="L42" s="3">
-        <v>9000</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>15400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>103400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>86900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>114200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>76300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>68500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>29800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>32100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>35400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>24600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>63800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>84000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>59600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>43100</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>234600</v>
+        <v>203700</v>
       </c>
       <c r="E43" s="3">
-        <v>209800</v>
+        <v>242100</v>
       </c>
       <c r="F43" s="3">
-        <v>258200</v>
+        <v>216500</v>
       </c>
       <c r="G43" s="3">
-        <v>241200</v>
+        <v>266400</v>
       </c>
       <c r="H43" s="3">
-        <v>226800</v>
+        <v>248900</v>
       </c>
       <c r="I43" s="3">
-        <v>218200</v>
+        <v>234000</v>
       </c>
       <c r="J43" s="3">
+        <v>225100</v>
+      </c>
+      <c r="K43" s="3">
         <v>191200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>226000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>253500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>264400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>219000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>242800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>258800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>230700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>227200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>223100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>211900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>255600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>263300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>253800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>259000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>217400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>196000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>127400</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,316 +3325,331 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>29700</v>
+        <v>28000</v>
       </c>
       <c r="E45" s="3">
-        <v>23800</v>
+        <v>30600</v>
       </c>
       <c r="F45" s="3">
-        <v>22900</v>
+        <v>24600</v>
       </c>
       <c r="G45" s="3">
-        <v>29700</v>
+        <v>23600</v>
       </c>
       <c r="H45" s="3">
-        <v>34800</v>
+        <v>30600</v>
       </c>
       <c r="I45" s="3">
-        <v>29800</v>
+        <v>35900</v>
       </c>
       <c r="J45" s="3">
+        <v>30700</v>
+      </c>
+      <c r="K45" s="3">
         <v>29200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>28800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>30100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>32100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>38500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>46900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>48500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>72800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>69300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>63800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>69400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>35500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>39300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>35900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>11600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>44600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>12900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>100500</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>778500</v>
+        <v>865300</v>
       </c>
       <c r="E46" s="3">
-        <v>785500</v>
+        <v>803300</v>
       </c>
       <c r="F46" s="3">
-        <v>767900</v>
+        <v>810400</v>
       </c>
       <c r="G46" s="3">
-        <v>679800</v>
+        <v>792300</v>
       </c>
       <c r="H46" s="3">
-        <v>648900</v>
+        <v>701400</v>
       </c>
       <c r="I46" s="3">
-        <v>950600</v>
+        <v>669600</v>
       </c>
       <c r="J46" s="3">
+        <v>980800</v>
+      </c>
+      <c r="K46" s="3">
         <v>933100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>940400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>907200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>950200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1036500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>949100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>860500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>816400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>776400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>647000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>614000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>635200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>620300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>652300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>650100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>700600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>681600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>565500</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>309400</v>
+        <v>321700</v>
       </c>
       <c r="E47" s="3">
-        <v>296400</v>
+        <v>319200</v>
       </c>
       <c r="F47" s="3">
-        <v>288200</v>
+        <v>305800</v>
       </c>
       <c r="G47" s="3">
-        <v>273100</v>
+        <v>297400</v>
       </c>
       <c r="H47" s="3">
-        <v>252400</v>
+        <v>281800</v>
       </c>
       <c r="I47" s="3">
-        <v>254100</v>
+        <v>260400</v>
       </c>
       <c r="J47" s="3">
+        <v>262100</v>
+      </c>
+      <c r="K47" s="3">
         <v>250700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>306000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>313500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>341300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>331600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>346200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>390000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>373900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>365100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>309300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>284500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>278400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>300800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>200100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>188400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>146500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>127600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>117100</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>376400</v>
+        <v>386000</v>
       </c>
       <c r="E48" s="3">
-        <v>383800</v>
+        <v>388400</v>
       </c>
       <c r="F48" s="3">
-        <v>390400</v>
+        <v>396000</v>
       </c>
       <c r="G48" s="3">
-        <v>398400</v>
+        <v>402800</v>
       </c>
       <c r="H48" s="3">
-        <v>403600</v>
+        <v>411100</v>
       </c>
       <c r="I48" s="3">
-        <v>70200</v>
+        <v>416400</v>
       </c>
       <c r="J48" s="3">
+        <v>72400</v>
+      </c>
+      <c r="K48" s="3">
         <v>72800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>79800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>89400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>96100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>99900</v>
-      </c>
-      <c r="O48" s="3">
-        <v>105400</v>
       </c>
       <c r="P48" s="3">
         <v>105400</v>
       </c>
       <c r="Q48" s="3">
+        <v>105400</v>
+      </c>
+      <c r="R48" s="3">
         <v>94700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>52700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>41400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>42400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>43000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>46600</v>
-      </c>
-      <c r="W48" s="3">
-        <v>37300</v>
       </c>
       <c r="X48" s="3">
         <v>37300</v>
       </c>
       <c r="Y48" s="3">
+        <v>37300</v>
+      </c>
+      <c r="Z48" s="3">
         <v>35900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>35100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>69000</v>
+        <v>70900</v>
       </c>
       <c r="E52" s="3">
-        <v>69300</v>
+        <v>71200</v>
       </c>
       <c r="F52" s="3">
-        <v>69300</v>
+        <v>71500</v>
       </c>
       <c r="G52" s="3">
-        <v>55000</v>
+        <v>71500</v>
       </c>
       <c r="H52" s="3">
-        <v>58900</v>
+        <v>56700</v>
       </c>
       <c r="I52" s="3">
-        <v>61100</v>
+        <v>60800</v>
       </c>
       <c r="J52" s="3">
+        <v>63000</v>
+      </c>
+      <c r="K52" s="3">
         <v>51900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>50700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>46200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>46300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>41500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>32200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>29400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>27500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>24800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>16800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>25000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>26800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>30500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>23500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>19800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>13300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>13600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1533300</v>
+        <v>1643900</v>
       </c>
       <c r="E54" s="3">
-        <v>1535100</v>
+        <v>1582000</v>
       </c>
       <c r="F54" s="3">
-        <v>1515900</v>
+        <v>1583900</v>
       </c>
       <c r="G54" s="3">
-        <v>1406300</v>
+        <v>1564000</v>
       </c>
       <c r="H54" s="3">
-        <v>1363800</v>
+        <v>1451000</v>
       </c>
       <c r="I54" s="3">
-        <v>1335900</v>
+        <v>1407100</v>
       </c>
       <c r="J54" s="3">
+        <v>1378300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1308400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1376900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1356300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1433800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1509400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1432900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1385200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1312500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1219100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1014600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>966000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>983300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>998200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>913200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>895500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>896300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>857900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>727500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4111,31 +4242,34 @@
         <v>0</v>
       </c>
       <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
         <v>5000</v>
       </c>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
       <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
         <v>600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>45700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>48500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>84300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>82000</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4187,186 +4321,195 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V58" s="3">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="W58" s="3">
         <v>75000</v>
       </c>
       <c r="X58" s="3">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="Y58" s="3">
         <v>80000</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>5</v>
+      <c r="Z58" s="3">
+        <v>80000</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>239600</v>
+        <v>235000</v>
       </c>
       <c r="E59" s="3">
-        <v>298800</v>
+        <v>247200</v>
       </c>
       <c r="F59" s="3">
-        <v>317800</v>
+        <v>308300</v>
       </c>
       <c r="G59" s="3">
-        <v>236300</v>
+        <v>327900</v>
       </c>
       <c r="H59" s="3">
-        <v>234900</v>
+        <v>243800</v>
       </c>
       <c r="I59" s="3">
-        <v>299900</v>
+        <v>242400</v>
       </c>
       <c r="J59" s="3">
+        <v>309400</v>
+      </c>
+      <c r="K59" s="3">
         <v>261800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>160700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>155300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>198300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>231700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>164600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>197600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>232600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>242000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>171700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>147500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>200200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>204600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>171400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>138600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>198000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>144900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>162200</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>239600</v>
+        <v>235000</v>
       </c>
       <c r="E60" s="3">
-        <v>298800</v>
+        <v>247200</v>
       </c>
       <c r="F60" s="3">
-        <v>317800</v>
+        <v>308300</v>
       </c>
       <c r="G60" s="3">
-        <v>236300</v>
+        <v>327900</v>
       </c>
       <c r="H60" s="3">
-        <v>234900</v>
+        <v>243800</v>
       </c>
       <c r="I60" s="3">
-        <v>299900</v>
+        <v>242400</v>
       </c>
       <c r="J60" s="3">
+        <v>309400</v>
+      </c>
+      <c r="K60" s="3">
         <v>261800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>160700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>155300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>198300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>231700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>164600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>197600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>232600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>242000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>171700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>152500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>200300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>280200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>292100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>267100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>362300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>226900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>162200</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4413,20 +4556,20 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>22100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>31900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>47500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>67500</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4437,90 +4580,96 @@
         <v>0</v>
       </c>
       <c r="Z61" s="3">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="AA61" s="3">
         <v>80000</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>57800</v>
+        <v>58700</v>
       </c>
       <c r="E62" s="3">
-        <v>60900</v>
+        <v>59700</v>
       </c>
       <c r="F62" s="3">
-        <v>64700</v>
+        <v>62800</v>
       </c>
       <c r="G62" s="3">
-        <v>70900</v>
+        <v>66800</v>
       </c>
       <c r="H62" s="3">
-        <v>72300</v>
+        <v>73100</v>
       </c>
       <c r="I62" s="3">
-        <v>31600</v>
+        <v>74600</v>
       </c>
       <c r="J62" s="3">
+        <v>32600</v>
+      </c>
+      <c r="K62" s="3">
         <v>33600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>50700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>59900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>63700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>65100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>69900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>71700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>62000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>15600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>17800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>23300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>23600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>25200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>11500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>15500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>11700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>14900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>16500</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>297500</v>
+        <v>293700</v>
       </c>
       <c r="E66" s="3">
-        <v>359700</v>
+        <v>306900</v>
       </c>
       <c r="F66" s="3">
-        <v>396600</v>
+        <v>371100</v>
       </c>
       <c r="G66" s="3">
-        <v>307100</v>
+        <v>409200</v>
       </c>
       <c r="H66" s="3">
-        <v>307200</v>
+        <v>316900</v>
       </c>
       <c r="I66" s="3">
-        <v>331500</v>
+        <v>317000</v>
       </c>
       <c r="J66" s="3">
+        <v>342100</v>
+      </c>
+      <c r="K66" s="3">
         <v>308200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>211400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>215200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>262000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>429500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>234500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>269300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>294600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>331100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>221400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>223400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>291400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>317500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>303600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>332300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>422600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>378000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>258700</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,8 +5335,11 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5175,11 +5349,11 @@
       <c r="E72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="3">
-        <v>722100</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
+        <v>745000</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
@@ -5187,62 +5361,65 @@
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>555400</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>729100</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>600300</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>443100</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="Z72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA72" s="3">
         <v>322900</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1235800</v>
+        <v>1350200</v>
       </c>
       <c r="E76" s="3">
-        <v>1175400</v>
+        <v>1275100</v>
       </c>
       <c r="F76" s="3">
-        <v>1119300</v>
+        <v>1212700</v>
       </c>
       <c r="G76" s="3">
-        <v>1099200</v>
+        <v>1154800</v>
       </c>
       <c r="H76" s="3">
-        <v>1056600</v>
+        <v>1134100</v>
       </c>
       <c r="I76" s="3">
-        <v>1004300</v>
+        <v>1090100</v>
       </c>
       <c r="J76" s="3">
+        <v>1036200</v>
+      </c>
+      <c r="K76" s="3">
         <v>1000200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1165600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1141100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1171800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1079900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1198400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1115900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1018000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>888000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>793200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>742600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>691900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>680800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>609700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>563200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>473700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>479900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>468800</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>48600</v>
+        <v>26200</v>
       </c>
       <c r="E81" s="3">
-        <v>42500</v>
+        <v>50100</v>
       </c>
       <c r="F81" s="3">
+        <v>43800</v>
+      </c>
+      <c r="G81" s="3">
+        <v>40400</v>
+      </c>
+      <c r="H81" s="3">
         <v>39200</v>
       </c>
-      <c r="G81" s="3">
-        <v>38000</v>
-      </c>
-      <c r="H81" s="3">
-        <v>42500</v>
-      </c>
       <c r="I81" s="3">
-        <v>63200</v>
+        <v>43900</v>
       </c>
       <c r="J81" s="3">
+        <v>65200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-219000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>42100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>44200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>38300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>15800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>29900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>38200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>43300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>23700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>29100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>25800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>38500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>26800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>27900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>30500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>32000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>11200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,53 +6490,56 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-29400</v>
+        <v>14200</v>
       </c>
       <c r="E89" s="3">
-        <v>69800</v>
+        <v>-30400</v>
       </c>
       <c r="F89" s="3">
-        <v>91900</v>
+        <v>72000</v>
       </c>
       <c r="G89" s="3">
-        <v>50300</v>
+        <v>94800</v>
       </c>
       <c r="H89" s="3">
+        <v>51800</v>
+      </c>
+      <c r="I89" s="3">
         <v>700</v>
       </c>
-      <c r="I89" s="3">
-        <v>69000</v>
-      </c>
       <c r="J89" s="3">
+        <v>71200</v>
+      </c>
+      <c r="K89" s="3">
         <v>42200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>53200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>19400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>129700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>34400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>11100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,53 +6840,56 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>900</v>
+      </c>
+      <c r="E94" s="3">
         <v>1100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1300</v>
       </c>
-      <c r="F94" s="3">
-        <v>-428300</v>
-      </c>
       <c r="G94" s="3">
-        <v>32600</v>
+        <v>-441900</v>
       </c>
       <c r="H94" s="3">
-        <v>28000</v>
+        <v>33700</v>
       </c>
       <c r="I94" s="3">
-        <v>9600</v>
+        <v>28900</v>
       </c>
       <c r="J94" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-10800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>24400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>19300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>21000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-163200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>68600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>56600</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,53 +7270,56 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1600</v>
+        <v>34000</v>
       </c>
       <c r="E100" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F100" s="3">
         <v>1700</v>
       </c>
-      <c r="F100" s="3">
-        <v>-148400</v>
-      </c>
       <c r="G100" s="3">
-        <v>1300</v>
+        <v>-153100</v>
       </c>
       <c r="H100" s="3">
         <v>1400</v>
       </c>
       <c r="I100" s="3">
-        <v>74300</v>
+        <v>1400</v>
       </c>
       <c r="J100" s="3">
+        <v>76600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-68500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>15100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>21000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>6300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>42400</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOAH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOAH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
   <si>
     <t>NOAH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,199 +665,205 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>98300</v>
+        <v>125400</v>
       </c>
       <c r="E8" s="3">
-        <v>106000</v>
+        <v>97300</v>
       </c>
       <c r="F8" s="3">
-        <v>114300</v>
+        <v>104900</v>
       </c>
       <c r="G8" s="3">
-        <v>181000</v>
+        <v>113100</v>
       </c>
       <c r="H8" s="3">
-        <v>130500</v>
+        <v>179100</v>
       </c>
       <c r="I8" s="3">
         <v>129200</v>
       </c>
       <c r="J8" s="3">
+        <v>127800</v>
+      </c>
+      <c r="K8" s="3">
         <v>175900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>132700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>126600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>110100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>117700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>121400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>131400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>133200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>135400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>125100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>117400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>114400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>119200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>122100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>102900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>104300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>105200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>78600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -936,8 +942,11 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1025,11 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,38 +1222,41 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>14100</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
-        <v>2800</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="J14" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>254600</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1253,8 +1272,8 @@
       <c r="Q14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1286,8 +1305,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>65000</v>
+        <v>108200</v>
       </c>
       <c r="E17" s="3">
-        <v>59600</v>
+        <v>64400</v>
       </c>
       <c r="F17" s="3">
-        <v>69200</v>
+        <v>59000</v>
       </c>
       <c r="G17" s="3">
-        <v>161900</v>
+        <v>68500</v>
       </c>
       <c r="H17" s="3">
-        <v>97900</v>
+        <v>160200</v>
       </c>
       <c r="I17" s="3">
-        <v>83800</v>
+        <v>96900</v>
       </c>
       <c r="J17" s="3">
+        <v>82900</v>
+      </c>
+      <c r="K17" s="3">
         <v>103700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>340600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>75400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>63100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>77300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>101900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>94800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>94700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>89300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>100800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>79500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>82700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>79800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>97700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>78800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>71300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>67300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>71300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>66900</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>33300</v>
+        <v>17200</v>
       </c>
       <c r="E18" s="3">
-        <v>46400</v>
+        <v>33000</v>
       </c>
       <c r="F18" s="3">
-        <v>45100</v>
+        <v>45900</v>
       </c>
       <c r="G18" s="3">
-        <v>19100</v>
+        <v>44600</v>
       </c>
       <c r="H18" s="3">
-        <v>32700</v>
+        <v>18900</v>
       </c>
       <c r="I18" s="3">
-        <v>45400</v>
+        <v>32300</v>
       </c>
       <c r="J18" s="3">
+        <v>44900</v>
+      </c>
+      <c r="K18" s="3">
         <v>72100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-207900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>51200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>47100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>40400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>19400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>36600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>38500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>46000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>24300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>37900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>31700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>39400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>24400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>24100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>33000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>37900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>7300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>24300</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,88 +1615,92 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E20" s="3">
         <v>2800</v>
       </c>
-      <c r="E20" s="3">
-        <v>5000</v>
-      </c>
       <c r="F20" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G20" s="3">
         <v>5400</v>
       </c>
-      <c r="G20" s="3">
-        <v>2300</v>
-      </c>
       <c r="H20" s="3">
-        <v>5700</v>
+        <v>2200</v>
       </c>
       <c r="I20" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>8200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-12800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>6300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>7100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>9500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>7800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>3500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1743,8 +1779,11 @@
       <c r="AB21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1772,11 +1811,11 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1791,25 +1830,25 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="3">
         <v>500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1600</v>
-      </c>
-      <c r="X22" s="3">
-        <v>700</v>
       </c>
       <c r="Y22" s="3">
         <v>700</v>
@@ -1818,173 +1857,182 @@
         <v>700</v>
       </c>
       <c r="AA22" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB22" s="3">
         <v>600</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>36100</v>
+        <v>26800</v>
       </c>
       <c r="E23" s="3">
-        <v>51400</v>
+        <v>35700</v>
       </c>
       <c r="F23" s="3">
-        <v>50500</v>
+        <v>50900</v>
       </c>
       <c r="G23" s="3">
-        <v>21400</v>
+        <v>50000</v>
       </c>
       <c r="H23" s="3">
-        <v>38300</v>
+        <v>21100</v>
       </c>
       <c r="I23" s="3">
-        <v>46400</v>
+        <v>37900</v>
       </c>
       <c r="J23" s="3">
+        <v>45900</v>
+      </c>
+      <c r="K23" s="3">
         <v>80300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-220700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>53700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>50000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>46800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>20200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>30400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>44800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>53100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>27100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>37500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>33300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>47900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>30600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>27000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>35800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>40100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>9600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>26500</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E24" s="3">
         <v>7300</v>
-      </c>
-      <c r="E24" s="3">
-        <v>11200</v>
       </c>
       <c r="F24" s="3">
         <v>11100</v>
       </c>
       <c r="G24" s="3">
-        <v>5100</v>
+        <v>11000</v>
       </c>
       <c r="H24" s="3">
-        <v>8600</v>
+        <v>5000</v>
       </c>
       <c r="I24" s="3">
-        <v>9900</v>
+        <v>8500</v>
       </c>
       <c r="J24" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K24" s="3">
         <v>18600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>12500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>10800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>10300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>12100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>8700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>8300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>10600</v>
-      </c>
-      <c r="W24" s="3">
-        <v>6300</v>
       </c>
       <c r="X24" s="3">
         <v>6300</v>
       </c>
       <c r="Y24" s="3">
+        <v>6300</v>
+      </c>
+      <c r="Z24" s="3">
         <v>8900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>9100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>2100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>28500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>39800</v>
+      </c>
+      <c r="G26" s="3">
+        <v>39000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>16100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>29400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>36200</v>
+      </c>
+      <c r="K26" s="3">
+        <v>61700</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-224500</v>
+      </c>
+      <c r="M26" s="3">
+        <v>41100</v>
+      </c>
+      <c r="N26" s="3">
+        <v>38500</v>
+      </c>
+      <c r="O26" s="3">
+        <v>36100</v>
+      </c>
+      <c r="P26" s="3">
+        <v>15900</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>23400</v>
+      </c>
+      <c r="R26" s="3">
+        <v>34500</v>
+      </c>
+      <c r="S26" s="3">
+        <v>41000</v>
+      </c>
+      <c r="T26" s="3">
+        <v>22600</v>
+      </c>
+      <c r="U26" s="3">
         <v>28800</v>
       </c>
-      <c r="E26" s="3">
-        <v>40200</v>
-      </c>
-      <c r="F26" s="3">
-        <v>39400</v>
-      </c>
-      <c r="G26" s="3">
-        <v>16300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>29700</v>
-      </c>
-      <c r="I26" s="3">
-        <v>36600</v>
-      </c>
-      <c r="J26" s="3">
-        <v>61700</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-224500</v>
-      </c>
-      <c r="L26" s="3">
-        <v>41100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>38500</v>
-      </c>
-      <c r="N26" s="3">
-        <v>36100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>15900</v>
-      </c>
-      <c r="P26" s="3">
-        <v>23400</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>34500</v>
-      </c>
-      <c r="R26" s="3">
-        <v>41000</v>
-      </c>
-      <c r="S26" s="3">
-        <v>22600</v>
-      </c>
-      <c r="T26" s="3">
-        <v>28800</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>25000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>37300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>24300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>20700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>26900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>31000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>7500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>26200</v>
+        <v>19900</v>
       </c>
       <c r="E27" s="3">
-        <v>50100</v>
+        <v>25900</v>
       </c>
       <c r="F27" s="3">
-        <v>43800</v>
+        <v>49600</v>
       </c>
       <c r="G27" s="3">
-        <v>40400</v>
+        <v>43400</v>
       </c>
       <c r="H27" s="3">
-        <v>39200</v>
+        <v>40000</v>
       </c>
       <c r="I27" s="3">
-        <v>43900</v>
+        <v>38800</v>
       </c>
       <c r="J27" s="3">
+        <v>43400</v>
+      </c>
+      <c r="K27" s="3">
         <v>65200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-219000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>42100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>44200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>38300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>15800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>29900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>38200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>43300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>23700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>29100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>25800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>38500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>26800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>27900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>30500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>32000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>11200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2800</v>
       </c>
-      <c r="E32" s="3">
-        <v>-5000</v>
-      </c>
       <c r="F32" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="G32" s="3">
         <v>-5400</v>
       </c>
-      <c r="G32" s="3">
-        <v>-2300</v>
-      </c>
       <c r="H32" s="3">
-        <v>-5700</v>
+        <v>-2200</v>
       </c>
       <c r="I32" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-8200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>12800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-6300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-7100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-9500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-7800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-2800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>26200</v>
+        <v>19900</v>
       </c>
       <c r="E33" s="3">
-        <v>50100</v>
+        <v>25900</v>
       </c>
       <c r="F33" s="3">
-        <v>43800</v>
+        <v>49600</v>
       </c>
       <c r="G33" s="3">
-        <v>40400</v>
+        <v>43400</v>
       </c>
       <c r="H33" s="3">
-        <v>39200</v>
+        <v>40000</v>
       </c>
       <c r="I33" s="3">
-        <v>43900</v>
+        <v>38800</v>
       </c>
       <c r="J33" s="3">
+        <v>43400</v>
+      </c>
+      <c r="K33" s="3">
         <v>65200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-219000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>42100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>44200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>38300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>15800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>29900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>38200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>43300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>23700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>29100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>25800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>38500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>26800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>27900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>30500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>32000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>11200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>26200</v>
+        <v>19900</v>
       </c>
       <c r="E35" s="3">
-        <v>50100</v>
+        <v>25900</v>
       </c>
       <c r="F35" s="3">
-        <v>43800</v>
+        <v>49600</v>
       </c>
       <c r="G35" s="3">
-        <v>40400</v>
+        <v>43400</v>
       </c>
       <c r="H35" s="3">
-        <v>39200</v>
+        <v>40000</v>
       </c>
       <c r="I35" s="3">
-        <v>43900</v>
+        <v>38800</v>
       </c>
       <c r="J35" s="3">
+        <v>43400</v>
+      </c>
+      <c r="K35" s="3">
         <v>65200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-219000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>42100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>44200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>38300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>15800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>29900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>38200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>43300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>23700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>29100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>25800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>38500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>26800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>27900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>30500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>32000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>11200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,248 +3093,258 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>619400</v>
+        <v>626000</v>
       </c>
       <c r="E41" s="3">
-        <v>518200</v>
+        <v>613100</v>
       </c>
       <c r="F41" s="3">
-        <v>560100</v>
+        <v>512900</v>
       </c>
       <c r="G41" s="3">
-        <v>489000</v>
+        <v>554400</v>
       </c>
       <c r="H41" s="3">
-        <v>406400</v>
+        <v>484000</v>
       </c>
       <c r="I41" s="3">
-        <v>385800</v>
+        <v>402200</v>
       </c>
       <c r="J41" s="3">
+        <v>381900</v>
+      </c>
+      <c r="K41" s="3">
         <v>704400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>696700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>677500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>614600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>638300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>675600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>572400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>439000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>436500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>411300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>330300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>300600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>308700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>293100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>298800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>295500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>379100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>429600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>263500</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>14200</v>
+        <v>44900</v>
       </c>
       <c r="E42" s="3">
-        <v>12300</v>
+        <v>14000</v>
       </c>
       <c r="F42" s="3">
-        <v>9200</v>
+        <v>12200</v>
       </c>
       <c r="G42" s="3">
-        <v>13300</v>
+        <v>9100</v>
       </c>
       <c r="H42" s="3">
-        <v>15600</v>
+        <v>13200</v>
       </c>
       <c r="I42" s="3">
-        <v>13800</v>
+        <v>15400</v>
       </c>
       <c r="J42" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K42" s="3">
         <v>20600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>16000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>8200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>9000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>15400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>103400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>86900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>114200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>76300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>68500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>29800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>32100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>35400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>24600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>63800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>84000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>59600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>43100</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>203700</v>
+        <v>200000</v>
       </c>
       <c r="E43" s="3">
-        <v>242100</v>
+        <v>201700</v>
       </c>
       <c r="F43" s="3">
-        <v>216500</v>
+        <v>239600</v>
       </c>
       <c r="G43" s="3">
-        <v>266400</v>
+        <v>214300</v>
       </c>
       <c r="H43" s="3">
-        <v>248900</v>
+        <v>263700</v>
       </c>
       <c r="I43" s="3">
-        <v>234000</v>
+        <v>246300</v>
       </c>
       <c r="J43" s="3">
+        <v>231600</v>
+      </c>
+      <c r="K43" s="3">
         <v>225100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>191200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>226000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>253500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>264400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>219000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>242800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>258800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>230700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>227200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>223100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>211900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>255600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>263300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>253800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>259000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>217400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>196000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>127400</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,328 +3423,343 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="E45" s="3">
-        <v>30600</v>
+        <v>27700</v>
       </c>
       <c r="F45" s="3">
-        <v>24600</v>
+        <v>30300</v>
       </c>
       <c r="G45" s="3">
-        <v>23600</v>
+        <v>24400</v>
       </c>
       <c r="H45" s="3">
-        <v>30600</v>
+        <v>23300</v>
       </c>
       <c r="I45" s="3">
+        <v>30300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>35500</v>
+      </c>
+      <c r="K45" s="3">
+        <v>30700</v>
+      </c>
+      <c r="L45" s="3">
+        <v>29200</v>
+      </c>
+      <c r="M45" s="3">
+        <v>28800</v>
+      </c>
+      <c r="N45" s="3">
+        <v>30100</v>
+      </c>
+      <c r="O45" s="3">
+        <v>32100</v>
+      </c>
+      <c r="P45" s="3">
+        <v>38500</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>46900</v>
+      </c>
+      <c r="R45" s="3">
+        <v>48500</v>
+      </c>
+      <c r="S45" s="3">
+        <v>72800</v>
+      </c>
+      <c r="T45" s="3">
+        <v>69300</v>
+      </c>
+      <c r="U45" s="3">
+        <v>63800</v>
+      </c>
+      <c r="V45" s="3">
+        <v>69400</v>
+      </c>
+      <c r="W45" s="3">
+        <v>35500</v>
+      </c>
+      <c r="X45" s="3">
+        <v>39300</v>
+      </c>
+      <c r="Y45" s="3">
         <v>35900</v>
       </c>
-      <c r="J45" s="3">
-        <v>30700</v>
-      </c>
-      <c r="K45" s="3">
-        <v>29200</v>
-      </c>
-      <c r="L45" s="3">
-        <v>28800</v>
-      </c>
-      <c r="M45" s="3">
-        <v>30100</v>
-      </c>
-      <c r="N45" s="3">
-        <v>32100</v>
-      </c>
-      <c r="O45" s="3">
-        <v>38500</v>
-      </c>
-      <c r="P45" s="3">
-        <v>46900</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>48500</v>
-      </c>
-      <c r="R45" s="3">
-        <v>72800</v>
-      </c>
-      <c r="S45" s="3">
-        <v>69300</v>
-      </c>
-      <c r="T45" s="3">
-        <v>63800</v>
-      </c>
-      <c r="U45" s="3">
-        <v>69400</v>
-      </c>
-      <c r="V45" s="3">
-        <v>35500</v>
-      </c>
-      <c r="W45" s="3">
-        <v>39300</v>
-      </c>
-      <c r="X45" s="3">
-        <v>35900</v>
-      </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>11600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>44600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>12900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>100500</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>865300</v>
+        <v>898000</v>
       </c>
       <c r="E46" s="3">
-        <v>803300</v>
+        <v>856500</v>
       </c>
       <c r="F46" s="3">
-        <v>810400</v>
+        <v>795000</v>
       </c>
       <c r="G46" s="3">
-        <v>792300</v>
+        <v>802100</v>
       </c>
       <c r="H46" s="3">
-        <v>701400</v>
+        <v>784200</v>
       </c>
       <c r="I46" s="3">
-        <v>669600</v>
+        <v>694200</v>
       </c>
       <c r="J46" s="3">
+        <v>662700</v>
+      </c>
+      <c r="K46" s="3">
         <v>980800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>933100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>940400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>907200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>950200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1036500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>949100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>860500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>816400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>776400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>647000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>614000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>635200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>620300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>652300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>650100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>700600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>681600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>565500</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>321700</v>
+        <v>322100</v>
       </c>
       <c r="E47" s="3">
-        <v>319200</v>
+        <v>318400</v>
       </c>
       <c r="F47" s="3">
-        <v>305800</v>
+        <v>315900</v>
       </c>
       <c r="G47" s="3">
-        <v>297400</v>
+        <v>302700</v>
       </c>
       <c r="H47" s="3">
-        <v>281800</v>
+        <v>294300</v>
       </c>
       <c r="I47" s="3">
-        <v>260400</v>
+        <v>278900</v>
       </c>
       <c r="J47" s="3">
+        <v>257700</v>
+      </c>
+      <c r="K47" s="3">
         <v>262100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>250700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>306000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>313500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>341300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>331600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>346200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>390000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>373900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>365100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>309300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>284500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>278400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>300800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>200100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>188400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>146500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>127600</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>117100</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>386000</v>
+        <v>377300</v>
       </c>
       <c r="E48" s="3">
-        <v>388400</v>
+        <v>382000</v>
       </c>
       <c r="F48" s="3">
-        <v>396000</v>
+        <v>384400</v>
       </c>
       <c r="G48" s="3">
-        <v>402800</v>
+        <v>392000</v>
       </c>
       <c r="H48" s="3">
-        <v>411100</v>
+        <v>398700</v>
       </c>
       <c r="I48" s="3">
-        <v>416400</v>
+        <v>406900</v>
       </c>
       <c r="J48" s="3">
+        <v>412100</v>
+      </c>
+      <c r="K48" s="3">
         <v>72400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>72800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>79800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>89400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>96100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>99900</v>
-      </c>
-      <c r="P48" s="3">
-        <v>105400</v>
       </c>
       <c r="Q48" s="3">
         <v>105400</v>
       </c>
       <c r="R48" s="3">
+        <v>105400</v>
+      </c>
+      <c r="S48" s="3">
         <v>94700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>52700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>41400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>42400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>43000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>46600</v>
-      </c>
-      <c r="X48" s="3">
-        <v>37300</v>
       </c>
       <c r="Y48" s="3">
         <v>37300</v>
       </c>
       <c r="Z48" s="3">
+        <v>37300</v>
+      </c>
+      <c r="AA48" s="3">
         <v>35900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>35100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3838,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4004,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>70900</v>
+        <v>79700</v>
       </c>
       <c r="E52" s="3">
-        <v>71200</v>
+        <v>70200</v>
       </c>
       <c r="F52" s="3">
-        <v>71500</v>
+        <v>70500</v>
       </c>
       <c r="G52" s="3">
-        <v>71500</v>
+        <v>70800</v>
       </c>
       <c r="H52" s="3">
-        <v>56700</v>
+        <v>70800</v>
       </c>
       <c r="I52" s="3">
-        <v>60800</v>
+        <v>56100</v>
       </c>
       <c r="J52" s="3">
+        <v>60100</v>
+      </c>
+      <c r="K52" s="3">
         <v>63000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>51900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>50700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>46200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>46300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>41500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>32200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>29400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>27500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>24800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>16800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>25000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>26800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>30500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>23500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>19800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>13300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>13600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1643900</v>
+        <v>1677100</v>
       </c>
       <c r="E54" s="3">
-        <v>1582000</v>
+        <v>1627100</v>
       </c>
       <c r="F54" s="3">
-        <v>1583900</v>
+        <v>1565800</v>
       </c>
       <c r="G54" s="3">
-        <v>1564000</v>
+        <v>1567600</v>
       </c>
       <c r="H54" s="3">
-        <v>1451000</v>
+        <v>1548000</v>
       </c>
       <c r="I54" s="3">
-        <v>1407100</v>
+        <v>1436100</v>
       </c>
       <c r="J54" s="3">
+        <v>1392700</v>
+      </c>
+      <c r="K54" s="3">
         <v>1378300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1308400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1376900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1356300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1433800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1509400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1432900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1385200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1312500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1219100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1014600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>966000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>983300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>998200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>913200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>895500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>896300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>857900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>727500</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4317,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4245,31 +4375,34 @@
         <v>0</v>
       </c>
       <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
         <v>5000</v>
       </c>
-      <c r="V57" s="3">
-        <v>0</v>
-      </c>
       <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
         <v>600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>45700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>48500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>84300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>82000</v>
       </c>
-      <c r="AB57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4324,192 +4457,201 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W58" s="3">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="X58" s="3">
         <v>75000</v>
       </c>
       <c r="Y58" s="3">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="Z58" s="3">
         <v>80000</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>5</v>
+      <c r="AA58" s="3">
+        <v>80000</v>
       </c>
       <c r="AB58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>235000</v>
+        <v>270800</v>
       </c>
       <c r="E59" s="3">
-        <v>247200</v>
+        <v>232600</v>
       </c>
       <c r="F59" s="3">
-        <v>308300</v>
+        <v>244700</v>
       </c>
       <c r="G59" s="3">
-        <v>327900</v>
+        <v>305100</v>
       </c>
       <c r="H59" s="3">
-        <v>243800</v>
+        <v>324500</v>
       </c>
       <c r="I59" s="3">
-        <v>242400</v>
+        <v>241300</v>
       </c>
       <c r="J59" s="3">
+        <v>239900</v>
+      </c>
+      <c r="K59" s="3">
         <v>309400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>261800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>160700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>155300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>198300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>231700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>164600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>197600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>232600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>242000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>171700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>147500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>200200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>204600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>171400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>138600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>198000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>144900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>162200</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>235000</v>
+        <v>270800</v>
       </c>
       <c r="E60" s="3">
-        <v>247200</v>
+        <v>232600</v>
       </c>
       <c r="F60" s="3">
-        <v>308300</v>
+        <v>244700</v>
       </c>
       <c r="G60" s="3">
-        <v>327900</v>
+        <v>305100</v>
       </c>
       <c r="H60" s="3">
-        <v>243800</v>
+        <v>324500</v>
       </c>
       <c r="I60" s="3">
-        <v>242400</v>
+        <v>241300</v>
       </c>
       <c r="J60" s="3">
+        <v>239900</v>
+      </c>
+      <c r="K60" s="3">
         <v>309400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>261800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>160700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>155300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>198300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>231700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>164600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>197600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>232600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>242000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>171700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>152500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>200300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>280200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>292100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>267100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>362300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>226900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>162200</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4559,20 +4701,20 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>22100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>31900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>47500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>67500</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4583,93 +4725,99 @@
         <v>0</v>
       </c>
       <c r="AA61" s="3">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="AB61" s="3">
         <v>80000</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>58700</v>
+        <v>55800</v>
       </c>
       <c r="E62" s="3">
-        <v>59700</v>
+        <v>58100</v>
       </c>
       <c r="F62" s="3">
-        <v>62800</v>
+        <v>59100</v>
       </c>
       <c r="G62" s="3">
-        <v>66800</v>
+        <v>62200</v>
       </c>
       <c r="H62" s="3">
-        <v>73100</v>
+        <v>66100</v>
       </c>
       <c r="I62" s="3">
-        <v>74600</v>
+        <v>72400</v>
       </c>
       <c r="J62" s="3">
+        <v>73800</v>
+      </c>
+      <c r="K62" s="3">
         <v>32600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>33600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>50700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>59900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>63700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>65100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>69900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>71700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>62000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>15600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>17800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>23300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>23600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>25200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>11500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>15500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>11700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>14900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>16500</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>293700</v>
+        <v>340100</v>
       </c>
       <c r="E66" s="3">
-        <v>306900</v>
+        <v>290700</v>
       </c>
       <c r="F66" s="3">
-        <v>371100</v>
+        <v>303800</v>
       </c>
       <c r="G66" s="3">
-        <v>409200</v>
+        <v>367300</v>
       </c>
       <c r="H66" s="3">
-        <v>316900</v>
+        <v>405000</v>
       </c>
       <c r="I66" s="3">
-        <v>317000</v>
+        <v>313600</v>
       </c>
       <c r="J66" s="3">
+        <v>313700</v>
+      </c>
+      <c r="K66" s="3">
         <v>342100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>308200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>211400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>215200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>262000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>429500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>234500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>269300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>294600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>331100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>221400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>223400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>291400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>317500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>303600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>332300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>422600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>378000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>258700</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,13 +5508,16 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
+      <c r="D72" s="3">
+        <v>796700</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>5</v>
@@ -5352,11 +5525,11 @@
       <c r="F72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G72" s="3">
-        <v>745000</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
+        <v>737400</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
@@ -5364,62 +5537,65 @@
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>555400</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>729100</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>600300</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X72" s="3">
         <v>443100</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Z72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AA72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB72" s="3">
         <v>322900</v>
       </c>
-      <c r="AB72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1350200</v>
+        <v>1337000</v>
       </c>
       <c r="E76" s="3">
-        <v>1275100</v>
+        <v>1336400</v>
       </c>
       <c r="F76" s="3">
-        <v>1212700</v>
+        <v>1262000</v>
       </c>
       <c r="G76" s="3">
-        <v>1154800</v>
+        <v>1200300</v>
       </c>
       <c r="H76" s="3">
-        <v>1134100</v>
+        <v>1143000</v>
       </c>
       <c r="I76" s="3">
-        <v>1090100</v>
+        <v>1122500</v>
       </c>
       <c r="J76" s="3">
+        <v>1079000</v>
+      </c>
+      <c r="K76" s="3">
         <v>1036200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1000200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1165600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1141100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1171800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1079900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1198400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1115900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1018000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>888000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>793200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>742600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>691900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>680800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>609700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>563200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>473700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>479900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>468800</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>26200</v>
+        <v>19900</v>
       </c>
       <c r="E81" s="3">
-        <v>50100</v>
+        <v>25900</v>
       </c>
       <c r="F81" s="3">
-        <v>43800</v>
+        <v>49600</v>
       </c>
       <c r="G81" s="3">
-        <v>40400</v>
+        <v>43400</v>
       </c>
       <c r="H81" s="3">
-        <v>39200</v>
+        <v>40000</v>
       </c>
       <c r="I81" s="3">
-        <v>43900</v>
+        <v>38800</v>
       </c>
       <c r="J81" s="3">
+        <v>43400</v>
+      </c>
+      <c r="K81" s="3">
         <v>65200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-219000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>42100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>44200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>38300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>15800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>29900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>38200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>43300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>23700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>29100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>25800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>38500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>26800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>27900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>30500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>32000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>11200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6291,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,56 +6706,59 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>14200</v>
+        <v>34700</v>
       </c>
       <c r="E89" s="3">
-        <v>-30400</v>
+        <v>14000</v>
       </c>
       <c r="F89" s="3">
-        <v>72000</v>
+        <v>-30100</v>
       </c>
       <c r="G89" s="3">
-        <v>94800</v>
+        <v>71200</v>
       </c>
       <c r="H89" s="3">
-        <v>51800</v>
+        <v>93900</v>
       </c>
       <c r="I89" s="3">
+        <v>51300</v>
+      </c>
+      <c r="J89" s="3">
         <v>700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>71200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>42200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>53200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>19400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>129700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>34400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>11100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
@@ -6573,8 +6789,11 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6822,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +6903,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,56 +7069,59 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E94" s="3">
         <v>900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1300</v>
       </c>
-      <c r="G94" s="3">
-        <v>-441900</v>
-      </c>
       <c r="H94" s="3">
-        <v>33700</v>
+        <v>-437400</v>
       </c>
       <c r="I94" s="3">
-        <v>28900</v>
+        <v>33300</v>
       </c>
       <c r="J94" s="3">
+        <v>28600</v>
+      </c>
+      <c r="K94" s="3">
         <v>9900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>24400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>19300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>21000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-163200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>68600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>56600</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
@@ -6923,8 +7152,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,56 +7515,59 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>34000</v>
+        <v>-500</v>
       </c>
       <c r="E100" s="3">
-        <v>-1700</v>
+        <v>33700</v>
       </c>
       <c r="F100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G100" s="3">
         <v>1700</v>
       </c>
-      <c r="G100" s="3">
-        <v>-153100</v>
-      </c>
       <c r="H100" s="3">
-        <v>1400</v>
+        <v>-151600</v>
       </c>
       <c r="I100" s="3">
         <v>1400</v>
       </c>
       <c r="J100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K100" s="3">
         <v>76600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-68500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>15100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>21000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>6300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>42400</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -7353,8 +7598,11 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7681,11 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7511,6 +7762,9 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOAH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOAH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
   <si>
     <t>NOAH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,205 +665,219 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>125400</v>
+        <v>129800</v>
       </c>
       <c r="E8" s="3">
-        <v>97300</v>
+        <v>110700</v>
       </c>
       <c r="F8" s="3">
-        <v>104900</v>
+        <v>121500</v>
       </c>
       <c r="G8" s="3">
-        <v>113100</v>
+        <v>94300</v>
       </c>
       <c r="H8" s="3">
-        <v>179100</v>
+        <v>101700</v>
       </c>
       <c r="I8" s="3">
+        <v>109600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>173600</v>
+      </c>
+      <c r="K8" s="3">
         <v>129200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>127800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>175900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>132700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>126600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>110100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>117700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>121400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>131400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>133200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>135400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>125100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>117400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>114400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>119200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>122100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>102900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>104300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>105200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>78600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -945,8 +959,14 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1048,14 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1142,8 +1170,14 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,44 +1259,50 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>14100</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
+        <v>13600</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>2700</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>254600</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1275,11 +1315,11 @@
       <c r="R14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1308,8 +1348,14 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1471,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>108200</v>
+        <v>81600</v>
       </c>
       <c r="E17" s="3">
-        <v>64400</v>
+        <v>72300</v>
       </c>
       <c r="F17" s="3">
-        <v>59000</v>
+        <v>104900</v>
       </c>
       <c r="G17" s="3">
-        <v>68500</v>
+        <v>62400</v>
       </c>
       <c r="H17" s="3">
-        <v>160200</v>
+        <v>57200</v>
       </c>
       <c r="I17" s="3">
+        <v>66400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>155300</v>
+      </c>
+      <c r="K17" s="3">
         <v>96900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>82900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>103700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>340600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>75400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>63100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>77300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>101900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>94800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>94700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>89300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>100800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>79500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>82700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>79800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>97700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>78800</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>71300</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>67300</v>
       </c>
       <c r="AB17" s="3">
         <v>71300</v>
       </c>
       <c r="AC17" s="3">
+        <v>67300</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>71300</v>
+      </c>
+      <c r="AE17" s="3">
         <v>66900</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>17200</v>
+        <v>48100</v>
       </c>
       <c r="E18" s="3">
+        <v>38400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>16600</v>
+      </c>
+      <c r="G18" s="3">
+        <v>31900</v>
+      </c>
+      <c r="H18" s="3">
+        <v>44500</v>
+      </c>
+      <c r="I18" s="3">
+        <v>43200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>18300</v>
+      </c>
+      <c r="K18" s="3">
+        <v>32300</v>
+      </c>
+      <c r="L18" s="3">
+        <v>44900</v>
+      </c>
+      <c r="M18" s="3">
+        <v>72100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-207900</v>
+      </c>
+      <c r="O18" s="3">
+        <v>51200</v>
+      </c>
+      <c r="P18" s="3">
+        <v>47100</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>40400</v>
+      </c>
+      <c r="R18" s="3">
+        <v>19400</v>
+      </c>
+      <c r="S18" s="3">
+        <v>36600</v>
+      </c>
+      <c r="T18" s="3">
+        <v>38500</v>
+      </c>
+      <c r="U18" s="3">
+        <v>46000</v>
+      </c>
+      <c r="V18" s="3">
+        <v>24300</v>
+      </c>
+      <c r="W18" s="3">
+        <v>37900</v>
+      </c>
+      <c r="X18" s="3">
+        <v>31700</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>39400</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>24400</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>24100</v>
+      </c>
+      <c r="AB18" s="3">
         <v>33000</v>
       </c>
-      <c r="F18" s="3">
-        <v>45900</v>
-      </c>
-      <c r="G18" s="3">
-        <v>44600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>18900</v>
-      </c>
-      <c r="I18" s="3">
-        <v>32300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>44900</v>
-      </c>
-      <c r="K18" s="3">
-        <v>72100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-207900</v>
-      </c>
-      <c r="M18" s="3">
-        <v>51200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>47100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>40400</v>
-      </c>
-      <c r="P18" s="3">
-        <v>19400</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>36600</v>
-      </c>
-      <c r="R18" s="3">
-        <v>38500</v>
-      </c>
-      <c r="S18" s="3">
-        <v>46000</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="AC18" s="3">
+        <v>37900</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>7300</v>
+      </c>
+      <c r="AE18" s="3">
         <v>24300</v>
       </c>
-      <c r="U18" s="3">
-        <v>37900</v>
-      </c>
-      <c r="V18" s="3">
-        <v>31700</v>
-      </c>
-      <c r="W18" s="3">
-        <v>39400</v>
-      </c>
-      <c r="X18" s="3">
-        <v>24400</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>24100</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>33000</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>37900</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>7300</v>
-      </c>
-      <c r="AC18" s="3">
-        <v>24300</v>
-      </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,91 +1682,99 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>9700</v>
+        <v>7100</v>
       </c>
       <c r="E20" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>9400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H20" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I20" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K20" s="3">
+        <v>5600</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M20" s="3">
+        <v>8200</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="O20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>6400</v>
+      </c>
+      <c r="R20" s="3">
+        <v>800</v>
+      </c>
+      <c r="S20" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="T20" s="3">
+        <v>6300</v>
+      </c>
+      <c r="U20" s="3">
+        <v>7100</v>
+      </c>
+      <c r="V20" s="3">
         <v>2800</v>
       </c>
-      <c r="F20" s="3">
-        <v>4900</v>
-      </c>
-      <c r="G20" s="3">
-        <v>5400</v>
-      </c>
-      <c r="H20" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>5600</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>8200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-12800</v>
-      </c>
-      <c r="M20" s="3">
-        <v>2500</v>
-      </c>
-      <c r="N20" s="3">
-        <v>2900</v>
-      </c>
-      <c r="O20" s="3">
-        <v>6400</v>
-      </c>
-      <c r="P20" s="3">
-        <v>800</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="R20" s="3">
-        <v>6300</v>
-      </c>
-      <c r="S20" s="3">
-        <v>7100</v>
-      </c>
-      <c r="T20" s="3">
-        <v>2800</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>2000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>9500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>7800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>3600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>3500</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>2900</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>2800</v>
       </c>
       <c r="AC20" s="3">
         <v>2900</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1782,8 +1856,14 @@
       <c r="AC21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1814,14 +1894,14 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1833,206 +1913,224 @@
         <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X22" s="3">
         <v>500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>1000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>1600</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>700</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>700</v>
       </c>
       <c r="AA22" s="3">
         <v>700</v>
       </c>
       <c r="AB22" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AC22" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>600</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>26800</v>
+        <v>55200</v>
       </c>
       <c r="E23" s="3">
-        <v>35700</v>
+        <v>42600</v>
       </c>
       <c r="F23" s="3">
-        <v>50900</v>
+        <v>26000</v>
       </c>
       <c r="G23" s="3">
+        <v>34600</v>
+      </c>
+      <c r="H23" s="3">
+        <v>49300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>48400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>20500</v>
+      </c>
+      <c r="K23" s="3">
+        <v>37900</v>
+      </c>
+      <c r="L23" s="3">
+        <v>45900</v>
+      </c>
+      <c r="M23" s="3">
+        <v>80300</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-220700</v>
+      </c>
+      <c r="O23" s="3">
+        <v>53700</v>
+      </c>
+      <c r="P23" s="3">
         <v>50000</v>
       </c>
-      <c r="H23" s="3">
-        <v>21100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>37900</v>
-      </c>
-      <c r="J23" s="3">
-        <v>45900</v>
-      </c>
-      <c r="K23" s="3">
-        <v>80300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-220700</v>
-      </c>
-      <c r="M23" s="3">
-        <v>53700</v>
-      </c>
-      <c r="N23" s="3">
-        <v>50000</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>46800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>20200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>30400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>44800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>53100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>27100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>37500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>33300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>47900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>30600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>27000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>35800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>40100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>9600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>26500</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>8600</v>
+        <v>12400</v>
       </c>
       <c r="E24" s="3">
-        <v>7300</v>
+        <v>9600</v>
       </c>
       <c r="F24" s="3">
-        <v>11100</v>
+        <v>8300</v>
       </c>
       <c r="G24" s="3">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="H24" s="3">
-        <v>5000</v>
+        <v>10800</v>
       </c>
       <c r="I24" s="3">
+        <v>10700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K24" s="3">
         <v>8500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>9800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>18600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>3800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>12500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>11500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>10800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>4300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>7000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>10300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>12100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>4400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>8700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>8300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>10600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>6300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>6300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>8900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>9100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>2100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>18200</v>
+        <v>42800</v>
       </c>
       <c r="E26" s="3">
-        <v>28500</v>
+        <v>33000</v>
       </c>
       <c r="F26" s="3">
-        <v>39800</v>
+        <v>17700</v>
       </c>
       <c r="G26" s="3">
-        <v>39000</v>
+        <v>27600</v>
       </c>
       <c r="H26" s="3">
-        <v>16100</v>
+        <v>38500</v>
       </c>
       <c r="I26" s="3">
+        <v>37800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K26" s="3">
         <v>29400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>36200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>61700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-224500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>41100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>38500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>36100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>15900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>23400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>34500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>41000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>22600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>28800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>25000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>37300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>24300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>20700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>26900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>31000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>7500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>19900</v>
+        <v>43500</v>
       </c>
       <c r="E27" s="3">
-        <v>25900</v>
+        <v>33600</v>
       </c>
       <c r="F27" s="3">
-        <v>49600</v>
+        <v>19300</v>
       </c>
       <c r="G27" s="3">
+        <v>25100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>48100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>42100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>38800</v>
+      </c>
+      <c r="K27" s="3">
+        <v>38800</v>
+      </c>
+      <c r="L27" s="3">
         <v>43400</v>
       </c>
-      <c r="H27" s="3">
-        <v>40000</v>
-      </c>
-      <c r="I27" s="3">
-        <v>38800</v>
-      </c>
-      <c r="J27" s="3">
-        <v>43400</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>65200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-219000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>42100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>44200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>38300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>15800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>29900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>38200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>43300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>23700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>29100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>25800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>38500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>26800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>27900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>30500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>32000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>11200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2746,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9700</v>
+        <v>-7100</v>
       </c>
       <c r="E32" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="N32" s="3">
+        <v>12800</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S32" s="3">
+        <v>6200</v>
+      </c>
+      <c r="T32" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="U32" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="V32" s="3">
         <v>-2800</v>
       </c>
-      <c r="F32" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-5400</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-8200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>12800</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-800</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>6200</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-2000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-9500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-3600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-3500</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>-2800</v>
       </c>
       <c r="AC32" s="3">
         <v>-2900</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>-2900</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>19900</v>
+        <v>43500</v>
       </c>
       <c r="E33" s="3">
-        <v>25900</v>
+        <v>33600</v>
       </c>
       <c r="F33" s="3">
-        <v>49600</v>
+        <v>19300</v>
       </c>
       <c r="G33" s="3">
+        <v>25100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>48100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>42100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>38800</v>
+      </c>
+      <c r="K33" s="3">
+        <v>38800</v>
+      </c>
+      <c r="L33" s="3">
         <v>43400</v>
       </c>
-      <c r="H33" s="3">
-        <v>40000</v>
-      </c>
-      <c r="I33" s="3">
-        <v>38800</v>
-      </c>
-      <c r="J33" s="3">
-        <v>43400</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>65200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-219000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>42100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>44200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>38300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>15800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>29900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>38200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>43300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>23700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>29100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>25800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>38500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>26800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>27900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>30500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>32000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>11200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>19900</v>
+        <v>43500</v>
       </c>
       <c r="E35" s="3">
-        <v>25900</v>
+        <v>33600</v>
       </c>
       <c r="F35" s="3">
-        <v>49600</v>
+        <v>19300</v>
       </c>
       <c r="G35" s="3">
+        <v>25100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>48100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>42100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>38800</v>
+      </c>
+      <c r="K35" s="3">
+        <v>38800</v>
+      </c>
+      <c r="L35" s="3">
         <v>43400</v>
       </c>
-      <c r="H35" s="3">
-        <v>40000</v>
-      </c>
-      <c r="I35" s="3">
-        <v>38800</v>
-      </c>
-      <c r="J35" s="3">
-        <v>43400</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>65200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-219000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>42100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>44200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>38300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>15800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>29900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>38200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>43300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>23700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>29100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>25800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>38500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>26800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>27900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>30500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>32000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>11200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,257 +3266,277 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>626000</v>
+        <v>653100</v>
       </c>
       <c r="E41" s="3">
-        <v>613100</v>
+        <v>649400</v>
       </c>
       <c r="F41" s="3">
-        <v>512900</v>
+        <v>606800</v>
       </c>
       <c r="G41" s="3">
-        <v>554400</v>
+        <v>594200</v>
       </c>
       <c r="H41" s="3">
-        <v>484000</v>
+        <v>497100</v>
       </c>
       <c r="I41" s="3">
+        <v>537300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>469100</v>
+      </c>
+      <c r="K41" s="3">
         <v>402200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>381900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>704400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>696700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>677500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>614600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>638300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>675600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>572400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>439000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>436500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>411300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>330300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>300600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>308700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>293100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>298800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>295500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>379100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>429600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>263500</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>44900</v>
+        <v>61400</v>
       </c>
       <c r="E42" s="3">
-        <v>14000</v>
+        <v>43600</v>
       </c>
       <c r="F42" s="3">
-        <v>12200</v>
+        <v>43500</v>
       </c>
       <c r="G42" s="3">
-        <v>9100</v>
+        <v>13600</v>
       </c>
       <c r="H42" s="3">
-        <v>13200</v>
+        <v>11800</v>
       </c>
       <c r="I42" s="3">
+        <v>8900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>12800</v>
+      </c>
+      <c r="K42" s="3">
         <v>15400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>13700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>20600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>16000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>8200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>9000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>15400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>103400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>86900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>114200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>76300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>68500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>29800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>32100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>35400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>24600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>63800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>84000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>59600</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>43100</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AE42" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200000</v>
+        <v>179800</v>
       </c>
       <c r="E43" s="3">
-        <v>201700</v>
+        <v>171500</v>
       </c>
       <c r="F43" s="3">
-        <v>239600</v>
+        <v>193900</v>
       </c>
       <c r="G43" s="3">
-        <v>214300</v>
+        <v>195500</v>
       </c>
       <c r="H43" s="3">
-        <v>263700</v>
+        <v>232300</v>
       </c>
       <c r="I43" s="3">
+        <v>207700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>255600</v>
+      </c>
+      <c r="K43" s="3">
         <v>246300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>231600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>225100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>191200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>226000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>253500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>264400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>219000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>242800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>258800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>230700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>227200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>223100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>211900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>255600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>263300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>253800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>259000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>217400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>196000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>127400</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,340 +3618,370 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>27000</v>
+        <v>47400</v>
       </c>
       <c r="E45" s="3">
-        <v>27700</v>
+        <v>46200</v>
       </c>
       <c r="F45" s="3">
+        <v>26200</v>
+      </c>
+      <c r="G45" s="3">
+        <v>26800</v>
+      </c>
+      <c r="H45" s="3">
+        <v>29400</v>
+      </c>
+      <c r="I45" s="3">
+        <v>23600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K45" s="3">
         <v>30300</v>
       </c>
-      <c r="G45" s="3">
-        <v>24400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>23300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>30300</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>35500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>30700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>29200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>28800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>30100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>32100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>38500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>46900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>48500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>72800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>69300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>63800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>69400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>35500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>39300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>35900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>11600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>44600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>12900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>100500</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>898000</v>
+        <v>941700</v>
       </c>
       <c r="E46" s="3">
-        <v>856500</v>
+        <v>910700</v>
       </c>
       <c r="F46" s="3">
-        <v>795000</v>
+        <v>870400</v>
       </c>
       <c r="G46" s="3">
-        <v>802100</v>
+        <v>830100</v>
       </c>
       <c r="H46" s="3">
-        <v>784200</v>
+        <v>770600</v>
       </c>
       <c r="I46" s="3">
+        <v>777500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>760100</v>
+      </c>
+      <c r="K46" s="3">
         <v>694200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>662700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>980800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>933100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>940400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>907200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>950200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1036500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>949100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>860500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>816400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>776400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>647000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>614000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>635200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>620300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>652300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>650100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>700600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>681600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>565500</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>322100</v>
+        <v>336900</v>
       </c>
       <c r="E47" s="3">
-        <v>318400</v>
+        <v>320500</v>
       </c>
       <c r="F47" s="3">
-        <v>315900</v>
+        <v>312200</v>
       </c>
       <c r="G47" s="3">
-        <v>302700</v>
+        <v>308700</v>
       </c>
       <c r="H47" s="3">
-        <v>294300</v>
+        <v>306200</v>
       </c>
       <c r="I47" s="3">
+        <v>293400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>285300</v>
+      </c>
+      <c r="K47" s="3">
         <v>278900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>257700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>262100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>250700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>306000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>313500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>341300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>331600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>346200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>390000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>373900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>365100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>309300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>284500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>278400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>300800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>200100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>188400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>146500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>127600</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AE47" s="3">
         <v>117100</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>377300</v>
+        <v>368900</v>
       </c>
       <c r="E48" s="3">
-        <v>382000</v>
+        <v>367000</v>
       </c>
       <c r="F48" s="3">
-        <v>384400</v>
+        <v>365700</v>
       </c>
       <c r="G48" s="3">
-        <v>392000</v>
+        <v>370300</v>
       </c>
       <c r="H48" s="3">
-        <v>398700</v>
+        <v>372600</v>
       </c>
       <c r="I48" s="3">
+        <v>379900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>386400</v>
+      </c>
+      <c r="K48" s="3">
         <v>406900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>412100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>72400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>72800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>79800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>89400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>96100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>99900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>105400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>105400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>94700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>52700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>41400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>42400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>43000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>46600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>37300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>37300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>35900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>35100</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3841,8 +4063,14 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4241,103 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>79700</v>
+        <v>83500</v>
       </c>
       <c r="E52" s="3">
-        <v>70200</v>
+        <v>80100</v>
       </c>
       <c r="F52" s="3">
-        <v>70500</v>
+        <v>77200</v>
       </c>
       <c r="G52" s="3">
-        <v>70800</v>
+        <v>68000</v>
       </c>
       <c r="H52" s="3">
-        <v>70800</v>
+        <v>68300</v>
       </c>
       <c r="I52" s="3">
+        <v>68600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>68600</v>
+      </c>
+      <c r="K52" s="3">
         <v>56100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>60100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>63000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>51900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>50700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>46200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>46300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>41500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>32200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>29400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>27500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>24800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>16800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>25000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>26800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>30500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>23500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>19800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>13300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>13600</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1677100</v>
+        <v>1731000</v>
       </c>
       <c r="E54" s="3">
-        <v>1627100</v>
+        <v>1678300</v>
       </c>
       <c r="F54" s="3">
-        <v>1565800</v>
+        <v>1625500</v>
       </c>
       <c r="G54" s="3">
-        <v>1567600</v>
+        <v>1577100</v>
       </c>
       <c r="H54" s="3">
-        <v>1548000</v>
+        <v>1517700</v>
       </c>
       <c r="I54" s="3">
+        <v>1519400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1500400</v>
+      </c>
+      <c r="K54" s="3">
         <v>1436100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1392700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1378300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1308400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1376900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1356300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1433800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1509400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1432900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1385200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1312500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1219100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1014600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>966000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>983300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>998200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>913200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>895500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>896300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>857900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>727500</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,8 +4578,10 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4378,31 +4640,37 @@
         <v>0</v>
       </c>
       <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
         <v>5000</v>
       </c>
-      <c r="W57" s="3">
-        <v>0</v>
-      </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
         <v>600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>45700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>48500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>84300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>82000</v>
       </c>
-      <c r="AC57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4460,198 +4728,216 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
+      <c r="V58" s="3">
+        <v>0</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
-      <c r="X58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
         <v>75000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>75000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>80000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>80000</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>270800</v>
+        <v>293400</v>
       </c>
       <c r="E59" s="3">
+        <v>287500</v>
+      </c>
+      <c r="F59" s="3">
+        <v>262500</v>
+      </c>
+      <c r="G59" s="3">
+        <v>225400</v>
+      </c>
+      <c r="H59" s="3">
+        <v>237200</v>
+      </c>
+      <c r="I59" s="3">
+        <v>295700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>314600</v>
+      </c>
+      <c r="K59" s="3">
+        <v>241300</v>
+      </c>
+      <c r="L59" s="3">
+        <v>239900</v>
+      </c>
+      <c r="M59" s="3">
+        <v>309400</v>
+      </c>
+      <c r="N59" s="3">
+        <v>261800</v>
+      </c>
+      <c r="O59" s="3">
+        <v>160700</v>
+      </c>
+      <c r="P59" s="3">
+        <v>155300</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>198300</v>
+      </c>
+      <c r="R59" s="3">
+        <v>231700</v>
+      </c>
+      <c r="S59" s="3">
+        <v>164600</v>
+      </c>
+      <c r="T59" s="3">
+        <v>197600</v>
+      </c>
+      <c r="U59" s="3">
         <v>232600</v>
       </c>
-      <c r="F59" s="3">
-        <v>244700</v>
-      </c>
-      <c r="G59" s="3">
-        <v>305100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>324500</v>
-      </c>
-      <c r="I59" s="3">
-        <v>241300</v>
-      </c>
-      <c r="J59" s="3">
-        <v>239900</v>
-      </c>
-      <c r="K59" s="3">
-        <v>309400</v>
-      </c>
-      <c r="L59" s="3">
-        <v>261800</v>
-      </c>
-      <c r="M59" s="3">
-        <v>160700</v>
-      </c>
-      <c r="N59" s="3">
-        <v>155300</v>
-      </c>
-      <c r="O59" s="3">
-        <v>198300</v>
-      </c>
-      <c r="P59" s="3">
-        <v>231700</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>164600</v>
-      </c>
-      <c r="R59" s="3">
-        <v>197600</v>
-      </c>
-      <c r="S59" s="3">
-        <v>232600</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>242000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>171700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>147500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>200200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>204600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>171400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>138600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>198000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>144900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>162200</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>270800</v>
+        <v>293400</v>
       </c>
       <c r="E60" s="3">
+        <v>287500</v>
+      </c>
+      <c r="F60" s="3">
+        <v>262500</v>
+      </c>
+      <c r="G60" s="3">
+        <v>225400</v>
+      </c>
+      <c r="H60" s="3">
+        <v>237200</v>
+      </c>
+      <c r="I60" s="3">
+        <v>295700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>314600</v>
+      </c>
+      <c r="K60" s="3">
+        <v>241300</v>
+      </c>
+      <c r="L60" s="3">
+        <v>239900</v>
+      </c>
+      <c r="M60" s="3">
+        <v>309400</v>
+      </c>
+      <c r="N60" s="3">
+        <v>261800</v>
+      </c>
+      <c r="O60" s="3">
+        <v>160700</v>
+      </c>
+      <c r="P60" s="3">
+        <v>155300</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>198300</v>
+      </c>
+      <c r="R60" s="3">
+        <v>231700</v>
+      </c>
+      <c r="S60" s="3">
+        <v>164600</v>
+      </c>
+      <c r="T60" s="3">
+        <v>197600</v>
+      </c>
+      <c r="U60" s="3">
         <v>232600</v>
       </c>
-      <c r="F60" s="3">
-        <v>244700</v>
-      </c>
-      <c r="G60" s="3">
-        <v>305100</v>
-      </c>
-      <c r="H60" s="3">
-        <v>324500</v>
-      </c>
-      <c r="I60" s="3">
-        <v>241300</v>
-      </c>
-      <c r="J60" s="3">
-        <v>239900</v>
-      </c>
-      <c r="K60" s="3">
-        <v>309400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>261800</v>
-      </c>
-      <c r="M60" s="3">
-        <v>160700</v>
-      </c>
-      <c r="N60" s="3">
-        <v>155300</v>
-      </c>
-      <c r="O60" s="3">
-        <v>198300</v>
-      </c>
-      <c r="P60" s="3">
-        <v>231700</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>164600</v>
-      </c>
-      <c r="R60" s="3">
-        <v>197600</v>
-      </c>
-      <c r="S60" s="3">
-        <v>232600</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>242000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>171700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>152500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>200300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>280200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>292100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>267100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>362300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>226900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>162200</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4704,23 +4990,23 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>22100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>31900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>47500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>67500</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
@@ -4728,96 +5014,108 @@
         <v>0</v>
       </c>
       <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
         <v>80000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>55800</v>
+        <v>50200</v>
       </c>
       <c r="E62" s="3">
-        <v>58100</v>
+        <v>51500</v>
       </c>
       <c r="F62" s="3">
-        <v>59100</v>
+        <v>54100</v>
       </c>
       <c r="G62" s="3">
-        <v>62200</v>
+        <v>56400</v>
       </c>
       <c r="H62" s="3">
-        <v>66100</v>
+        <v>57300</v>
       </c>
       <c r="I62" s="3">
+        <v>60300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>64100</v>
+      </c>
+      <c r="K62" s="3">
         <v>72400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>73800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>32600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>33600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>50700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>59900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>63700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>65100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>69900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>71700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>62000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>15600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>17800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>23300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>23600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>25200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>11500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>15500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>11700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>14900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>16500</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>340100</v>
+        <v>343600</v>
       </c>
       <c r="E66" s="3">
-        <v>290700</v>
+        <v>338900</v>
       </c>
       <c r="F66" s="3">
-        <v>303800</v>
+        <v>329600</v>
       </c>
       <c r="G66" s="3">
-        <v>367300</v>
+        <v>281800</v>
       </c>
       <c r="H66" s="3">
-        <v>405000</v>
+        <v>294400</v>
       </c>
       <c r="I66" s="3">
+        <v>356000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>392500</v>
+      </c>
+      <c r="K66" s="3">
         <v>313600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>313700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>342100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>308200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>211400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>215200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>262000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>429500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>234500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>269300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>294600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>331100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>221400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>223400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>291400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>317500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>303600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>332300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>422600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>378000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>258700</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>796700</v>
+      <c r="D72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
+      <c r="F72" s="3">
+        <v>772300</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H72" s="3">
-        <v>737400</v>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
+      <c r="J72" s="3">
+        <v>714700</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>555400</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>729100</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>600300</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z72" s="3">
         <v>443100</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AB72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD72" s="3">
         <v>322900</v>
       </c>
-      <c r="AC72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1337000</v>
+        <v>1387400</v>
       </c>
       <c r="E76" s="3">
-        <v>1336400</v>
+        <v>1339400</v>
       </c>
       <c r="F76" s="3">
-        <v>1262000</v>
+        <v>1295900</v>
       </c>
       <c r="G76" s="3">
-        <v>1200300</v>
+        <v>1295300</v>
       </c>
       <c r="H76" s="3">
-        <v>1143000</v>
+        <v>1223200</v>
       </c>
       <c r="I76" s="3">
+        <v>1163400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1107900</v>
+      </c>
+      <c r="K76" s="3">
         <v>1122500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1079000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1036200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1000200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1165600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1141100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1171800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1079900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1198400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1115900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1018000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>888000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>793200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>742600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>691900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>680800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>609700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>563200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>473700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>479900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>468800</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>19900</v>
+        <v>43500</v>
       </c>
       <c r="E81" s="3">
-        <v>25900</v>
+        <v>33600</v>
       </c>
       <c r="F81" s="3">
-        <v>49600</v>
+        <v>19300</v>
       </c>
       <c r="G81" s="3">
+        <v>25100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>48100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>42100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>38800</v>
+      </c>
+      <c r="K81" s="3">
+        <v>38800</v>
+      </c>
+      <c r="L81" s="3">
         <v>43400</v>
       </c>
-      <c r="H81" s="3">
-        <v>40000</v>
-      </c>
-      <c r="I81" s="3">
-        <v>38800</v>
-      </c>
-      <c r="J81" s="3">
-        <v>43400</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>65200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-219000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>42100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>44200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>38300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>15800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>29900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>38200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>43300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>23700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>29100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>25800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>38500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>26800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>27900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>30500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>32000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>11200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6607,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6294,8 +6692,14 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,62 +7137,68 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>34700</v>
+        <v>24300</v>
       </c>
       <c r="E89" s="3">
-        <v>14000</v>
+        <v>80600</v>
       </c>
       <c r="F89" s="3">
-        <v>-30100</v>
+        <v>33700</v>
       </c>
       <c r="G89" s="3">
+        <v>13600</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>69100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>91000</v>
+      </c>
+      <c r="K89" s="3">
+        <v>51300</v>
+      </c>
+      <c r="L89" s="3">
+        <v>700</v>
+      </c>
+      <c r="M89" s="3">
         <v>71200</v>
       </c>
-      <c r="H89" s="3">
-        <v>93900</v>
-      </c>
-      <c r="I89" s="3">
-        <v>51300</v>
-      </c>
-      <c r="J89" s="3">
-        <v>700</v>
-      </c>
-      <c r="K89" s="3">
-        <v>71200</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>42200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>53200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>19400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>129700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>34400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>11100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
@@ -6792,8 +7226,14 @@
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7263,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6906,8 +7348,14 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,62 +7526,68 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>7200</v>
+        <v>45400</v>
       </c>
       <c r="E94" s="3">
+        <v>20500</v>
+      </c>
+      <c r="F94" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G94" s="3">
         <v>900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>1100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>1300</v>
       </c>
-      <c r="H94" s="3">
-        <v>-437400</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
+        <v>-423900</v>
+      </c>
+      <c r="K94" s="3">
         <v>33300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>28600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>9900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-10800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>24400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>19300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>21000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-163200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>68600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>56600</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
@@ -7155,8 +7615,14 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,62 +8004,68 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-500</v>
       </c>
-      <c r="E100" s="3">
-        <v>33700</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>32600</v>
+      </c>
+      <c r="H100" s="3">
         <v>-1600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1700</v>
       </c>
-      <c r="H100" s="3">
-        <v>-151600</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>-146900</v>
+      </c>
+      <c r="K100" s="3">
         <v>1400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>76600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-68500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>3400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>15100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>21000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>6300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>42400</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
@@ -7601,8 +8093,14 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,8 +8182,14 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7765,6 +8269,12 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOAH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOAH_QTR_FIN.xlsx
@@ -793,25 +793,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>129800</v>
+        <v>130000</v>
       </c>
       <c r="E8" s="3">
-        <v>110700</v>
+        <v>110900</v>
       </c>
       <c r="F8" s="3">
-        <v>121500</v>
+        <v>121800</v>
       </c>
       <c r="G8" s="3">
-        <v>94300</v>
+        <v>94500</v>
       </c>
       <c r="H8" s="3">
-        <v>101700</v>
+        <v>101900</v>
       </c>
       <c r="I8" s="3">
-        <v>109600</v>
+        <v>109900</v>
       </c>
       <c r="J8" s="3">
-        <v>173600</v>
+        <v>174000</v>
       </c>
       <c r="K8" s="3">
         <v>129200</v>
@@ -1277,7 +1277,7 @@
         <v>5</v>
       </c>
       <c r="F14" s="3">
-        <v>13600</v>
+        <v>13700</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1479,25 +1479,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>81600</v>
+        <v>81800</v>
       </c>
       <c r="E17" s="3">
-        <v>72300</v>
+        <v>72400</v>
       </c>
       <c r="F17" s="3">
-        <v>104900</v>
+        <v>105100</v>
       </c>
       <c r="G17" s="3">
-        <v>62400</v>
+        <v>62500</v>
       </c>
       <c r="H17" s="3">
-        <v>57200</v>
+        <v>57300</v>
       </c>
       <c r="I17" s="3">
-        <v>66400</v>
+        <v>66500</v>
       </c>
       <c r="J17" s="3">
-        <v>155300</v>
+        <v>155600</v>
       </c>
       <c r="K17" s="3">
         <v>96900</v>
@@ -1568,25 +1568,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>48100</v>
+        <v>48300</v>
       </c>
       <c r="E18" s="3">
-        <v>38400</v>
+        <v>38500</v>
       </c>
       <c r="F18" s="3">
-        <v>16600</v>
+        <v>16700</v>
       </c>
       <c r="G18" s="3">
-        <v>31900</v>
+        <v>32000</v>
       </c>
       <c r="H18" s="3">
-        <v>44500</v>
+        <v>44600</v>
       </c>
       <c r="I18" s="3">
-        <v>43200</v>
+        <v>43300</v>
       </c>
       <c r="J18" s="3">
-        <v>18300</v>
+        <v>18400</v>
       </c>
       <c r="K18" s="3">
         <v>32300</v>
@@ -1957,22 +1957,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>55200</v>
+        <v>55400</v>
       </c>
       <c r="E23" s="3">
-        <v>42600</v>
+        <v>42700</v>
       </c>
       <c r="F23" s="3">
-        <v>26000</v>
+        <v>26100</v>
       </c>
       <c r="G23" s="3">
-        <v>34600</v>
+        <v>34700</v>
       </c>
       <c r="H23" s="3">
-        <v>49300</v>
+        <v>49400</v>
       </c>
       <c r="I23" s="3">
-        <v>48400</v>
+        <v>48500</v>
       </c>
       <c r="J23" s="3">
         <v>20500</v>
@@ -2046,16 +2046,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>12400</v>
+        <v>12500</v>
       </c>
       <c r="E24" s="3">
         <v>9600</v>
       </c>
       <c r="F24" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="G24" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="H24" s="3">
         <v>10800</v>
@@ -2224,25 +2224,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>42800</v>
+        <v>42900</v>
       </c>
       <c r="E26" s="3">
-        <v>33000</v>
+        <v>33100</v>
       </c>
       <c r="F26" s="3">
         <v>17700</v>
       </c>
       <c r="G26" s="3">
-        <v>27600</v>
+        <v>27700</v>
       </c>
       <c r="H26" s="3">
-        <v>38500</v>
+        <v>38600</v>
       </c>
       <c r="I26" s="3">
-        <v>37800</v>
+        <v>37900</v>
       </c>
       <c r="J26" s="3">
-        <v>15600</v>
+        <v>15700</v>
       </c>
       <c r="K26" s="3">
         <v>29400</v>
@@ -2313,19 +2313,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>43500</v>
+        <v>43600</v>
       </c>
       <c r="E27" s="3">
-        <v>33600</v>
+        <v>33700</v>
       </c>
       <c r="F27" s="3">
         <v>19300</v>
       </c>
       <c r="G27" s="3">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="H27" s="3">
-        <v>48100</v>
+        <v>48200</v>
       </c>
       <c r="I27" s="3">
         <v>42100</v>
@@ -2847,19 +2847,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>43500</v>
+        <v>43600</v>
       </c>
       <c r="E33" s="3">
-        <v>33600</v>
+        <v>33700</v>
       </c>
       <c r="F33" s="3">
         <v>19300</v>
       </c>
       <c r="G33" s="3">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="H33" s="3">
-        <v>48100</v>
+        <v>48200</v>
       </c>
       <c r="I33" s="3">
         <v>42100</v>
@@ -3025,19 +3025,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>43500</v>
+        <v>43600</v>
       </c>
       <c r="E35" s="3">
-        <v>33600</v>
+        <v>33700</v>
       </c>
       <c r="F35" s="3">
         <v>19300</v>
       </c>
       <c r="G35" s="3">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="H35" s="3">
-        <v>48100</v>
+        <v>48200</v>
       </c>
       <c r="I35" s="3">
         <v>42100</v>
@@ -3274,25 +3274,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>653100</v>
+        <v>654600</v>
       </c>
       <c r="E41" s="3">
-        <v>649400</v>
+        <v>650800</v>
       </c>
       <c r="F41" s="3">
-        <v>606800</v>
+        <v>608100</v>
       </c>
       <c r="G41" s="3">
-        <v>594200</v>
+        <v>595500</v>
       </c>
       <c r="H41" s="3">
-        <v>497100</v>
+        <v>498200</v>
       </c>
       <c r="I41" s="3">
-        <v>537300</v>
+        <v>538500</v>
       </c>
       <c r="J41" s="3">
-        <v>469100</v>
+        <v>470100</v>
       </c>
       <c r="K41" s="3">
         <v>402200</v>
@@ -3363,19 +3363,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>61400</v>
+        <v>61500</v>
       </c>
       <c r="E42" s="3">
+        <v>43700</v>
+      </c>
+      <c r="F42" s="3">
         <v>43600</v>
-      </c>
-      <c r="F42" s="3">
-        <v>43500</v>
       </c>
       <c r="G42" s="3">
         <v>13600</v>
       </c>
       <c r="H42" s="3">
-        <v>11800</v>
+        <v>11900</v>
       </c>
       <c r="I42" s="3">
         <v>8900</v>
@@ -3452,25 +3452,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>179800</v>
+        <v>180200</v>
       </c>
       <c r="E43" s="3">
-        <v>171500</v>
+        <v>171800</v>
       </c>
       <c r="F43" s="3">
-        <v>193900</v>
+        <v>194300</v>
       </c>
       <c r="G43" s="3">
-        <v>195500</v>
+        <v>195900</v>
       </c>
       <c r="H43" s="3">
-        <v>232300</v>
+        <v>232800</v>
       </c>
       <c r="I43" s="3">
-        <v>207700</v>
+        <v>208100</v>
       </c>
       <c r="J43" s="3">
-        <v>255600</v>
+        <v>256200</v>
       </c>
       <c r="K43" s="3">
         <v>246300</v>
@@ -3630,25 +3630,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>47400</v>
+        <v>47500</v>
       </c>
       <c r="E45" s="3">
-        <v>46200</v>
+        <v>46300</v>
       </c>
       <c r="F45" s="3">
         <v>26200</v>
       </c>
       <c r="G45" s="3">
-        <v>26800</v>
+        <v>26900</v>
       </c>
       <c r="H45" s="3">
-        <v>29400</v>
+        <v>29500</v>
       </c>
       <c r="I45" s="3">
-        <v>23600</v>
+        <v>23700</v>
       </c>
       <c r="J45" s="3">
-        <v>22600</v>
+        <v>22700</v>
       </c>
       <c r="K45" s="3">
         <v>30300</v>
@@ -3719,25 +3719,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>941700</v>
+        <v>943800</v>
       </c>
       <c r="E46" s="3">
-        <v>910700</v>
+        <v>912600</v>
       </c>
       <c r="F46" s="3">
-        <v>870400</v>
+        <v>872300</v>
       </c>
       <c r="G46" s="3">
-        <v>830100</v>
+        <v>831900</v>
       </c>
       <c r="H46" s="3">
-        <v>770600</v>
+        <v>772300</v>
       </c>
       <c r="I46" s="3">
-        <v>777500</v>
+        <v>779200</v>
       </c>
       <c r="J46" s="3">
-        <v>760100</v>
+        <v>761800</v>
       </c>
       <c r="K46" s="3">
         <v>694200</v>
@@ -3808,25 +3808,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>336900</v>
+        <v>337600</v>
       </c>
       <c r="E47" s="3">
-        <v>320500</v>
+        <v>321200</v>
       </c>
       <c r="F47" s="3">
-        <v>312200</v>
+        <v>312900</v>
       </c>
       <c r="G47" s="3">
-        <v>308700</v>
+        <v>309300</v>
       </c>
       <c r="H47" s="3">
-        <v>306200</v>
+        <v>306900</v>
       </c>
       <c r="I47" s="3">
-        <v>293400</v>
+        <v>294000</v>
       </c>
       <c r="J47" s="3">
-        <v>285300</v>
+        <v>285900</v>
       </c>
       <c r="K47" s="3">
         <v>278900</v>
@@ -3897,25 +3897,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>368900</v>
+        <v>369700</v>
       </c>
       <c r="E48" s="3">
-        <v>367000</v>
+        <v>367800</v>
       </c>
       <c r="F48" s="3">
-        <v>365700</v>
+        <v>366500</v>
       </c>
       <c r="G48" s="3">
-        <v>370300</v>
+        <v>371100</v>
       </c>
       <c r="H48" s="3">
-        <v>372600</v>
+        <v>373400</v>
       </c>
       <c r="I48" s="3">
-        <v>379900</v>
+        <v>380800</v>
       </c>
       <c r="J48" s="3">
-        <v>386400</v>
+        <v>387300</v>
       </c>
       <c r="K48" s="3">
         <v>406900</v>
@@ -4253,25 +4253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>83500</v>
+        <v>83600</v>
       </c>
       <c r="E52" s="3">
-        <v>80100</v>
+        <v>80300</v>
       </c>
       <c r="F52" s="3">
-        <v>77200</v>
+        <v>77400</v>
       </c>
       <c r="G52" s="3">
-        <v>68000</v>
+        <v>68200</v>
       </c>
       <c r="H52" s="3">
-        <v>68300</v>
+        <v>68400</v>
       </c>
       <c r="I52" s="3">
-        <v>68600</v>
+        <v>68800</v>
       </c>
       <c r="J52" s="3">
-        <v>68600</v>
+        <v>68700</v>
       </c>
       <c r="K52" s="3">
         <v>56100</v>
@@ -4431,25 +4431,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1731000</v>
+        <v>1734700</v>
       </c>
       <c r="E54" s="3">
-        <v>1678300</v>
+        <v>1682000</v>
       </c>
       <c r="F54" s="3">
-        <v>1625500</v>
+        <v>1629100</v>
       </c>
       <c r="G54" s="3">
-        <v>1577100</v>
+        <v>1580500</v>
       </c>
       <c r="H54" s="3">
-        <v>1517700</v>
+        <v>1521000</v>
       </c>
       <c r="I54" s="3">
-        <v>1519400</v>
+        <v>1522800</v>
       </c>
       <c r="J54" s="3">
-        <v>1500400</v>
+        <v>1503700</v>
       </c>
       <c r="K54" s="3">
         <v>1436100</v>
@@ -4764,25 +4764,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>293400</v>
+        <v>294000</v>
       </c>
       <c r="E59" s="3">
-        <v>287500</v>
+        <v>288100</v>
       </c>
       <c r="F59" s="3">
-        <v>262500</v>
+        <v>263000</v>
       </c>
       <c r="G59" s="3">
-        <v>225400</v>
+        <v>225900</v>
       </c>
       <c r="H59" s="3">
-        <v>237200</v>
+        <v>237700</v>
       </c>
       <c r="I59" s="3">
-        <v>295700</v>
+        <v>296400</v>
       </c>
       <c r="J59" s="3">
-        <v>314600</v>
+        <v>315200</v>
       </c>
       <c r="K59" s="3">
         <v>241300</v>
@@ -4853,25 +4853,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>293400</v>
+        <v>294000</v>
       </c>
       <c r="E60" s="3">
-        <v>287500</v>
+        <v>288100</v>
       </c>
       <c r="F60" s="3">
-        <v>262500</v>
+        <v>263000</v>
       </c>
       <c r="G60" s="3">
-        <v>225400</v>
+        <v>225900</v>
       </c>
       <c r="H60" s="3">
-        <v>237200</v>
+        <v>237700</v>
       </c>
       <c r="I60" s="3">
-        <v>295700</v>
+        <v>296400</v>
       </c>
       <c r="J60" s="3">
-        <v>314600</v>
+        <v>315200</v>
       </c>
       <c r="K60" s="3">
         <v>241300</v>
@@ -5031,25 +5031,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>50200</v>
+        <v>50300</v>
       </c>
       <c r="E62" s="3">
-        <v>51500</v>
+        <v>51600</v>
       </c>
       <c r="F62" s="3">
-        <v>54100</v>
+        <v>54200</v>
       </c>
       <c r="G62" s="3">
-        <v>56400</v>
+        <v>56500</v>
       </c>
       <c r="H62" s="3">
-        <v>57300</v>
+        <v>57400</v>
       </c>
       <c r="I62" s="3">
-        <v>60300</v>
+        <v>60400</v>
       </c>
       <c r="J62" s="3">
-        <v>64100</v>
+        <v>64200</v>
       </c>
       <c r="K62" s="3">
         <v>72400</v>
@@ -5387,25 +5387,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>343600</v>
+        <v>344300</v>
       </c>
       <c r="E66" s="3">
-        <v>338900</v>
+        <v>339700</v>
       </c>
       <c r="F66" s="3">
-        <v>329600</v>
+        <v>330300</v>
       </c>
       <c r="G66" s="3">
-        <v>281800</v>
+        <v>282400</v>
       </c>
       <c r="H66" s="3">
-        <v>294400</v>
+        <v>295100</v>
       </c>
       <c r="I66" s="3">
-        <v>356000</v>
+        <v>356800</v>
       </c>
       <c r="J66" s="3">
-        <v>392500</v>
+        <v>393400</v>
       </c>
       <c r="K66" s="3">
         <v>313600</v>
@@ -5871,7 +5871,7 @@
         <v>5</v>
       </c>
       <c r="F72" s="3">
-        <v>772300</v>
+        <v>773900</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>5</v>
@@ -5883,7 +5883,7 @@
         <v>5</v>
       </c>
       <c r="J72" s="3">
-        <v>714700</v>
+        <v>716300</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>5</v>
@@ -6221,25 +6221,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1387400</v>
+        <v>1390400</v>
       </c>
       <c r="E76" s="3">
-        <v>1339400</v>
+        <v>1342300</v>
       </c>
       <c r="F76" s="3">
-        <v>1295900</v>
+        <v>1298700</v>
       </c>
       <c r="G76" s="3">
-        <v>1295300</v>
+        <v>1298100</v>
       </c>
       <c r="H76" s="3">
-        <v>1223200</v>
+        <v>1225900</v>
       </c>
       <c r="I76" s="3">
-        <v>1163400</v>
+        <v>1165900</v>
       </c>
       <c r="J76" s="3">
-        <v>1107900</v>
+        <v>1110300</v>
       </c>
       <c r="K76" s="3">
         <v>1122500</v>
@@ -6493,19 +6493,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>43500</v>
+        <v>43600</v>
       </c>
       <c r="E81" s="3">
-        <v>33600</v>
+        <v>33700</v>
       </c>
       <c r="F81" s="3">
         <v>19300</v>
       </c>
       <c r="G81" s="3">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="H81" s="3">
-        <v>48100</v>
+        <v>48200</v>
       </c>
       <c r="I81" s="3">
         <v>42100</v>
@@ -7149,10 +7149,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>24300</v>
+        <v>24400</v>
       </c>
       <c r="E89" s="3">
-        <v>80600</v>
+        <v>80800</v>
       </c>
       <c r="F89" s="3">
         <v>33700</v>
@@ -7161,13 +7161,13 @@
         <v>13600</v>
       </c>
       <c r="H89" s="3">
-        <v>-29100</v>
+        <v>-29200</v>
       </c>
       <c r="I89" s="3">
-        <v>69100</v>
+        <v>69200</v>
       </c>
       <c r="J89" s="3">
-        <v>91000</v>
+        <v>91200</v>
       </c>
       <c r="K89" s="3">
         <v>51300</v>
@@ -7538,7 +7538,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>45400</v>
+        <v>45500</v>
       </c>
       <c r="E94" s="3">
         <v>20500</v>
@@ -7556,7 +7556,7 @@
         <v>1300</v>
       </c>
       <c r="J94" s="3">
-        <v>-423900</v>
+        <v>-424800</v>
       </c>
       <c r="K94" s="3">
         <v>33300</v>
@@ -8025,7 +8025,7 @@
         <v>-500</v>
       </c>
       <c r="G100" s="3">
-        <v>32600</v>
+        <v>32700</v>
       </c>
       <c r="H100" s="3">
         <v>-1600</v>
@@ -8034,7 +8034,7 @@
         <v>1700</v>
       </c>
       <c r="J100" s="3">
-        <v>-146900</v>
+        <v>-147200</v>
       </c>
       <c r="K100" s="3">
         <v>1400</v>
